--- a/Degraders_list_v2.xlsx
+++ b/Degraders_list_v2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9576" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9576" uniqueCount="1106">
   <si>
     <t xml:space="preserve">Microorganism</t>
   </si>
@@ -2059,7 +2059,7 @@
     <t xml:space="preserve">Jarerat, A., Pranamuda, H., &amp; Tokiwa, Y. (2002). Poly (L‐lactide)‐degrading activity in various actinomycetes. Macromolecular Bioscience, 2(9), 420-428.</t>
   </si>
   <si>
-    <t xml:space="preserve"> LACTY 1012 (number-average molecular weight, Mn ¼ 3.4 _x005F_x0001_ 105 ; weight-average molecular weight, Mw¼ 6.5 _x005F_x0001_ 105 ; polydispersity, Mw/Mn ¼ 1.9)</t>
+    <t xml:space="preserve"> LACTY 1012 (number-average molecular weight, Mn ¼ 3.4 _x005F_x005F_x0001_ 105 ; weight-average molecular weight, Mw¼ 6.5 _x005F_x005F_x0001_ 105 ; polydispersity, Mw/Mn ¼ 1.9)</t>
   </si>
   <si>
     <t xml:space="preserve"> Shimadzu Co. Ltd</t>
@@ -3004,9 +3004,6 @@
     <t xml:space="preserve">India</t>
   </si>
   <si>
-    <t xml:space="preserve">Bacillus sp. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Liu, Y., Deng, Y., Chen, P., Duan, M., Lin, X., &amp; Zhang, Y. (2019). Biodegradation analysis of polyvinyl alcohol during the compost burial course. Journal of basic microbiology, 59(4), 368-374.</t>
   </si>
   <si>
@@ -3166,7 +3163,7 @@
     <t xml:space="preserve">Streptomyces omiyaensis</t>
   </si>
   <si>
-    <t xml:space="preserve">Pseudomonas beteli </t>
+    <t xml:space="preserve">Pseudomonas beteli</t>
   </si>
   <si>
     <t xml:space="preserve">Rhodococcus equi</t>
@@ -3468,8 +3465,8 @@
   </sheetPr>
   <dimension ref="A1:S953"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K937" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M949" activeCellId="0" sqref="M949"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A925" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A934" activeCellId="0" sqref="A934"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38752,7 +38749,7 @@
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="s">
-        <v>994</v>
+        <v>51</v>
       </c>
       <c r="B890" s="1" t="n">
         <v>0</v>
@@ -38761,7 +38758,7 @@
         <v>969</v>
       </c>
       <c r="D890" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E890" s="3" t="s">
         <v>22</v>
@@ -38779,28 +38776,28 @@
         <v>2019</v>
       </c>
       <c r="J890" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="K890" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="K890" s="3" t="s">
+      <c r="L890" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="L890" s="3" t="s">
+      <c r="M890" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N890" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O890" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="M890" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N890" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O890" s="3" t="s">
+      <c r="P890" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="P890" s="3" t="s">
+      <c r="Q890" s="3" t="s">
         <v>1000</v>
-      </c>
-      <c r="Q890" s="3" t="s">
-        <v>1001</v>
       </c>
       <c r="R890" s="3" t="n">
         <v>1</v>
@@ -38820,7 +38817,7 @@
         <v>969</v>
       </c>
       <c r="D891" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E891" s="3" t="s">
         <v>22</v>
@@ -38838,28 +38835,28 @@
         <v>2019</v>
       </c>
       <c r="J891" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="K891" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="K891" s="3" t="s">
+      <c r="L891" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="L891" s="3" t="s">
+      <c r="M891" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N891" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O891" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="M891" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N891" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O891" s="3" t="s">
+      <c r="P891" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="P891" s="3" t="s">
+      <c r="Q891" s="3" t="s">
         <v>1000</v>
-      </c>
-      <c r="Q891" s="3" t="s">
-        <v>1001</v>
       </c>
       <c r="R891" s="3" t="n">
         <v>1</v>
@@ -38879,7 +38876,7 @@
         <v>346</v>
       </c>
       <c r="D892" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E892" s="3" t="s">
         <v>22</v>
@@ -38897,13 +38894,13 @@
         <v>2013</v>
       </c>
       <c r="J892" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K892" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="K892" s="3" t="s">
+      <c r="L892" s="3" t="s">
         <v>1004</v>
-      </c>
-      <c r="L892" s="3" t="s">
-        <v>1005</v>
       </c>
       <c r="M892" s="3" t="s">
         <v>23</v>
@@ -38915,10 +38912,10 @@
         <v>653</v>
       </c>
       <c r="P892" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="Q892" s="3" t="s">
         <v>1006</v>
-      </c>
-      <c r="Q892" s="3" t="s">
-        <v>1007</v>
       </c>
       <c r="R892" s="3" t="n">
         <v>1</v>
@@ -38929,7 +38926,7 @@
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B893" s="1" t="n">
         <v>0</v>
@@ -38938,7 +38935,7 @@
         <v>346</v>
       </c>
       <c r="D893" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E893" s="3" t="s">
         <v>22</v>
@@ -38956,13 +38953,13 @@
         <v>2013</v>
       </c>
       <c r="J893" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K893" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="K893" s="3" t="s">
+      <c r="L893" s="3" t="s">
         <v>1004</v>
-      </c>
-      <c r="L893" s="3" t="s">
-        <v>1005</v>
       </c>
       <c r="M893" s="3" t="s">
         <v>23</v>
@@ -38974,10 +38971,10 @@
         <v>653</v>
       </c>
       <c r="P893" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="Q893" s="3" t="s">
         <v>1006</v>
-      </c>
-      <c r="Q893" s="3" t="s">
-        <v>1007</v>
       </c>
       <c r="R893" s="3" t="n">
         <v>1</v>
@@ -38988,7 +38985,7 @@
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B894" s="1" t="n">
         <v>0</v>
@@ -38997,7 +38994,7 @@
         <v>262</v>
       </c>
       <c r="D894" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E894" s="3" t="s">
         <v>22</v>
@@ -39015,13 +39012,13 @@
         <v>2007</v>
       </c>
       <c r="J894" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K894" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="K894" s="3" t="s">
+      <c r="L894" s="3" t="s">
         <v>1012</v>
-      </c>
-      <c r="L894" s="3" t="s">
-        <v>1013</v>
       </c>
       <c r="M894" s="3" t="s">
         <v>23</v>
@@ -39047,7 +39044,7 @@
     </row>
     <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B895" s="1" t="n">
         <v>0</v>
@@ -39056,7 +39053,7 @@
         <v>808</v>
       </c>
       <c r="D895" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E895" s="3" t="s">
         <v>22</v>
@@ -39077,10 +39074,10 @@
         <v>552</v>
       </c>
       <c r="K895" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L895" s="3" t="s">
         <v>1016</v>
-      </c>
-      <c r="L895" s="3" t="s">
-        <v>1017</v>
       </c>
       <c r="M895" s="3" t="s">
         <v>22</v>
@@ -39089,13 +39086,13 @@
         <v>38</v>
       </c>
       <c r="O895" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="P895" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q895" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="P895" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Q895" s="3" t="s">
-        <v>1019</v>
       </c>
       <c r="R895" s="3" t="n">
         <v>1</v>
@@ -39106,7 +39103,7 @@
     </row>
     <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B896" s="1" t="n">
         <v>0</v>
@@ -39115,7 +39112,7 @@
         <v>808</v>
       </c>
       <c r="D896" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E896" s="3" t="s">
         <v>22</v>
@@ -39136,10 +39133,10 @@
         <v>552</v>
       </c>
       <c r="K896" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L896" s="3" t="s">
         <v>1016</v>
-      </c>
-      <c r="L896" s="3" t="s">
-        <v>1017</v>
       </c>
       <c r="M896" s="3" t="s">
         <v>22</v>
@@ -39148,13 +39145,13 @@
         <v>38</v>
       </c>
       <c r="O896" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="P896" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q896" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="P896" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Q896" s="3" t="s">
-        <v>1019</v>
       </c>
       <c r="R896" s="3" t="n">
         <v>1</v>
@@ -39165,7 +39162,7 @@
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B897" s="1" t="n">
         <v>0</v>
@@ -39174,7 +39171,7 @@
         <v>808</v>
       </c>
       <c r="D897" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E897" s="3" t="s">
         <v>22</v>
@@ -39195,25 +39192,25 @@
         <v>552</v>
       </c>
       <c r="K897" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L897" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="L897" s="3" t="s">
+      <c r="M897" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N897" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O897" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="M897" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N897" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O897" s="3" t="s">
+      <c r="P897" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q897" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="P897" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Q897" s="3" t="s">
-        <v>1019</v>
       </c>
       <c r="R897" s="3" t="n">
         <v>1</v>
@@ -39233,7 +39230,7 @@
         <v>808</v>
       </c>
       <c r="D898" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E898" s="3" t="s">
         <v>22</v>
@@ -39254,25 +39251,25 @@
         <v>552</v>
       </c>
       <c r="K898" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L898" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="L898" s="3" t="s">
+      <c r="M898" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N898" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O898" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="M898" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N898" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O898" s="3" t="s">
+      <c r="P898" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q898" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="P898" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Q898" s="3" t="s">
-        <v>1019</v>
       </c>
       <c r="R898" s="3" t="n">
         <v>1</v>
@@ -39283,7 +39280,7 @@
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B899" s="1" t="n">
         <v>0</v>
@@ -39292,7 +39289,7 @@
         <v>808</v>
       </c>
       <c r="D899" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E899" s="3" t="s">
         <v>22</v>
@@ -39313,25 +39310,25 @@
         <v>552</v>
       </c>
       <c r="K899" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L899" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="L899" s="3" t="s">
+      <c r="M899" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N899" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O899" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="M899" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N899" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O899" s="3" t="s">
+      <c r="P899" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q899" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="P899" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Q899" s="3" t="s">
-        <v>1019</v>
       </c>
       <c r="R899" s="3" t="n">
         <v>1</v>
@@ -39351,7 +39348,7 @@
         <v>808</v>
       </c>
       <c r="D900" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E900" s="3" t="s">
         <v>22</v>
@@ -39372,10 +39369,10 @@
         <v>552</v>
       </c>
       <c r="K900" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L900" s="3" t="s">
         <v>1016</v>
-      </c>
-      <c r="L900" s="3" t="s">
-        <v>1017</v>
       </c>
       <c r="M900" s="3" t="s">
         <v>22</v>
@@ -39384,13 +39381,13 @@
         <v>38</v>
       </c>
       <c r="O900" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="P900" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q900" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="P900" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Q900" s="3" t="s">
-        <v>1019</v>
       </c>
       <c r="R900" s="3" t="n">
         <v>1</v>
@@ -39401,7 +39398,7 @@
     </row>
     <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B901" s="1" t="n">
         <v>0</v>
@@ -39410,7 +39407,7 @@
         <v>808</v>
       </c>
       <c r="D901" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E901" s="3" t="s">
         <v>22</v>
@@ -39431,25 +39428,25 @@
         <v>552</v>
       </c>
       <c r="K901" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L901" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="L901" s="3" t="s">
+      <c r="M901" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N901" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O901" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="M901" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N901" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O901" s="3" t="s">
+      <c r="P901" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q901" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="P901" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Q901" s="3" t="s">
-        <v>1019</v>
       </c>
       <c r="R901" s="3" t="n">
         <v>1</v>
@@ -39460,7 +39457,7 @@
     </row>
     <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B902" s="1" t="n">
         <v>0</v>
@@ -39469,7 +39466,7 @@
         <v>808</v>
       </c>
       <c r="D902" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E902" s="3" t="s">
         <v>22</v>
@@ -39490,25 +39487,25 @@
         <v>552</v>
       </c>
       <c r="K902" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L902" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="L902" s="3" t="s">
+      <c r="M902" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N902" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O902" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="M902" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N902" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O902" s="3" t="s">
+      <c r="P902" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q902" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="P902" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Q902" s="3" t="s">
-        <v>1019</v>
       </c>
       <c r="R902" s="3" t="n">
         <v>1</v>
@@ -39519,7 +39516,7 @@
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B903" s="1" t="n">
         <v>0</v>
@@ -39528,46 +39525,46 @@
         <v>969</v>
       </c>
       <c r="D903" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E903" s="3" t="s">
         <v>1026</v>
-      </c>
-      <c r="E903" s="3" t="s">
-        <v>1027</v>
       </c>
       <c r="F903" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G903" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H903" s="3" t="s">
         <v>1028</v>
-      </c>
-      <c r="H903" s="3" t="s">
-        <v>1029</v>
       </c>
       <c r="I903" s="3" t="n">
         <v>2018</v>
       </c>
       <c r="J903" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K903" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L903" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="L903" s="3" t="s">
+      <c r="M903" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N903" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O903" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="M903" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N903" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O903" s="3" t="s">
+      <c r="P903" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="P903" s="3" t="s">
-        <v>1033</v>
-      </c>
       <c r="Q903" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="R903" s="3" t="n">
         <v>1</v>
@@ -39578,7 +39575,7 @@
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="0" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B904" s="1" t="n">
         <v>0</v>
@@ -39587,7 +39584,7 @@
         <v>527</v>
       </c>
       <c r="D904" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E904" s="3" t="s">
         <v>22</v>
@@ -39623,7 +39620,7 @@
         <v>23</v>
       </c>
       <c r="P904" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="Q904" s="3" t="s">
         <v>23</v>
@@ -39646,7 +39643,7 @@
         <v>172</v>
       </c>
       <c r="D905" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E905" s="3" t="s">
         <v>22</v>
@@ -39667,25 +39664,25 @@
         <v>552</v>
       </c>
       <c r="K905" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L905" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="L905" s="3" t="s">
+      <c r="M905" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N905" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O905" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P905" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q905" s="3" t="s">
         <v>1039</v>
-      </c>
-      <c r="M905" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N905" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O905" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P905" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q905" s="3" t="s">
-        <v>1040</v>
       </c>
       <c r="R905" s="3" t="n">
         <v>0</v>
@@ -39705,7 +39702,7 @@
         <v>262</v>
       </c>
       <c r="D906" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E906" s="3" t="s">
         <v>22</v>
@@ -39744,7 +39741,7 @@
         <v>23</v>
       </c>
       <c r="Q906" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R906" s="3" t="n">
         <v>0</v>
@@ -39755,7 +39752,7 @@
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B907" s="1" t="n">
         <v>0</v>
@@ -39764,7 +39761,7 @@
         <v>172</v>
       </c>
       <c r="D907" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E907" s="3" t="s">
         <v>22</v>
@@ -39785,25 +39782,25 @@
         <v>552</v>
       </c>
       <c r="K907" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L907" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="L907" s="3" t="s">
+      <c r="M907" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N907" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O907" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P907" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q907" s="3" t="s">
         <v>1039</v>
-      </c>
-      <c r="M907" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N907" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O907" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P907" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q907" s="3" t="s">
-        <v>1040</v>
       </c>
       <c r="R907" s="3" t="n">
         <v>0</v>
@@ -39814,7 +39811,7 @@
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B908" s="1" t="n">
         <v>0</v>
@@ -39823,7 +39820,7 @@
         <v>177</v>
       </c>
       <c r="D908" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E908" s="3" t="s">
         <v>22</v>
@@ -39847,7 +39844,7 @@
         <v>177</v>
       </c>
       <c r="L908" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="M908" s="3" t="s">
         <v>23</v>
@@ -39862,7 +39859,7 @@
         <v>23</v>
       </c>
       <c r="Q908" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R908" s="3" t="n">
         <v>0</v>
@@ -39873,7 +39870,7 @@
     </row>
     <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B909" s="1" t="n">
         <v>0</v>
@@ -39882,7 +39879,7 @@
         <v>527</v>
       </c>
       <c r="D909" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E909" s="3" t="s">
         <v>22</v>
@@ -39921,7 +39918,7 @@
         <v>23</v>
       </c>
       <c r="Q909" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R909" s="3" t="n">
         <v>0</v>
@@ -39932,7 +39929,7 @@
     </row>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B910" s="1" t="n">
         <v>0</v>
@@ -39941,7 +39938,7 @@
         <v>628</v>
       </c>
       <c r="D910" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E910" s="3" t="s">
         <v>22</v>
@@ -39980,7 +39977,7 @@
         <v>23</v>
       </c>
       <c r="Q910" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R910" s="3" t="n">
         <v>0</v>
@@ -39991,7 +39988,7 @@
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="0" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B911" s="1" t="n">
         <v>0</v>
@@ -40000,10 +39997,10 @@
         <v>172</v>
       </c>
       <c r="D911" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E911" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F911" s="3" t="s">
         <v>22</v>
@@ -40021,25 +40018,25 @@
         <v>552</v>
       </c>
       <c r="K911" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L911" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="L911" s="3" t="s">
+      <c r="M911" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N911" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O911" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P911" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q911" s="3" t="s">
         <v>1039</v>
-      </c>
-      <c r="M911" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N911" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O911" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P911" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q911" s="3" t="s">
-        <v>1040</v>
       </c>
       <c r="R911" s="3" t="n">
         <v>0</v>
@@ -40050,7 +40047,7 @@
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B912" s="1" t="n">
         <v>0</v>
@@ -40059,7 +40056,7 @@
         <v>177</v>
       </c>
       <c r="D912" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E912" s="3" t="s">
         <v>22</v>
@@ -40083,7 +40080,7 @@
         <v>177</v>
       </c>
       <c r="L912" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="M912" s="3" t="s">
         <v>23</v>
@@ -40098,7 +40095,7 @@
         <v>23</v>
       </c>
       <c r="Q912" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R912" s="3" t="n">
         <v>0</v>
@@ -40109,7 +40106,7 @@
     </row>
     <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B913" s="1" t="n">
         <v>0</v>
@@ -40118,7 +40115,7 @@
         <v>527</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E913" s="3" t="s">
         <v>22</v>
@@ -40157,7 +40154,7 @@
         <v>23</v>
       </c>
       <c r="Q913" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R913" s="3" t="n">
         <v>0</v>
@@ -40168,7 +40165,7 @@
     </row>
     <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B914" s="1" t="n">
         <v>0</v>
@@ -40177,7 +40174,7 @@
         <v>628</v>
       </c>
       <c r="D914" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E914" s="3" t="s">
         <v>22</v>
@@ -40216,7 +40213,7 @@
         <v>23</v>
       </c>
       <c r="Q914" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R914" s="3" t="n">
         <v>0</v>
@@ -40227,7 +40224,7 @@
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B915" s="1" t="n">
         <v>0</v>
@@ -40236,10 +40233,10 @@
         <v>262</v>
       </c>
       <c r="D915" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E915" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F915" s="3" t="s">
         <v>22</v>
@@ -40275,7 +40272,7 @@
         <v>23</v>
       </c>
       <c r="Q915" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R915" s="3" t="n">
         <v>0</v>
@@ -40295,7 +40292,7 @@
         <v>172</v>
       </c>
       <c r="D916" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E916" s="3" t="s">
         <v>22</v>
@@ -40316,25 +40313,25 @@
         <v>552</v>
       </c>
       <c r="K916" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L916" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="L916" s="3" t="s">
+      <c r="M916" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N916" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O916" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P916" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q916" s="3" t="s">
         <v>1039</v>
-      </c>
-      <c r="M916" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N916" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O916" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P916" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q916" s="3" t="s">
-        <v>1040</v>
       </c>
       <c r="R916" s="3" t="n">
         <v>0</v>
@@ -40345,7 +40342,7 @@
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B917" s="1" t="n">
         <v>0</v>
@@ -40354,7 +40351,7 @@
         <v>172</v>
       </c>
       <c r="D917" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E917" s="3" t="s">
         <v>22</v>
@@ -40375,25 +40372,25 @@
         <v>552</v>
       </c>
       <c r="K917" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L917" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="L917" s="3" t="s">
+      <c r="M917" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N917" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O917" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P917" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q917" s="3" t="s">
         <v>1039</v>
-      </c>
-      <c r="M917" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N917" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O917" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P917" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q917" s="3" t="s">
-        <v>1040</v>
       </c>
       <c r="R917" s="3" t="n">
         <v>0</v>
@@ -40404,7 +40401,7 @@
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B918" s="1" t="n">
         <v>0</v>
@@ -40413,7 +40410,7 @@
         <v>177</v>
       </c>
       <c r="D918" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E918" s="3" t="s">
         <v>22</v>
@@ -40437,7 +40434,7 @@
         <v>177</v>
       </c>
       <c r="L918" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="M918" s="3" t="s">
         <v>23</v>
@@ -40452,7 +40449,7 @@
         <v>23</v>
       </c>
       <c r="Q918" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R918" s="3" t="n">
         <v>0</v>
@@ -40463,7 +40460,7 @@
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B919" s="1" t="n">
         <v>0</v>
@@ -40472,7 +40469,7 @@
         <v>527</v>
       </c>
       <c r="D919" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E919" s="3" t="s">
         <v>22</v>
@@ -40511,7 +40508,7 @@
         <v>23</v>
       </c>
       <c r="Q919" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R919" s="3" t="n">
         <v>0</v>
@@ -40522,7 +40519,7 @@
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B920" s="1" t="n">
         <v>0</v>
@@ -40531,7 +40528,7 @@
         <v>628</v>
       </c>
       <c r="D920" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E920" s="3" t="s">
         <v>22</v>
@@ -40570,7 +40567,7 @@
         <v>23</v>
       </c>
       <c r="Q920" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R920" s="3" t="n">
         <v>0</v>
@@ -40581,7 +40578,7 @@
     </row>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B921" s="1" t="n">
         <v>0</v>
@@ -40590,7 +40587,7 @@
         <v>262</v>
       </c>
       <c r="D921" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E921" s="3" t="s">
         <v>22</v>
@@ -40629,7 +40626,7 @@
         <v>23</v>
       </c>
       <c r="Q921" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R921" s="3" t="n">
         <v>0</v>
@@ -40640,7 +40637,7 @@
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B922" s="1" t="n">
         <v>0</v>
@@ -40649,7 +40646,7 @@
         <v>172</v>
       </c>
       <c r="D922" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E922" s="3" t="s">
         <v>22</v>
@@ -40670,25 +40667,25 @@
         <v>552</v>
       </c>
       <c r="K922" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L922" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="L922" s="3" t="s">
+      <c r="M922" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N922" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O922" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P922" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q922" s="3" t="s">
         <v>1039</v>
-      </c>
-      <c r="M922" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N922" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O922" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P922" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q922" s="3" t="s">
-        <v>1040</v>
       </c>
       <c r="R922" s="3" t="n">
         <v>0</v>
@@ -40699,7 +40696,7 @@
     </row>
     <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B923" s="1" t="n">
         <v>0</v>
@@ -40708,7 +40705,7 @@
         <v>527</v>
       </c>
       <c r="D923" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E923" s="3" t="s">
         <v>22</v>
@@ -40747,7 +40744,7 @@
         <v>23</v>
       </c>
       <c r="Q923" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R923" s="3" t="n">
         <v>0</v>
@@ -40758,7 +40755,7 @@
     </row>
     <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B924" s="1" t="n">
         <v>0</v>
@@ -40767,7 +40764,7 @@
         <v>628</v>
       </c>
       <c r="D924" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E924" s="3" t="s">
         <v>22</v>
@@ -40806,7 +40803,7 @@
         <v>23</v>
       </c>
       <c r="Q924" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R924" s="3" t="n">
         <v>0</v>
@@ -40817,7 +40814,7 @@
     </row>
     <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B925" s="1" t="n">
         <v>0</v>
@@ -40826,7 +40823,7 @@
         <v>262</v>
       </c>
       <c r="D925" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E925" s="3" t="s">
         <v>22</v>
@@ -40865,7 +40862,7 @@
         <v>23</v>
       </c>
       <c r="Q925" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R925" s="3" t="n">
         <v>0</v>
@@ -40876,7 +40873,7 @@
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="0" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B926" s="1" t="n">
         <v>0</v>
@@ -40885,7 +40882,7 @@
         <v>172</v>
       </c>
       <c r="D926" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E926" s="3" t="s">
         <v>22</v>
@@ -40906,25 +40903,25 @@
         <v>552</v>
       </c>
       <c r="K926" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L926" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="L926" s="3" t="s">
+      <c r="M926" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N926" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O926" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P926" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q926" s="3" t="s">
         <v>1039</v>
-      </c>
-      <c r="M926" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N926" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O926" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P926" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q926" s="3" t="s">
-        <v>1040</v>
       </c>
       <c r="R926" s="3" t="n">
         <v>0</v>
@@ -40935,7 +40932,7 @@
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="0" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B927" s="1" t="n">
         <v>0</v>
@@ -40944,7 +40941,7 @@
         <v>177</v>
       </c>
       <c r="D927" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E927" s="3" t="s">
         <v>22</v>
@@ -40968,7 +40965,7 @@
         <v>177</v>
       </c>
       <c r="L927" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="M927" s="3" t="s">
         <v>23</v>
@@ -40983,7 +40980,7 @@
         <v>23</v>
       </c>
       <c r="Q927" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R927" s="3" t="n">
         <v>0</v>
@@ -40994,7 +40991,7 @@
     </row>
     <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="0" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B928" s="1" t="n">
         <v>0</v>
@@ -41003,7 +41000,7 @@
         <v>527</v>
       </c>
       <c r="D928" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E928" s="3" t="s">
         <v>22</v>
@@ -41042,7 +41039,7 @@
         <v>23</v>
       </c>
       <c r="Q928" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R928" s="3" t="n">
         <v>0</v>
@@ -41053,7 +41050,7 @@
     </row>
     <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B929" s="1" t="n">
         <v>0</v>
@@ -41062,7 +41059,7 @@
         <v>628</v>
       </c>
       <c r="D929" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E929" s="3" t="s">
         <v>22</v>
@@ -41101,7 +41098,7 @@
         <v>23</v>
       </c>
       <c r="Q929" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R929" s="3" t="n">
         <v>0</v>
@@ -41112,7 +41109,7 @@
     </row>
     <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B930" s="1" t="n">
         <v>0</v>
@@ -41121,7 +41118,7 @@
         <v>262</v>
       </c>
       <c r="D930" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E930" s="3" t="s">
         <v>22</v>
@@ -41160,7 +41157,7 @@
         <v>23</v>
       </c>
       <c r="Q930" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R930" s="3" t="n">
         <v>0</v>
@@ -41171,7 +41168,7 @@
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B931" s="1" t="n">
         <v>0</v>
@@ -41180,7 +41177,7 @@
         <v>172</v>
       </c>
       <c r="D931" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E931" s="3" t="s">
         <v>22</v>
@@ -41201,25 +41198,25 @@
         <v>552</v>
       </c>
       <c r="K931" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L931" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="L931" s="3" t="s">
+      <c r="M931" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N931" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O931" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P931" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q931" s="3" t="s">
         <v>1039</v>
-      </c>
-      <c r="M931" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N931" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O931" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P931" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q931" s="3" t="s">
-        <v>1040</v>
       </c>
       <c r="R931" s="3" t="n">
         <v>0</v>
@@ -41230,7 +41227,7 @@
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B932" s="1" t="n">
         <v>0</v>
@@ -41239,7 +41236,7 @@
         <v>172</v>
       </c>
       <c r="D932" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E932" s="3" t="s">
         <v>22</v>
@@ -41260,25 +41257,25 @@
         <v>552</v>
       </c>
       <c r="K932" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L932" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="L932" s="3" t="s">
+      <c r="M932" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N932" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O932" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P932" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q932" s="3" t="s">
         <v>1039</v>
-      </c>
-      <c r="M932" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N932" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O932" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P932" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q932" s="3" t="s">
-        <v>1040</v>
       </c>
       <c r="R932" s="3" t="n">
         <v>0</v>
@@ -41289,7 +41286,7 @@
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B933" s="1" t="n">
         <v>0</v>
@@ -41298,7 +41295,7 @@
         <v>172</v>
       </c>
       <c r="D933" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E933" s="3" t="s">
         <v>22</v>
@@ -41319,25 +41316,25 @@
         <v>552</v>
       </c>
       <c r="K933" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L933" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="L933" s="3" t="s">
+      <c r="M933" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N933" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O933" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P933" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q933" s="3" t="s">
         <v>1039</v>
-      </c>
-      <c r="M933" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N933" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O933" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P933" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q933" s="3" t="s">
-        <v>1040</v>
       </c>
       <c r="R933" s="3" t="n">
         <v>0</v>
@@ -41348,7 +41345,7 @@
     </row>
     <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B934" s="1" t="n">
         <v>0</v>
@@ -41357,7 +41354,7 @@
         <v>527</v>
       </c>
       <c r="D934" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E934" s="3" t="s">
         <v>22</v>
@@ -41396,7 +41393,7 @@
         <v>23</v>
       </c>
       <c r="Q934" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R934" s="3" t="n">
         <v>0</v>
@@ -41407,7 +41404,7 @@
     </row>
     <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B935" s="1" t="n">
         <v>0</v>
@@ -41416,7 +41413,7 @@
         <v>628</v>
       </c>
       <c r="D935" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E935" s="3" t="s">
         <v>22</v>
@@ -41455,7 +41452,7 @@
         <v>23</v>
       </c>
       <c r="Q935" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R935" s="3" t="n">
         <v>0</v>
@@ -41466,7 +41463,7 @@
     </row>
     <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B936" s="1" t="n">
         <v>0</v>
@@ -41475,7 +41472,7 @@
         <v>262</v>
       </c>
       <c r="D936" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E936" s="3" t="s">
         <v>22</v>
@@ -41514,7 +41511,7 @@
         <v>23</v>
       </c>
       <c r="Q936" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R936" s="3" t="n">
         <v>0</v>
@@ -41534,7 +41531,7 @@
         <v>172</v>
       </c>
       <c r="D937" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E937" s="3" t="s">
         <v>22</v>
@@ -41555,25 +41552,25 @@
         <v>552</v>
       </c>
       <c r="K937" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L937" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="L937" s="3" t="s">
+      <c r="M937" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N937" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O937" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P937" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q937" s="3" t="s">
         <v>1039</v>
-      </c>
-      <c r="M937" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N937" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O937" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P937" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q937" s="3" t="s">
-        <v>1040</v>
       </c>
       <c r="R937" s="3" t="n">
         <v>0</v>
@@ -41584,7 +41581,7 @@
     </row>
     <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B938" s="1" t="n">
         <v>0</v>
@@ -41593,7 +41590,7 @@
         <v>183</v>
       </c>
       <c r="D938" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E938" s="1" t="s">
         <v>237</v>
@@ -41602,22 +41599,22 @@
         <v>38</v>
       </c>
       <c r="G938" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H938" s="1" t="s">
         <v>1053</v>
-      </c>
-      <c r="H938" s="1" t="s">
-        <v>1054</v>
       </c>
       <c r="I938" s="3" t="n">
         <v>2016</v>
       </c>
       <c r="J938" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K938" s="6" t="s">
         <v>183</v>
       </c>
       <c r="L938" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="M938" s="3" t="s">
         <v>38</v>
@@ -41652,7 +41649,7 @@
         <v>527</v>
       </c>
       <c r="D939" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E939" s="3" t="s">
         <v>944</v>
@@ -41661,10 +41658,10 @@
         <v>38</v>
       </c>
       <c r="G939" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H939" s="3" t="s">
         <v>1058</v>
-      </c>
-      <c r="H939" s="3" t="s">
-        <v>1059</v>
       </c>
       <c r="I939" s="3" t="n">
         <v>2014</v>
@@ -41708,10 +41705,10 @@
         <v>0</v>
       </c>
       <c r="C940" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D940" s="2" t="s">
         <v>1060</v>
-      </c>
-      <c r="D940" s="2" t="s">
-        <v>1061</v>
       </c>
       <c r="E940" s="3" t="s">
         <v>22</v>
@@ -41729,13 +41726,13 @@
         <v>2015</v>
       </c>
       <c r="J940" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K940" s="6" t="s">
         <v>1062</v>
       </c>
-      <c r="K940" s="6" t="s">
+      <c r="L940" s="6" t="s">
         <v>1063</v>
-      </c>
-      <c r="L940" s="6" t="s">
-        <v>1064</v>
       </c>
       <c r="M940" s="3" t="s">
         <v>23</v>
@@ -41761,7 +41758,7 @@
     </row>
     <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B941" s="1" t="n">
         <v>0</v>
@@ -41770,10 +41767,10 @@
         <v>262</v>
       </c>
       <c r="D941" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E941" s="3" t="s">
         <v>1066</v>
-      </c>
-      <c r="E941" s="3" t="s">
-        <v>1067</v>
       </c>
       <c r="F941" s="3" t="s">
         <v>22</v>
@@ -41788,10 +41785,10 @@
         <v>2015</v>
       </c>
       <c r="J941" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K941" s="6" t="s">
         <v>1068</v>
-      </c>
-      <c r="K941" s="6" t="s">
-        <v>1069</v>
       </c>
       <c r="L941" s="3" t="s">
         <v>910</v>
@@ -41809,7 +41806,7 @@
         <v>653</v>
       </c>
       <c r="Q941" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="R941" s="3" t="n">
         <v>1</v>
@@ -41829,7 +41826,7 @@
         <v>969</v>
       </c>
       <c r="D942" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E942" s="3" t="s">
         <v>22</v>
@@ -41847,28 +41844,28 @@
         <v>2018</v>
       </c>
       <c r="J942" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K942" s="6" t="s">
         <v>1072</v>
       </c>
-      <c r="K942" s="6" t="s">
+      <c r="L942" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M942" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N942" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O942" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="L942" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M942" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N942" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O942" s="3" t="s">
+      <c r="P942" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="P942" s="3" t="s">
-        <v>1075</v>
-      </c>
       <c r="Q942" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="R942" s="3" t="n">
         <v>1</v>
@@ -41906,25 +41903,25 @@
         <v>2016</v>
       </c>
       <c r="J943" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K943" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="K943" s="6" t="s">
+      <c r="L943" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="L943" s="3" t="s">
+      <c r="M943" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N943" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O943" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="M943" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N943" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O943" s="3" t="s">
-        <v>1079</v>
-      </c>
       <c r="P943" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="Q943" s="3" t="s">
         <v>959</v>
@@ -41965,25 +41962,25 @@
         <v>2016</v>
       </c>
       <c r="J944" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K944" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="L944" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M944" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N944" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O944" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="M944" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N944" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O944" s="3" t="s">
-        <v>1079</v>
-      </c>
       <c r="P944" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="Q944" s="3" t="s">
         <v>959</v>
@@ -41997,7 +41994,7 @@
     </row>
     <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B945" s="1" t="n">
         <v>0</v>
@@ -42006,7 +42003,7 @@
         <v>183</v>
       </c>
       <c r="D945" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E945" s="3" t="s">
         <v>192</v>
@@ -42015,22 +42012,22 @@
         <v>38</v>
       </c>
       <c r="G945" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H945" s="0" t="s">
         <v>1083</v>
-      </c>
-      <c r="H945" s="0" t="s">
-        <v>1084</v>
       </c>
       <c r="I945" s="3" t="n">
         <v>2016</v>
       </c>
       <c r="J945" s="6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K945" s="6" t="s">
         <v>1085</v>
       </c>
-      <c r="K945" s="6" t="s">
+      <c r="L945" s="3" t="s">
         <v>1086</v>
-      </c>
-      <c r="L945" s="3" t="s">
-        <v>1087</v>
       </c>
       <c r="M945" s="3" t="s">
         <v>38</v>
@@ -42062,10 +42059,10 @@
         <v>0</v>
       </c>
       <c r="C946" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D946" s="2" t="s">
         <v>1088</v>
-      </c>
-      <c r="D946" s="2" t="s">
-        <v>1089</v>
       </c>
       <c r="E946" s="3" t="s">
         <v>22</v>
@@ -42083,13 +42080,13 @@
         <v>2017</v>
       </c>
       <c r="J946" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K946" s="6" t="s">
         <v>1090</v>
       </c>
-      <c r="K946" s="6" t="s">
+      <c r="L946" s="3" t="s">
         <v>1091</v>
-      </c>
-      <c r="L946" s="3" t="s">
-        <v>1092</v>
       </c>
       <c r="M946" s="3" t="s">
         <v>38</v>
@@ -42115,7 +42112,7 @@
     </row>
     <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B947" s="1" t="n">
         <v>0</v>
@@ -42124,7 +42121,7 @@
         <v>969</v>
       </c>
       <c r="D947" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E947" s="3" t="s">
         <v>22</v>
@@ -42142,13 +42139,13 @@
         <v>2013</v>
       </c>
       <c r="J947" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="K947" s="6" t="s">
         <v>1095</v>
       </c>
-      <c r="K947" s="6" t="s">
+      <c r="L947" s="3" t="s">
         <v>1096</v>
-      </c>
-      <c r="L947" s="3" t="s">
-        <v>1097</v>
       </c>
       <c r="M947" s="3" t="s">
         <v>38</v>
@@ -42174,7 +42171,7 @@
     </row>
     <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B948" s="1" t="n">
         <v>0</v>
@@ -42183,7 +42180,7 @@
         <v>969</v>
       </c>
       <c r="D948" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E948" s="3" t="s">
         <v>22</v>
@@ -42201,13 +42198,13 @@
         <v>2011</v>
       </c>
       <c r="J948" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K948" s="6" t="s">
         <v>1100</v>
       </c>
-      <c r="K948" s="6" t="s">
+      <c r="L948" s="3" t="s">
         <v>1101</v>
-      </c>
-      <c r="L948" s="3" t="s">
-        <v>1102</v>
       </c>
       <c r="M948" s="3" t="s">
         <v>38</v>
@@ -42242,7 +42239,7 @@
         <v>969</v>
       </c>
       <c r="D949" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E949" s="3" t="s">
         <v>22</v>
@@ -42260,13 +42257,13 @@
         <v>2002</v>
       </c>
       <c r="J949" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K949" s="6" t="s">
         <v>1104</v>
       </c>
-      <c r="K949" s="6" t="s">
+      <c r="L949" s="3" t="s">
         <v>1105</v>
-      </c>
-      <c r="L949" s="3" t="s">
-        <v>1106</v>
       </c>
       <c r="M949" s="3" t="s">
         <v>22</v>

--- a/Degraders_list_v2.xlsx
+++ b/Degraders_list_v2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9576" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9576" uniqueCount="1105">
   <si>
     <t xml:space="preserve">Microorganism</t>
   </si>
@@ -2059,7 +2059,7 @@
     <t xml:space="preserve">Jarerat, A., Pranamuda, H., &amp; Tokiwa, Y. (2002). Poly (L‐lactide)‐degrading activity in various actinomycetes. Macromolecular Bioscience, 2(9), 420-428.</t>
   </si>
   <si>
-    <t xml:space="preserve"> LACTY 1012 (number-average molecular weight, Mn ¼ 3.4 _x005F_x005F_x0001_ 105 ; weight-average molecular weight, Mw¼ 6.5 _x005F_x005F_x0001_ 105 ; polydispersity, Mw/Mn ¼ 1.9)</t>
+    <t xml:space="preserve"> LACTY 1012 (number-average molecular weight, Mn ¼ 3.4 _x005F_x005F_x005F_x005F_x0001_ 105 ; weight-average molecular weight, Mw¼ 6.5 _x005F_x005F_x005F_x005F_x0001_ 105 ; polydispersity, Mw/Mn ¼ 1.9)</t>
   </si>
   <si>
     <t xml:space="preserve"> Shimadzu Co. Ltd</t>
@@ -2551,7 +2551,7 @@
     <t xml:space="preserve">Ibrahim, I. N., Maraqa, A., Hameed, K. M., Saadoun, I. M., &amp; Maswadeh, H. M. (2011). Assessment of potential plastic-degrading fungi in Jordanian habitats. Turkish Journal of Biology, 35(5), 551-557.</t>
   </si>
   <si>
-    <t xml:space="preserve">Weight loss;Suspended plastic agar plates;</t>
+    <t xml:space="preserve">Weight loss;Emulsified plastic agar plates</t>
   </si>
   <si>
     <t xml:space="preserve">Sheets (5 × 20 cm) of PS-PUR were supplied by Dr. Toshiaki Nakajima-Kambe</t>
@@ -3184,7 +3184,7 @@
     <t xml:space="preserve">MDSVMQTKEMVMKSNVNSYPIVLVHGFMGWGRNEVLGLKYWGGITDYEQELSSYGYTAYTATVGPVSSNWDRACELYAYIKGGTVDYGHAHSTQKGHSRYGRTYPGLYPEWGNLTTEGKVNKIHLVAHSMGGQTVRTLVQLLKEGSEEERNTTPSQLSSLFAGGKSWVHSITTIASPHDGTTLADGINIFGDFAKNLVASLASFTGAGEKLIYDFKLDQWGLNRKSGESLTDYTNRVFNSAIWNSTNDLANWDLSTDGARVLNQWVKAQSDIYYFSYSTCATVPSILTSNELPHVIYMTPLLYPFGRFIGSYTRNEQGRVIIDNSWKPNDGVVNTISQNGPKIWSSDKIVNYNGVPQIGKWNSMPLLDTIDHMDACGIGTNALTLSWYKGLAEKLSQLTISN</t>
   </si>
   <si>
-    <t xml:space="preserve">Spectroscopy;LC-MS</t>
+    <t xml:space="preserve">Spectrophotometry;LC-MS</t>
   </si>
   <si>
     <t xml:space="preserve">BASF, Germany</t>
@@ -3235,7 +3235,7 @@
     <t xml:space="preserve">Ullah, M., Weng, C. H., Li, H., Sun, S. W., Zhang, H., Song, A. H., &amp; Zhu, H. (2018). Degradation of polyvinyl alcohol by a novel bacterial strain Stenotrophomonas sp. SA21. Environmental technology, 39(16), 2056-2061.</t>
   </si>
   <si>
-    <t xml:space="preserve">Emulsified plastic agar plates;SEM;FTIR;Spectrometry</t>
+    <t xml:space="preserve">Emulsified plastic agar plates;SEM;FTIR;Spectrophotometry</t>
   </si>
   <si>
     <t xml:space="preserve">PVA1799</t>
@@ -3245,9 +3245,6 @@
   </si>
   <si>
     <t xml:space="preserve">Oil sludge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spectrometry</t>
   </si>
   <si>
     <t xml:space="preserve">Bionolle3001G</t>
@@ -3465,8 +3462,8 @@
   </sheetPr>
   <dimension ref="A1:S953"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A925" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A934" activeCellId="0" sqref="A934"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F799" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J814" activeCellId="0" sqref="J814"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41903,25 +41900,25 @@
         <v>2016</v>
       </c>
       <c r="J943" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K943" s="6" t="s">
         <v>1075</v>
       </c>
-      <c r="K943" s="6" t="s">
+      <c r="L943" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="L943" s="3" t="s">
+      <c r="M943" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N943" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O943" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="M943" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N943" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O943" s="3" t="s">
-        <v>1078</v>
-      </c>
       <c r="P943" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="Q943" s="3" t="s">
         <v>959</v>
@@ -41962,25 +41959,25 @@
         <v>2016</v>
       </c>
       <c r="J944" s="6" t="s">
-        <v>1075</v>
+        <v>925</v>
       </c>
       <c r="K944" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="L944" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="M944" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N944" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O944" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="M944" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N944" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O944" s="3" t="s">
-        <v>1078</v>
-      </c>
       <c r="P944" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="Q944" s="3" t="s">
         <v>959</v>
@@ -41994,7 +41991,7 @@
     </row>
     <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B945" s="1" t="n">
         <v>0</v>
@@ -42003,7 +42000,7 @@
         <v>183</v>
       </c>
       <c r="D945" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E945" s="3" t="s">
         <v>192</v>
@@ -42012,22 +42009,22 @@
         <v>38</v>
       </c>
       <c r="G945" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H945" s="0" t="s">
         <v>1082</v>
-      </c>
-      <c r="H945" s="0" t="s">
-        <v>1083</v>
       </c>
       <c r="I945" s="3" t="n">
         <v>2016</v>
       </c>
       <c r="J945" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K945" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="K945" s="6" t="s">
+      <c r="L945" s="3" t="s">
         <v>1085</v>
-      </c>
-      <c r="L945" s="3" t="s">
-        <v>1086</v>
       </c>
       <c r="M945" s="3" t="s">
         <v>38</v>
@@ -42059,10 +42056,10 @@
         <v>0</v>
       </c>
       <c r="C946" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D946" s="2" t="s">
         <v>1087</v>
-      </c>
-      <c r="D946" s="2" t="s">
-        <v>1088</v>
       </c>
       <c r="E946" s="3" t="s">
         <v>22</v>
@@ -42080,13 +42077,13 @@
         <v>2017</v>
       </c>
       <c r="J946" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K946" s="6" t="s">
         <v>1089</v>
       </c>
-      <c r="K946" s="6" t="s">
+      <c r="L946" s="3" t="s">
         <v>1090</v>
-      </c>
-      <c r="L946" s="3" t="s">
-        <v>1091</v>
       </c>
       <c r="M946" s="3" t="s">
         <v>38</v>
@@ -42112,7 +42109,7 @@
     </row>
     <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B947" s="1" t="n">
         <v>0</v>
@@ -42121,7 +42118,7 @@
         <v>969</v>
       </c>
       <c r="D947" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E947" s="3" t="s">
         <v>22</v>
@@ -42139,13 +42136,13 @@
         <v>2013</v>
       </c>
       <c r="J947" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K947" s="6" t="s">
         <v>1094</v>
       </c>
-      <c r="K947" s="6" t="s">
+      <c r="L947" s="3" t="s">
         <v>1095</v>
-      </c>
-      <c r="L947" s="3" t="s">
-        <v>1096</v>
       </c>
       <c r="M947" s="3" t="s">
         <v>38</v>
@@ -42171,7 +42168,7 @@
     </row>
     <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B948" s="1" t="n">
         <v>0</v>
@@ -42180,7 +42177,7 @@
         <v>969</v>
       </c>
       <c r="D948" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E948" s="3" t="s">
         <v>22</v>
@@ -42198,13 +42195,13 @@
         <v>2011</v>
       </c>
       <c r="J948" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K948" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="K948" s="6" t="s">
+      <c r="L948" s="3" t="s">
         <v>1100</v>
-      </c>
-      <c r="L948" s="3" t="s">
-        <v>1101</v>
       </c>
       <c r="M948" s="3" t="s">
         <v>38</v>
@@ -42239,7 +42236,7 @@
         <v>969</v>
       </c>
       <c r="D949" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E949" s="3" t="s">
         <v>22</v>
@@ -42257,13 +42254,13 @@
         <v>2002</v>
       </c>
       <c r="J949" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K949" s="6" t="s">
         <v>1103</v>
       </c>
-      <c r="K949" s="6" t="s">
+      <c r="L949" s="3" t="s">
         <v>1104</v>
-      </c>
-      <c r="L949" s="3" t="s">
-        <v>1105</v>
       </c>
       <c r="M949" s="3" t="s">
         <v>22</v>

--- a/Degraders_list_v2.xlsx
+++ b/Degraders_list_v2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9576" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10524" uniqueCount="1105">
   <si>
     <t xml:space="preserve">Microorganism</t>
   </si>
@@ -3445,12 +3445,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -3462,8 +3462,8 @@
   </sheetPr>
   <dimension ref="A1:S953"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F799" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J814" activeCellId="0" sqref="J814"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3582,6 +3582,9 @@
       <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R2" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S2" s="3" t="s">
         <v>22</v>
       </c>
@@ -3620,6 +3623,9 @@
       <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S3" s="3" t="s">
         <v>22</v>
       </c>
@@ -3658,6 +3664,9 @@
       <c r="M4" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3696,6 +3705,9 @@
       <c r="M5" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R5" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S5" s="3" t="s">
         <v>22</v>
       </c>
@@ -3734,6 +3746,9 @@
       <c r="M6" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S6" s="3" t="s">
         <v>22</v>
       </c>
@@ -3772,6 +3787,9 @@
       <c r="M7" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R7" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S7" s="3" t="s">
         <v>22</v>
       </c>
@@ -3810,6 +3828,9 @@
       <c r="M8" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S8" s="3" t="s">
         <v>22</v>
       </c>
@@ -3848,6 +3869,9 @@
       <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S9" s="3" t="s">
         <v>22</v>
       </c>
@@ -3886,6 +3910,9 @@
       <c r="M10" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R10" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S10" s="3" t="s">
         <v>22</v>
       </c>
@@ -3924,6 +3951,9 @@
       <c r="M11" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R11" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S11" s="3" t="s">
         <v>22</v>
       </c>
@@ -3962,6 +3992,9 @@
       <c r="M12" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R12" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S12" s="3" t="s">
         <v>22</v>
       </c>
@@ -4000,6 +4033,9 @@
       <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R13" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S13" s="3" t="s">
         <v>22</v>
       </c>
@@ -4038,6 +4074,9 @@
       <c r="M14" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R14" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S14" s="3" t="s">
         <v>22</v>
       </c>
@@ -4076,6 +4115,9 @@
       <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R15" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S15" s="3" t="s">
         <v>22</v>
       </c>
@@ -4114,6 +4156,9 @@
       <c r="M16" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R16" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S16" s="3" t="s">
         <v>22</v>
       </c>
@@ -4152,6 +4197,9 @@
       <c r="M17" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R17" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S17" s="3" t="s">
         <v>22</v>
       </c>
@@ -4190,6 +4238,9 @@
       <c r="M18" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R18" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S18" s="3" t="s">
         <v>22</v>
       </c>
@@ -4228,6 +4279,9 @@
       <c r="M19" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R19" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S19" s="3" t="s">
         <v>22</v>
       </c>
@@ -4266,6 +4320,9 @@
       <c r="M20" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R20" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S20" s="3" t="s">
         <v>22</v>
       </c>
@@ -4304,6 +4361,9 @@
       <c r="M21" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R21" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S21" s="3" t="s">
         <v>22</v>
       </c>
@@ -4342,6 +4402,9 @@
       <c r="M22" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R22" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S22" s="3" t="s">
         <v>22</v>
       </c>
@@ -4380,6 +4443,9 @@
       <c r="M23" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R23" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S23" s="3" t="s">
         <v>22</v>
       </c>
@@ -4418,6 +4484,9 @@
       <c r="M24" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R24" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S24" s="3" t="s">
         <v>22</v>
       </c>
@@ -4456,6 +4525,9 @@
       <c r="M25" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R25" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S25" s="3" t="s">
         <v>22</v>
       </c>
@@ -4494,6 +4566,9 @@
       <c r="M26" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R26" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S26" s="3" t="s">
         <v>22</v>
       </c>
@@ -4532,6 +4607,9 @@
       <c r="M27" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R27" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S27" s="3" t="s">
         <v>22</v>
       </c>
@@ -4570,6 +4648,9 @@
       <c r="M28" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R28" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S28" s="3" t="s">
         <v>22</v>
       </c>
@@ -4608,6 +4689,9 @@
       <c r="M29" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R29" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S29" s="3" t="s">
         <v>22</v>
       </c>
@@ -4646,6 +4730,9 @@
       <c r="M30" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R30" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S30" s="3" t="s">
         <v>22</v>
       </c>
@@ -4684,6 +4771,9 @@
       <c r="M31" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R31" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S31" s="3" t="s">
         <v>22</v>
       </c>
@@ -4722,6 +4812,9 @@
       <c r="M32" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R32" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S32" s="3" t="s">
         <v>22</v>
       </c>
@@ -4760,6 +4853,9 @@
       <c r="M33" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R33" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S33" s="3" t="s">
         <v>22</v>
       </c>
@@ -4798,6 +4894,9 @@
       <c r="M34" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R34" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S34" s="3" t="s">
         <v>22</v>
       </c>
@@ -4836,6 +4935,9 @@
       <c r="M35" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R35" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S35" s="3" t="s">
         <v>22</v>
       </c>
@@ -4874,6 +4976,9 @@
       <c r="M36" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R36" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S36" s="3" t="s">
         <v>22</v>
       </c>
@@ -4912,6 +5017,9 @@
       <c r="M37" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R37" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S37" s="3" t="s">
         <v>22</v>
       </c>
@@ -4950,6 +5058,9 @@
       <c r="M38" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R38" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S38" s="3" t="s">
         <v>22</v>
       </c>
@@ -4988,6 +5099,9 @@
       <c r="M39" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R39" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S39" s="3" t="s">
         <v>22</v>
       </c>
@@ -5026,6 +5140,9 @@
       <c r="M40" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R40" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S40" s="3" t="s">
         <v>22</v>
       </c>
@@ -5064,6 +5181,9 @@
       <c r="M41" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R41" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S41" s="3" t="s">
         <v>22</v>
       </c>
@@ -5102,6 +5222,9 @@
       <c r="M42" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R42" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S42" s="3" t="s">
         <v>22</v>
       </c>
@@ -5140,6 +5263,9 @@
       <c r="M43" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R43" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S43" s="3" t="s">
         <v>22</v>
       </c>
@@ -5178,6 +5304,9 @@
       <c r="M44" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R44" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S44" s="3" t="s">
         <v>22</v>
       </c>
@@ -5216,6 +5345,9 @@
       <c r="M45" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R45" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S45" s="3" t="s">
         <v>22</v>
       </c>
@@ -5254,6 +5386,9 @@
       <c r="M46" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R46" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S46" s="3" t="s">
         <v>22</v>
       </c>
@@ -5292,6 +5427,9 @@
       <c r="M47" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R47" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S47" s="3" t="s">
         <v>22</v>
       </c>
@@ -5330,6 +5468,9 @@
       <c r="M48" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R48" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S48" s="3" t="s">
         <v>22</v>
       </c>
@@ -5368,6 +5509,9 @@
       <c r="M49" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R49" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S49" s="3" t="s">
         <v>22</v>
       </c>
@@ -5406,6 +5550,9 @@
       <c r="M50" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R50" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S50" s="3" t="s">
         <v>22</v>
       </c>
@@ -5444,6 +5591,9 @@
       <c r="M51" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R51" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S51" s="3" t="s">
         <v>22</v>
       </c>
@@ -5482,6 +5632,9 @@
       <c r="M52" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R52" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S52" s="3" t="s">
         <v>22</v>
       </c>
@@ -5520,6 +5673,9 @@
       <c r="M53" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R53" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S53" s="3" t="s">
         <v>22</v>
       </c>
@@ -5558,6 +5714,9 @@
       <c r="M54" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R54" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S54" s="3" t="s">
         <v>22</v>
       </c>
@@ -5596,6 +5755,9 @@
       <c r="M55" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R55" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S55" s="3" t="s">
         <v>22</v>
       </c>
@@ -5634,6 +5796,9 @@
       <c r="M56" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R56" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S56" s="3" t="s">
         <v>22</v>
       </c>
@@ -5672,6 +5837,9 @@
       <c r="M57" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R57" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S57" s="3" t="s">
         <v>22</v>
       </c>
@@ -5710,6 +5878,9 @@
       <c r="M58" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R58" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S58" s="3" t="s">
         <v>22</v>
       </c>
@@ -5748,6 +5919,9 @@
       <c r="M59" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R59" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S59" s="3" t="s">
         <v>22</v>
       </c>
@@ -5786,6 +5960,9 @@
       <c r="M60" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R60" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S60" s="3" t="s">
         <v>22</v>
       </c>
@@ -5824,6 +6001,9 @@
       <c r="M61" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R61" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S61" s="3" t="s">
         <v>22</v>
       </c>
@@ -5862,6 +6042,9 @@
       <c r="M62" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R62" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S62" s="3" t="s">
         <v>22</v>
       </c>
@@ -5900,6 +6083,9 @@
       <c r="M63" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R63" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S63" s="3" t="s">
         <v>22</v>
       </c>
@@ -5938,6 +6124,9 @@
       <c r="M64" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R64" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S64" s="3" t="s">
         <v>22</v>
       </c>
@@ -5976,6 +6165,9 @@
       <c r="M65" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R65" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S65" s="3" t="s">
         <v>22</v>
       </c>
@@ -6014,6 +6206,9 @@
       <c r="M66" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R66" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S66" s="3" t="s">
         <v>22</v>
       </c>
@@ -6052,6 +6247,9 @@
       <c r="M67" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R67" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S67" s="3" t="s">
         <v>22</v>
       </c>
@@ -6090,6 +6288,9 @@
       <c r="M68" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R68" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S68" s="3" t="s">
         <v>22</v>
       </c>
@@ -6128,6 +6329,9 @@
       <c r="M69" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R69" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S69" s="3" t="s">
         <v>22</v>
       </c>
@@ -6166,6 +6370,9 @@
       <c r="M70" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R70" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S70" s="3" t="s">
         <v>22</v>
       </c>
@@ -6204,6 +6411,9 @@
       <c r="M71" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R71" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S71" s="3" t="s">
         <v>22</v>
       </c>
@@ -6242,6 +6452,9 @@
       <c r="M72" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R72" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S72" s="3" t="s">
         <v>22</v>
       </c>
@@ -6280,6 +6493,9 @@
       <c r="M73" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R73" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S73" s="3" t="s">
         <v>22</v>
       </c>
@@ -6318,6 +6534,9 @@
       <c r="M74" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R74" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S74" s="3" t="s">
         <v>22</v>
       </c>
@@ -6356,6 +6575,9 @@
       <c r="M75" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R75" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S75" s="3" t="s">
         <v>22</v>
       </c>
@@ -6394,6 +6616,9 @@
       <c r="M76" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R76" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S76" s="3" t="s">
         <v>22</v>
       </c>
@@ -6432,6 +6657,9 @@
       <c r="M77" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R77" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S77" s="3" t="s">
         <v>22</v>
       </c>
@@ -6470,6 +6698,9 @@
       <c r="M78" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R78" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S78" s="3" t="s">
         <v>22</v>
       </c>
@@ -6508,6 +6739,9 @@
       <c r="M79" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R79" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S79" s="3" t="s">
         <v>22</v>
       </c>
@@ -6546,6 +6780,9 @@
       <c r="M80" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R80" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S80" s="3" t="s">
         <v>22</v>
       </c>
@@ -6584,6 +6821,9 @@
       <c r="M81" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R81" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S81" s="3" t="s">
         <v>22</v>
       </c>
@@ -6622,6 +6862,9 @@
       <c r="M82" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R82" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S82" s="3" t="s">
         <v>22</v>
       </c>
@@ -6660,6 +6903,9 @@
       <c r="M83" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R83" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S83" s="3" t="s">
         <v>22</v>
       </c>
@@ -6698,6 +6944,9 @@
       <c r="M84" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R84" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S84" s="3" t="s">
         <v>22</v>
       </c>
@@ -6736,6 +6985,9 @@
       <c r="M85" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R85" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S85" s="3" t="s">
         <v>22</v>
       </c>
@@ -6774,6 +7026,9 @@
       <c r="M86" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R86" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S86" s="3" t="s">
         <v>22</v>
       </c>
@@ -6812,6 +7067,9 @@
       <c r="M87" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R87" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S87" s="3" t="s">
         <v>22</v>
       </c>
@@ -6850,6 +7108,9 @@
       <c r="M88" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R88" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S88" s="3" t="s">
         <v>22</v>
       </c>
@@ -6888,6 +7149,9 @@
       <c r="M89" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R89" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S89" s="3" t="s">
         <v>22</v>
       </c>
@@ -6926,6 +7190,9 @@
       <c r="M90" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R90" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S90" s="3" t="s">
         <v>22</v>
       </c>
@@ -6964,6 +7231,9 @@
       <c r="M91" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R91" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S91" s="3" t="s">
         <v>22</v>
       </c>
@@ -7002,6 +7272,9 @@
       <c r="M92" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R92" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S92" s="3" t="s">
         <v>22</v>
       </c>
@@ -7040,6 +7313,9 @@
       <c r="M93" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R93" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S93" s="3" t="s">
         <v>22</v>
       </c>
@@ -7078,6 +7354,9 @@
       <c r="M94" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R94" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S94" s="3" t="s">
         <v>22</v>
       </c>
@@ -7116,6 +7395,9 @@
       <c r="M95" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R95" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S95" s="3" t="s">
         <v>22</v>
       </c>
@@ -7154,6 +7436,9 @@
       <c r="M96" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R96" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S96" s="3" t="s">
         <v>22</v>
       </c>
@@ -7192,6 +7477,9 @@
       <c r="M97" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R97" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S97" s="3" t="s">
         <v>22</v>
       </c>
@@ -7230,6 +7518,9 @@
       <c r="M98" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R98" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S98" s="3" t="s">
         <v>22</v>
       </c>
@@ -7268,6 +7559,9 @@
       <c r="M99" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R99" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S99" s="3" t="s">
         <v>22</v>
       </c>
@@ -7306,6 +7600,9 @@
       <c r="M100" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R100" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S100" s="3" t="s">
         <v>22</v>
       </c>
@@ -7344,6 +7641,9 @@
       <c r="M101" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R101" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S101" s="3" t="s">
         <v>22</v>
       </c>
@@ -7382,6 +7682,9 @@
       <c r="M102" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R102" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S102" s="3" t="s">
         <v>22</v>
       </c>
@@ -7420,6 +7723,9 @@
       <c r="M103" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R103" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S103" s="3" t="s">
         <v>22</v>
       </c>
@@ -7458,6 +7764,9 @@
       <c r="M104" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R104" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S104" s="3" t="s">
         <v>22</v>
       </c>
@@ -7496,6 +7805,9 @@
       <c r="M105" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R105" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S105" s="3" t="s">
         <v>22</v>
       </c>
@@ -7534,6 +7846,9 @@
       <c r="M106" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R106" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S106" s="3" t="s">
         <v>22</v>
       </c>
@@ -7572,6 +7887,9 @@
       <c r="M107" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R107" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S107" s="3" t="s">
         <v>22</v>
       </c>
@@ -7610,6 +7928,9 @@
       <c r="M108" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R108" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S108" s="3" t="s">
         <v>22</v>
       </c>
@@ -7648,6 +7969,9 @@
       <c r="M109" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R109" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S109" s="3" t="s">
         <v>22</v>
       </c>
@@ -7686,6 +8010,9 @@
       <c r="M110" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R110" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S110" s="3" t="s">
         <v>22</v>
       </c>
@@ -7724,6 +8051,9 @@
       <c r="M111" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R111" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S111" s="3" t="s">
         <v>22</v>
       </c>
@@ -7762,6 +8092,9 @@
       <c r="M112" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R112" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S112" s="3" t="s">
         <v>22</v>
       </c>
@@ -7800,6 +8133,9 @@
       <c r="M113" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R113" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S113" s="3" t="s">
         <v>22</v>
       </c>
@@ -7838,6 +8174,9 @@
       <c r="M114" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R114" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S114" s="3" t="s">
         <v>22</v>
       </c>
@@ -7876,6 +8215,9 @@
       <c r="M115" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R115" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S115" s="3" t="s">
         <v>22</v>
       </c>
@@ -7914,6 +8256,9 @@
       <c r="M116" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R116" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S116" s="3" t="s">
         <v>22</v>
       </c>
@@ -7952,6 +8297,9 @@
       <c r="M117" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R117" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S117" s="3" t="s">
         <v>22</v>
       </c>
@@ -7990,6 +8338,9 @@
       <c r="M118" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R118" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S118" s="3" t="s">
         <v>22</v>
       </c>
@@ -8028,6 +8379,9 @@
       <c r="M119" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R119" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S119" s="3" t="s">
         <v>22</v>
       </c>
@@ -8066,6 +8420,9 @@
       <c r="M120" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R120" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S120" s="3" t="s">
         <v>22</v>
       </c>
@@ -8104,6 +8461,9 @@
       <c r="M121" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R121" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S121" s="3" t="s">
         <v>22</v>
       </c>
@@ -8142,6 +8502,9 @@
       <c r="M122" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R122" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S122" s="3" t="s">
         <v>22</v>
       </c>
@@ -8180,6 +8543,9 @@
       <c r="M123" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R123" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S123" s="3" t="s">
         <v>22</v>
       </c>
@@ -8218,6 +8584,9 @@
       <c r="M124" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R124" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S124" s="3" t="s">
         <v>22</v>
       </c>
@@ -8256,6 +8625,9 @@
       <c r="M125" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R125" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S125" s="3" t="s">
         <v>22</v>
       </c>
@@ -8294,6 +8666,9 @@
       <c r="M126" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R126" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S126" s="3" t="s">
         <v>22</v>
       </c>
@@ -8332,6 +8707,9 @@
       <c r="M127" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R127" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S127" s="3" t="s">
         <v>22</v>
       </c>
@@ -8370,6 +8748,9 @@
       <c r="M128" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R128" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S128" s="3" t="s">
         <v>22</v>
       </c>
@@ -8408,6 +8789,9 @@
       <c r="M129" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R129" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S129" s="3" t="s">
         <v>22</v>
       </c>
@@ -8446,6 +8830,9 @@
       <c r="M130" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R130" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S130" s="3" t="s">
         <v>22</v>
       </c>
@@ -8484,6 +8871,9 @@
       <c r="M131" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R131" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S131" s="3" t="s">
         <v>22</v>
       </c>
@@ -8522,6 +8912,9 @@
       <c r="M132" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R132" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S132" s="3" t="s">
         <v>22</v>
       </c>
@@ -8560,6 +8953,9 @@
       <c r="M133" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R133" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S133" s="3" t="s">
         <v>22</v>
       </c>
@@ -8598,6 +8994,9 @@
       <c r="M134" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R134" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S134" s="3" t="s">
         <v>22</v>
       </c>
@@ -8636,6 +9035,9 @@
       <c r="M135" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R135" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S135" s="3" t="s">
         <v>22</v>
       </c>
@@ -8674,6 +9076,9 @@
       <c r="M136" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R136" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S136" s="3" t="s">
         <v>22</v>
       </c>
@@ -8712,6 +9117,9 @@
       <c r="M137" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R137" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S137" s="3" t="s">
         <v>22</v>
       </c>
@@ -8750,6 +9158,9 @@
       <c r="M138" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R138" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S138" s="3" t="s">
         <v>22</v>
       </c>
@@ -8788,6 +9199,9 @@
       <c r="M139" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R139" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S139" s="3" t="s">
         <v>22</v>
       </c>
@@ -8826,6 +9240,9 @@
       <c r="M140" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R140" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S140" s="3" t="s">
         <v>22</v>
       </c>
@@ -8864,6 +9281,9 @@
       <c r="M141" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R141" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S141" s="3" t="s">
         <v>22</v>
       </c>
@@ -8902,6 +9322,9 @@
       <c r="M142" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R142" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S142" s="3" t="s">
         <v>22</v>
       </c>
@@ -8940,6 +9363,9 @@
       <c r="M143" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R143" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S143" s="3" t="s">
         <v>22</v>
       </c>
@@ -8978,6 +9404,9 @@
       <c r="M144" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R144" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S144" s="3" t="s">
         <v>22</v>
       </c>
@@ -9016,6 +9445,9 @@
       <c r="M145" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R145" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S145" s="3" t="s">
         <v>22</v>
       </c>
@@ -9054,6 +9486,9 @@
       <c r="M146" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R146" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S146" s="3" t="s">
         <v>22</v>
       </c>
@@ -9092,6 +9527,9 @@
       <c r="M147" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R147" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S147" s="3" t="s">
         <v>22</v>
       </c>
@@ -9130,6 +9568,9 @@
       <c r="M148" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R148" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S148" s="3" t="s">
         <v>22</v>
       </c>
@@ -9168,6 +9609,9 @@
       <c r="M149" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R149" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S149" s="3" t="s">
         <v>22</v>
       </c>
@@ -9206,6 +9650,9 @@
       <c r="M150" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R150" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S150" s="3" t="s">
         <v>22</v>
       </c>
@@ -9244,6 +9691,9 @@
       <c r="M151" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R151" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S151" s="3" t="s">
         <v>22</v>
       </c>
@@ -9282,6 +9732,9 @@
       <c r="M152" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R152" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S152" s="3" t="s">
         <v>22</v>
       </c>
@@ -9320,6 +9773,9 @@
       <c r="M153" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R153" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S153" s="3" t="s">
         <v>22</v>
       </c>
@@ -9358,6 +9814,9 @@
       <c r="M154" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R154" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S154" s="3" t="s">
         <v>22</v>
       </c>
@@ -9396,6 +9855,9 @@
       <c r="M155" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R155" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S155" s="3" t="s">
         <v>22</v>
       </c>
@@ -9434,6 +9896,9 @@
       <c r="M156" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R156" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S156" s="3" t="s">
         <v>22</v>
       </c>
@@ -9472,6 +9937,9 @@
       <c r="M157" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R157" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S157" s="3" t="s">
         <v>22</v>
       </c>
@@ -9510,6 +9978,9 @@
       <c r="M158" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R158" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S158" s="3" t="s">
         <v>22</v>
       </c>
@@ -9548,6 +10019,9 @@
       <c r="M159" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R159" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S159" s="3" t="s">
         <v>22</v>
       </c>
@@ -9586,6 +10060,9 @@
       <c r="M160" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R160" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S160" s="3" t="s">
         <v>22</v>
       </c>
@@ -9624,6 +10101,9 @@
       <c r="M161" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R161" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S161" s="3" t="s">
         <v>22</v>
       </c>
@@ -9662,6 +10142,9 @@
       <c r="M162" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R162" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S162" s="3" t="s">
         <v>22</v>
       </c>
@@ -9700,6 +10183,9 @@
       <c r="M163" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R163" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S163" s="3" t="s">
         <v>22</v>
       </c>
@@ -9738,6 +10224,9 @@
       <c r="M164" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R164" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S164" s="3" t="s">
         <v>22</v>
       </c>
@@ -9776,6 +10265,9 @@
       <c r="M165" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R165" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S165" s="3" t="s">
         <v>22</v>
       </c>
@@ -9814,6 +10306,9 @@
       <c r="M166" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R166" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S166" s="3" t="s">
         <v>22</v>
       </c>
@@ -9852,6 +10347,9 @@
       <c r="M167" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R167" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S167" s="3" t="s">
         <v>22</v>
       </c>
@@ -9890,6 +10388,9 @@
       <c r="M168" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R168" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S168" s="3" t="s">
         <v>22</v>
       </c>
@@ -9928,6 +10429,9 @@
       <c r="M169" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R169" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S169" s="3" t="s">
         <v>22</v>
       </c>
@@ -9966,6 +10470,9 @@
       <c r="M170" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R170" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S170" s="3" t="s">
         <v>22</v>
       </c>
@@ -10004,6 +10511,9 @@
       <c r="M171" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R171" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S171" s="3" t="s">
         <v>22</v>
       </c>
@@ -10042,6 +10552,9 @@
       <c r="M172" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R172" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S172" s="3" t="s">
         <v>22</v>
       </c>
@@ -10080,6 +10593,9 @@
       <c r="M173" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R173" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S173" s="3" t="s">
         <v>22</v>
       </c>
@@ -10118,6 +10634,9 @@
       <c r="M174" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R174" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S174" s="3" t="s">
         <v>22</v>
       </c>
@@ -10156,6 +10675,9 @@
       <c r="M175" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R175" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S175" s="3" t="s">
         <v>22</v>
       </c>
@@ -10194,6 +10716,9 @@
       <c r="M176" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R176" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S176" s="3" t="s">
         <v>22</v>
       </c>
@@ -10232,6 +10757,9 @@
       <c r="M177" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R177" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S177" s="3" t="s">
         <v>22</v>
       </c>
@@ -10270,6 +10798,9 @@
       <c r="M178" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R178" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S178" s="3" t="s">
         <v>22</v>
       </c>
@@ -10308,6 +10839,9 @@
       <c r="M179" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R179" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S179" s="3" t="s">
         <v>22</v>
       </c>
@@ -10346,6 +10880,9 @@
       <c r="M180" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R180" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S180" s="3" t="s">
         <v>22</v>
       </c>
@@ -10384,6 +10921,9 @@
       <c r="M181" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R181" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S181" s="3" t="s">
         <v>22</v>
       </c>
@@ -10422,6 +10962,9 @@
       <c r="M182" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R182" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S182" s="3" t="s">
         <v>22</v>
       </c>
@@ -10460,6 +11003,9 @@
       <c r="M183" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R183" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S183" s="3" t="s">
         <v>22</v>
       </c>
@@ -10498,6 +11044,9 @@
       <c r="M184" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R184" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S184" s="3" t="s">
         <v>22</v>
       </c>
@@ -10536,6 +11085,9 @@
       <c r="M185" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R185" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S185" s="3" t="s">
         <v>22</v>
       </c>
@@ -10574,6 +11126,9 @@
       <c r="M186" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R186" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S186" s="3" t="s">
         <v>22</v>
       </c>
@@ -10612,6 +11167,9 @@
       <c r="M187" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R187" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S187" s="3" t="s">
         <v>22</v>
       </c>
@@ -10650,6 +11208,9 @@
       <c r="M188" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R188" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S188" s="3" t="s">
         <v>22</v>
       </c>
@@ -10688,6 +11249,9 @@
       <c r="M189" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R189" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S189" s="3" t="s">
         <v>22</v>
       </c>
@@ -10726,6 +11290,9 @@
       <c r="M190" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R190" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S190" s="3" t="s">
         <v>22</v>
       </c>
@@ -10764,6 +11331,9 @@
       <c r="M191" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R191" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S191" s="3" t="s">
         <v>22</v>
       </c>
@@ -10802,6 +11372,9 @@
       <c r="M192" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R192" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S192" s="3" t="s">
         <v>22</v>
       </c>
@@ -10840,6 +11413,9 @@
       <c r="M193" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R193" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S193" s="3" t="s">
         <v>22</v>
       </c>
@@ -10878,6 +11454,9 @@
       <c r="M194" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R194" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S194" s="3" t="s">
         <v>22</v>
       </c>
@@ -10916,6 +11495,9 @@
       <c r="M195" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R195" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S195" s="3" t="s">
         <v>22</v>
       </c>
@@ -10954,6 +11536,9 @@
       <c r="M196" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R196" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S196" s="3" t="s">
         <v>22</v>
       </c>
@@ -10992,6 +11577,9 @@
       <c r="M197" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R197" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S197" s="3" t="s">
         <v>22</v>
       </c>
@@ -11030,6 +11618,9 @@
       <c r="M198" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R198" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S198" s="3" t="s">
         <v>22</v>
       </c>
@@ -11068,6 +11659,9 @@
       <c r="M199" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R199" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S199" s="3" t="s">
         <v>22</v>
       </c>
@@ -11106,6 +11700,9 @@
       <c r="M200" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R200" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S200" s="3" t="s">
         <v>22</v>
       </c>
@@ -11144,6 +11741,9 @@
       <c r="M201" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R201" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S201" s="3" t="s">
         <v>22</v>
       </c>
@@ -11182,6 +11782,9 @@
       <c r="M202" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R202" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S202" s="3" t="s">
         <v>22</v>
       </c>
@@ -11220,6 +11823,9 @@
       <c r="M203" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R203" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S203" s="3" t="s">
         <v>22</v>
       </c>
@@ -11258,6 +11864,9 @@
       <c r="M204" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R204" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S204" s="3" t="s">
         <v>22</v>
       </c>
@@ -11296,6 +11905,9 @@
       <c r="M205" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R205" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S205" s="3" t="s">
         <v>22</v>
       </c>
@@ -11334,6 +11946,9 @@
       <c r="M206" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R206" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S206" s="3" t="s">
         <v>22</v>
       </c>
@@ -11372,6 +11987,9 @@
       <c r="M207" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R207" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S207" s="3" t="s">
         <v>22</v>
       </c>
@@ -11410,6 +12028,9 @@
       <c r="M208" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R208" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S208" s="3" t="s">
         <v>22</v>
       </c>
@@ -11448,6 +12069,9 @@
       <c r="M209" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R209" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S209" s="3" t="s">
         <v>22</v>
       </c>
@@ -11486,6 +12110,9 @@
       <c r="M210" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R210" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S210" s="3" t="s">
         <v>22</v>
       </c>
@@ -11524,6 +12151,9 @@
       <c r="M211" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R211" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S211" s="3" t="s">
         <v>22</v>
       </c>
@@ -11562,6 +12192,9 @@
       <c r="M212" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R212" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S212" s="3" t="s">
         <v>22</v>
       </c>
@@ -11600,6 +12233,9 @@
       <c r="M213" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R213" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S213" s="3" t="s">
         <v>22</v>
       </c>
@@ -11638,6 +12274,9 @@
       <c r="M214" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R214" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S214" s="3" t="s">
         <v>22</v>
       </c>
@@ -11676,6 +12315,9 @@
       <c r="M215" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R215" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S215" s="3" t="s">
         <v>22</v>
       </c>
@@ -11714,6 +12356,9 @@
       <c r="M216" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R216" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S216" s="3" t="s">
         <v>22</v>
       </c>
@@ -11752,6 +12397,9 @@
       <c r="M217" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R217" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S217" s="3" t="s">
         <v>22</v>
       </c>
@@ -11790,6 +12438,9 @@
       <c r="M218" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R218" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S218" s="3" t="s">
         <v>22</v>
       </c>
@@ -11828,6 +12479,9 @@
       <c r="M219" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R219" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S219" s="3" t="s">
         <v>22</v>
       </c>
@@ -11866,6 +12520,9 @@
       <c r="M220" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R220" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S220" s="3" t="s">
         <v>22</v>
       </c>
@@ -11904,6 +12561,9 @@
       <c r="M221" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R221" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S221" s="3" t="s">
         <v>22</v>
       </c>
@@ -11942,6 +12602,9 @@
       <c r="M222" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R222" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S222" s="3" t="s">
         <v>22</v>
       </c>
@@ -11980,6 +12643,9 @@
       <c r="M223" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R223" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S223" s="3" t="s">
         <v>22</v>
       </c>
@@ -12018,6 +12684,9 @@
       <c r="M224" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R224" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S224" s="3" t="s">
         <v>22</v>
       </c>
@@ -12056,6 +12725,9 @@
       <c r="M225" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R225" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S225" s="3" t="s">
         <v>22</v>
       </c>
@@ -12094,6 +12766,9 @@
       <c r="M226" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R226" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S226" s="3" t="s">
         <v>22</v>
       </c>
@@ -12132,6 +12807,9 @@
       <c r="M227" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R227" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S227" s="3" t="s">
         <v>22</v>
       </c>
@@ -12170,6 +12848,9 @@
       <c r="M228" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R228" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S228" s="3" t="s">
         <v>22</v>
       </c>
@@ -12208,6 +12889,9 @@
       <c r="M229" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R229" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S229" s="3" t="s">
         <v>22</v>
       </c>
@@ -12246,6 +12930,9 @@
       <c r="M230" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R230" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S230" s="3" t="s">
         <v>22</v>
       </c>
@@ -12284,6 +12971,9 @@
       <c r="M231" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R231" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S231" s="3" t="s">
         <v>22</v>
       </c>
@@ -12322,6 +13012,9 @@
       <c r="M232" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R232" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S232" s="3" t="s">
         <v>22</v>
       </c>
@@ -12360,6 +13053,9 @@
       <c r="M233" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R233" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S233" s="3" t="s">
         <v>22</v>
       </c>
@@ -12398,6 +13094,9 @@
       <c r="M234" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R234" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S234" s="3" t="s">
         <v>22</v>
       </c>
@@ -12436,6 +13135,9 @@
       <c r="M235" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R235" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S235" s="3" t="s">
         <v>22</v>
       </c>
@@ -12474,6 +13176,9 @@
       <c r="M236" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R236" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S236" s="3" t="s">
         <v>22</v>
       </c>
@@ -12512,6 +13217,9 @@
       <c r="M237" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R237" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S237" s="3" t="s">
         <v>22</v>
       </c>
@@ -12550,6 +13258,9 @@
       <c r="M238" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R238" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S238" s="3" t="s">
         <v>22</v>
       </c>
@@ -12588,6 +13299,9 @@
       <c r="M239" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R239" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S239" s="3" t="s">
         <v>22</v>
       </c>
@@ -12626,6 +13340,9 @@
       <c r="M240" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R240" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S240" s="3" t="s">
         <v>22</v>
       </c>
@@ -12664,6 +13381,9 @@
       <c r="M241" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R241" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S241" s="3" t="s">
         <v>22</v>
       </c>
@@ -12702,6 +13422,9 @@
       <c r="M242" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R242" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S242" s="3" t="s">
         <v>22</v>
       </c>
@@ -12740,6 +13463,9 @@
       <c r="M243" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R243" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S243" s="3" t="s">
         <v>22</v>
       </c>
@@ -12778,6 +13504,9 @@
       <c r="M244" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R244" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S244" s="3" t="s">
         <v>22</v>
       </c>
@@ -12816,6 +13545,9 @@
       <c r="M245" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R245" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S245" s="3" t="s">
         <v>22</v>
       </c>
@@ -12854,6 +13586,9 @@
       <c r="M246" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R246" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S246" s="3" t="s">
         <v>22</v>
       </c>
@@ -12892,6 +13627,9 @@
       <c r="M247" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R247" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S247" s="3" t="s">
         <v>22</v>
       </c>
@@ -12930,6 +13668,9 @@
       <c r="M248" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R248" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S248" s="3" t="s">
         <v>22</v>
       </c>
@@ -12968,6 +13709,9 @@
       <c r="M249" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R249" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S249" s="3" t="s">
         <v>22</v>
       </c>
@@ -13006,6 +13750,9 @@
       <c r="M250" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R250" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S250" s="3" t="s">
         <v>22</v>
       </c>
@@ -13044,6 +13791,9 @@
       <c r="M251" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R251" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S251" s="3" t="s">
         <v>22</v>
       </c>
@@ -13082,6 +13832,9 @@
       <c r="M252" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R252" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S252" s="3" t="s">
         <v>22</v>
       </c>
@@ -13120,6 +13873,9 @@
       <c r="M253" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R253" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S253" s="3" t="s">
         <v>22</v>
       </c>
@@ -13158,6 +13914,9 @@
       <c r="M254" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R254" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S254" s="3" t="s">
         <v>22</v>
       </c>
@@ -13196,6 +13955,9 @@
       <c r="M255" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R255" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S255" s="3" t="s">
         <v>22</v>
       </c>
@@ -13234,6 +13996,9 @@
       <c r="M256" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R256" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S256" s="3" t="s">
         <v>22</v>
       </c>
@@ -13272,6 +14037,9 @@
       <c r="M257" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R257" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S257" s="3" t="s">
         <v>22</v>
       </c>
@@ -13310,6 +14078,9 @@
       <c r="M258" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R258" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S258" s="3" t="s">
         <v>22</v>
       </c>
@@ -13348,6 +14119,9 @@
       <c r="M259" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R259" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S259" s="3" t="s">
         <v>22</v>
       </c>
@@ -13386,6 +14160,9 @@
       <c r="M260" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R260" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S260" s="3" t="s">
         <v>22</v>
       </c>
@@ -13424,6 +14201,9 @@
       <c r="M261" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R261" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S261" s="3" t="s">
         <v>22</v>
       </c>
@@ -13462,6 +14242,9 @@
       <c r="M262" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R262" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S262" s="3" t="s">
         <v>22</v>
       </c>
@@ -13500,6 +14283,9 @@
       <c r="M263" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R263" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S263" s="3" t="s">
         <v>22</v>
       </c>
@@ -13538,6 +14324,9 @@
       <c r="M264" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R264" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S264" s="3" t="s">
         <v>22</v>
       </c>
@@ -13576,6 +14365,9 @@
       <c r="M265" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R265" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S265" s="3" t="s">
         <v>22</v>
       </c>
@@ -13614,6 +14406,9 @@
       <c r="M266" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R266" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S266" s="3" t="s">
         <v>22</v>
       </c>
@@ -13652,6 +14447,9 @@
       <c r="M267" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R267" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S267" s="3" t="s">
         <v>22</v>
       </c>
@@ -13690,6 +14488,9 @@
       <c r="M268" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R268" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S268" s="3" t="s">
         <v>22</v>
       </c>
@@ -13728,6 +14529,9 @@
       <c r="M269" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R269" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S269" s="3" t="s">
         <v>22</v>
       </c>
@@ -13766,6 +14570,9 @@
       <c r="M270" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R270" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S270" s="3" t="s">
         <v>22</v>
       </c>
@@ -13804,6 +14611,9 @@
       <c r="M271" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R271" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S271" s="3" t="s">
         <v>22</v>
       </c>
@@ -13842,6 +14652,9 @@
       <c r="M272" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R272" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S272" s="3" t="s">
         <v>22</v>
       </c>
@@ -13880,6 +14693,9 @@
       <c r="M273" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R273" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S273" s="3" t="s">
         <v>22</v>
       </c>
@@ -13918,6 +14734,9 @@
       <c r="M274" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R274" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S274" s="3" t="s">
         <v>22</v>
       </c>
@@ -13956,6 +14775,9 @@
       <c r="M275" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R275" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S275" s="3" t="s">
         <v>22</v>
       </c>
@@ -13994,6 +14816,9 @@
       <c r="M276" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R276" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S276" s="3" t="s">
         <v>22</v>
       </c>
@@ -14032,6 +14857,9 @@
       <c r="M277" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R277" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S277" s="3" t="s">
         <v>22</v>
       </c>
@@ -14070,6 +14898,9 @@
       <c r="M278" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R278" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S278" s="3" t="s">
         <v>22</v>
       </c>
@@ -14108,6 +14939,9 @@
       <c r="M279" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R279" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S279" s="3" t="s">
         <v>22</v>
       </c>
@@ -14146,6 +14980,9 @@
       <c r="M280" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R280" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S280" s="3" t="s">
         <v>22</v>
       </c>
@@ -14184,6 +15021,9 @@
       <c r="M281" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R281" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S281" s="3" t="s">
         <v>22</v>
       </c>
@@ -14222,6 +15062,9 @@
       <c r="M282" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R282" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S282" s="3" t="s">
         <v>22</v>
       </c>
@@ -14260,6 +15103,9 @@
       <c r="M283" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R283" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S283" s="3" t="s">
         <v>22</v>
       </c>
@@ -14298,6 +15144,9 @@
       <c r="M284" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R284" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S284" s="3" t="s">
         <v>22</v>
       </c>
@@ -14336,6 +15185,9 @@
       <c r="M285" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R285" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S285" s="3" t="s">
         <v>22</v>
       </c>
@@ -14374,6 +15226,9 @@
       <c r="M286" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R286" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S286" s="3" t="s">
         <v>22</v>
       </c>
@@ -14412,6 +15267,9 @@
       <c r="M287" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R287" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S287" s="3" t="s">
         <v>22</v>
       </c>
@@ -14450,6 +15308,9 @@
       <c r="M288" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R288" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S288" s="3" t="s">
         <v>22</v>
       </c>
@@ -14488,6 +15349,9 @@
       <c r="M289" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R289" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S289" s="3" t="s">
         <v>22</v>
       </c>
@@ -14526,6 +15390,9 @@
       <c r="M290" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R290" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S290" s="3" t="s">
         <v>22</v>
       </c>
@@ -14564,6 +15431,9 @@
       <c r="M291" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R291" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S291" s="3" t="s">
         <v>22</v>
       </c>
@@ -14602,6 +15472,9 @@
       <c r="M292" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R292" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S292" s="3" t="s">
         <v>22</v>
       </c>
@@ -14640,6 +15513,9 @@
       <c r="M293" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R293" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S293" s="3" t="s">
         <v>22</v>
       </c>
@@ -14678,6 +15554,9 @@
       <c r="M294" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R294" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S294" s="3" t="s">
         <v>22</v>
       </c>
@@ -14716,6 +15595,9 @@
       <c r="M295" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R295" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S295" s="3" t="s">
         <v>22</v>
       </c>
@@ -14754,6 +15636,9 @@
       <c r="M296" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R296" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S296" s="3" t="s">
         <v>22</v>
       </c>
@@ -14792,6 +15677,9 @@
       <c r="M297" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R297" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S297" s="3" t="s">
         <v>22</v>
       </c>
@@ -14830,6 +15718,9 @@
       <c r="M298" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R298" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S298" s="3" t="s">
         <v>22</v>
       </c>
@@ -14868,6 +15759,9 @@
       <c r="M299" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R299" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S299" s="3" t="s">
         <v>22</v>
       </c>
@@ -14906,6 +15800,9 @@
       <c r="M300" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R300" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S300" s="3" t="s">
         <v>22</v>
       </c>
@@ -14944,6 +15841,9 @@
       <c r="M301" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R301" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S301" s="3" t="s">
         <v>22</v>
       </c>
@@ -14982,6 +15882,9 @@
       <c r="M302" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R302" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S302" s="3" t="s">
         <v>22</v>
       </c>
@@ -15020,6 +15923,9 @@
       <c r="M303" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R303" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S303" s="3" t="s">
         <v>22</v>
       </c>
@@ -15058,6 +15964,9 @@
       <c r="M304" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R304" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S304" s="3" t="s">
         <v>22</v>
       </c>
@@ -15096,6 +16005,9 @@
       <c r="M305" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R305" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S305" s="3" t="s">
         <v>22</v>
       </c>
@@ -15134,6 +16046,9 @@
       <c r="M306" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R306" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S306" s="3" t="s">
         <v>22</v>
       </c>
@@ -15172,6 +16087,9 @@
       <c r="M307" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R307" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S307" s="3" t="s">
         <v>22</v>
       </c>
@@ -15210,6 +16128,9 @@
       <c r="M308" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R308" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S308" s="3" t="s">
         <v>22</v>
       </c>
@@ -15248,6 +16169,9 @@
       <c r="M309" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R309" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S309" s="3" t="s">
         <v>22</v>
       </c>
@@ -15286,6 +16210,9 @@
       <c r="M310" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R310" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S310" s="3" t="s">
         <v>22</v>
       </c>
@@ -15324,6 +16251,9 @@
       <c r="M311" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R311" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S311" s="3" t="s">
         <v>22</v>
       </c>
@@ -15362,6 +16292,9 @@
       <c r="M312" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R312" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S312" s="3" t="s">
         <v>22</v>
       </c>
@@ -15400,6 +16333,9 @@
       <c r="M313" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R313" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S313" s="3" t="s">
         <v>22</v>
       </c>
@@ -15438,6 +16374,9 @@
       <c r="M314" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R314" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S314" s="3" t="s">
         <v>22</v>
       </c>
@@ -15476,6 +16415,9 @@
       <c r="M315" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R315" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S315" s="3" t="s">
         <v>22</v>
       </c>
@@ -15514,6 +16456,9 @@
       <c r="M316" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R316" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S316" s="3" t="s">
         <v>22</v>
       </c>
@@ -15552,6 +16497,9 @@
       <c r="M317" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R317" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S317" s="3" t="s">
         <v>22</v>
       </c>
@@ -15590,6 +16538,9 @@
       <c r="M318" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R318" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S318" s="3" t="s">
         <v>22</v>
       </c>
@@ -15628,6 +16579,9 @@
       <c r="M319" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R319" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S319" s="3" t="s">
         <v>22</v>
       </c>
@@ -15666,6 +16620,9 @@
       <c r="M320" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R320" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S320" s="3" t="s">
         <v>22</v>
       </c>
@@ -15704,6 +16661,9 @@
       <c r="M321" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R321" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S321" s="3" t="s">
         <v>22</v>
       </c>
@@ -15742,6 +16702,9 @@
       <c r="M322" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R322" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S322" s="3" t="s">
         <v>22</v>
       </c>
@@ -15780,6 +16743,9 @@
       <c r="M323" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R323" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S323" s="3" t="s">
         <v>22</v>
       </c>
@@ -15818,6 +16784,9 @@
       <c r="M324" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R324" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S324" s="3" t="s">
         <v>22</v>
       </c>
@@ -15856,6 +16825,9 @@
       <c r="M325" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R325" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S325" s="3" t="s">
         <v>22</v>
       </c>
@@ -15894,6 +16866,9 @@
       <c r="M326" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R326" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S326" s="3" t="s">
         <v>22</v>
       </c>
@@ -15932,6 +16907,9 @@
       <c r="M327" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R327" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S327" s="3" t="s">
         <v>22</v>
       </c>
@@ -15970,6 +16948,9 @@
       <c r="M328" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R328" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S328" s="3" t="s">
         <v>22</v>
       </c>
@@ -16008,6 +16989,9 @@
       <c r="M329" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R329" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S329" s="3" t="s">
         <v>22</v>
       </c>
@@ -16046,6 +17030,9 @@
       <c r="M330" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R330" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S330" s="3" t="s">
         <v>22</v>
       </c>
@@ -16084,6 +17071,9 @@
       <c r="M331" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R331" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S331" s="3" t="s">
         <v>22</v>
       </c>
@@ -16122,6 +17112,9 @@
       <c r="M332" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R332" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S332" s="3" t="s">
         <v>22</v>
       </c>
@@ -16160,6 +17153,9 @@
       <c r="M333" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R333" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S333" s="3" t="s">
         <v>22</v>
       </c>
@@ -16198,6 +17194,9 @@
       <c r="M334" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R334" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S334" s="3" t="s">
         <v>22</v>
       </c>
@@ -16236,6 +17235,9 @@
       <c r="M335" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R335" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S335" s="3" t="s">
         <v>22</v>
       </c>
@@ -16274,6 +17276,9 @@
       <c r="M336" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R336" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S336" s="3" t="s">
         <v>22</v>
       </c>
@@ -16312,6 +17317,9 @@
       <c r="M337" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R337" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S337" s="3" t="s">
         <v>22</v>
       </c>
@@ -16350,6 +17358,9 @@
       <c r="M338" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R338" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S338" s="3" t="s">
         <v>22</v>
       </c>
@@ -16388,6 +17399,9 @@
       <c r="M339" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R339" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S339" s="3" t="s">
         <v>22</v>
       </c>
@@ -16426,6 +17440,9 @@
       <c r="M340" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R340" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S340" s="3" t="s">
         <v>22</v>
       </c>
@@ -16464,6 +17481,9 @@
       <c r="M341" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R341" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S341" s="3" t="s">
         <v>22</v>
       </c>
@@ -16502,6 +17522,9 @@
       <c r="M342" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R342" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S342" s="3" t="s">
         <v>22</v>
       </c>
@@ -16540,6 +17563,9 @@
       <c r="M343" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R343" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S343" s="3" t="s">
         <v>22</v>
       </c>
@@ -16578,6 +17604,9 @@
       <c r="M344" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R344" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S344" s="3" t="s">
         <v>22</v>
       </c>
@@ -16616,6 +17645,9 @@
       <c r="M345" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R345" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S345" s="3" t="s">
         <v>22</v>
       </c>
@@ -16654,6 +17686,9 @@
       <c r="M346" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R346" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S346" s="3" t="s">
         <v>22</v>
       </c>
@@ -16692,6 +17727,9 @@
       <c r="M347" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R347" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S347" s="3" t="s">
         <v>22</v>
       </c>
@@ -16730,6 +17768,9 @@
       <c r="M348" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R348" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S348" s="3" t="s">
         <v>22</v>
       </c>
@@ -16768,6 +17809,9 @@
       <c r="M349" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R349" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S349" s="3" t="s">
         <v>22</v>
       </c>
@@ -16806,6 +17850,9 @@
       <c r="M350" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R350" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S350" s="3" t="s">
         <v>22</v>
       </c>
@@ -16844,6 +17891,9 @@
       <c r="M351" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R351" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S351" s="3" t="s">
         <v>22</v>
       </c>
@@ -16882,6 +17932,9 @@
       <c r="M352" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R352" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S352" s="3" t="s">
         <v>22</v>
       </c>
@@ -16920,6 +17973,9 @@
       <c r="M353" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R353" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S353" s="3" t="s">
         <v>22</v>
       </c>
@@ -16958,6 +18014,9 @@
       <c r="M354" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R354" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S354" s="3" t="s">
         <v>22</v>
       </c>
@@ -16996,6 +18055,9 @@
       <c r="M355" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R355" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S355" s="3" t="s">
         <v>22</v>
       </c>
@@ -17034,6 +18096,9 @@
       <c r="M356" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R356" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S356" s="3" t="s">
         <v>22</v>
       </c>
@@ -17072,6 +18137,9 @@
       <c r="M357" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R357" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S357" s="3" t="s">
         <v>22</v>
       </c>
@@ -17110,6 +18178,9 @@
       <c r="M358" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R358" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S358" s="3" t="s">
         <v>22</v>
       </c>
@@ -17148,6 +18219,9 @@
       <c r="M359" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R359" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S359" s="3" t="s">
         <v>22</v>
       </c>
@@ -17186,6 +18260,9 @@
       <c r="M360" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R360" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S360" s="3" t="s">
         <v>22</v>
       </c>
@@ -17224,6 +18301,9 @@
       <c r="M361" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R361" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S361" s="3" t="s">
         <v>22</v>
       </c>
@@ -17262,6 +18342,9 @@
       <c r="M362" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R362" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S362" s="3" t="s">
         <v>22</v>
       </c>
@@ -17300,6 +18383,9 @@
       <c r="M363" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R363" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S363" s="3" t="s">
         <v>22</v>
       </c>
@@ -17338,6 +18424,9 @@
       <c r="M364" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R364" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S364" s="3" t="s">
         <v>22</v>
       </c>
@@ -17376,6 +18465,9 @@
       <c r="M365" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R365" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S365" s="3" t="s">
         <v>22</v>
       </c>
@@ -17414,6 +18506,9 @@
       <c r="M366" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R366" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S366" s="3" t="s">
         <v>22</v>
       </c>
@@ -17452,6 +18547,9 @@
       <c r="M367" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R367" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S367" s="3" t="s">
         <v>22</v>
       </c>
@@ -17490,6 +18588,9 @@
       <c r="M368" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R368" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S368" s="3" t="s">
         <v>22</v>
       </c>
@@ -17528,6 +18629,9 @@
       <c r="M369" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R369" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S369" s="3" t="s">
         <v>22</v>
       </c>
@@ -17566,6 +18670,9 @@
       <c r="M370" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R370" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S370" s="3" t="s">
         <v>22</v>
       </c>
@@ -17604,6 +18711,9 @@
       <c r="M371" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R371" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S371" s="3" t="s">
         <v>22</v>
       </c>
@@ -17642,6 +18752,9 @@
       <c r="M372" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R372" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S372" s="3" t="s">
         <v>22</v>
       </c>
@@ -17680,6 +18793,9 @@
       <c r="M373" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R373" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S373" s="3" t="s">
         <v>22</v>
       </c>
@@ -17718,6 +18834,9 @@
       <c r="M374" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R374" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S374" s="3" t="s">
         <v>22</v>
       </c>
@@ -17756,6 +18875,9 @@
       <c r="M375" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R375" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S375" s="3" t="s">
         <v>22</v>
       </c>
@@ -17794,6 +18916,9 @@
       <c r="M376" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R376" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S376" s="3" t="s">
         <v>22</v>
       </c>
@@ -17832,6 +18957,9 @@
       <c r="M377" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R377" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S377" s="3" t="s">
         <v>22</v>
       </c>
@@ -17870,6 +18998,9 @@
       <c r="M378" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R378" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S378" s="3" t="s">
         <v>22</v>
       </c>
@@ -17908,6 +19039,9 @@
       <c r="M379" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R379" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S379" s="3" t="s">
         <v>22</v>
       </c>
@@ -17963,6 +19097,9 @@
       </c>
       <c r="Q380" s="3" t="s">
         <v>446</v>
+      </c>
+      <c r="R380" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S380" s="3" t="s">
         <v>22</v>
@@ -18002,6 +19139,9 @@
       <c r="M381" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R381" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S381" s="3" t="s">
         <v>22</v>
       </c>
@@ -18040,6 +19180,9 @@
       <c r="M382" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R382" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S382" s="3" t="s">
         <v>22</v>
       </c>
@@ -18078,6 +19221,9 @@
       <c r="M383" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R383" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S383" s="3" t="s">
         <v>22</v>
       </c>
@@ -18116,6 +19262,9 @@
       <c r="M384" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R384" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S384" s="3" t="s">
         <v>22</v>
       </c>
@@ -18154,6 +19303,9 @@
       <c r="M385" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R385" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S385" s="3" t="s">
         <v>22</v>
       </c>
@@ -18192,6 +19344,9 @@
       <c r="M386" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R386" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S386" s="3" t="s">
         <v>22</v>
       </c>
@@ -18230,6 +19385,9 @@
       <c r="M387" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R387" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S387" s="3" t="s">
         <v>22</v>
       </c>
@@ -18268,6 +19426,9 @@
       <c r="M388" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R388" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S388" s="3" t="s">
         <v>22</v>
       </c>
@@ -18306,6 +19467,9 @@
       <c r="M389" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R389" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S389" s="3" t="s">
         <v>22</v>
       </c>
@@ -18344,6 +19508,9 @@
       <c r="M390" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R390" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S390" s="3" t="s">
         <v>22</v>
       </c>
@@ -18382,6 +19549,9 @@
       <c r="M391" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R391" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S391" s="3" t="s">
         <v>22</v>
       </c>
@@ -18420,6 +19590,9 @@
       <c r="M392" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R392" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S392" s="3" t="s">
         <v>22</v>
       </c>
@@ -18458,6 +19631,9 @@
       <c r="M393" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R393" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S393" s="3" t="s">
         <v>22</v>
       </c>
@@ -18496,6 +19672,9 @@
       <c r="M394" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R394" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S394" s="3" t="s">
         <v>22</v>
       </c>
@@ -18534,6 +19713,9 @@
       <c r="M395" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R395" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S395" s="3" t="s">
         <v>22</v>
       </c>
@@ -18572,6 +19754,9 @@
       <c r="M396" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R396" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S396" s="3" t="s">
         <v>22</v>
       </c>
@@ -18610,6 +19795,9 @@
       <c r="M397" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R397" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S397" s="3" t="s">
         <v>22</v>
       </c>
@@ -18648,6 +19836,9 @@
       <c r="M398" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R398" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S398" s="3" t="s">
         <v>22</v>
       </c>
@@ -18686,6 +19877,9 @@
       <c r="M399" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R399" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S399" s="3" t="s">
         <v>22</v>
       </c>
@@ -18724,6 +19918,9 @@
       <c r="M400" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R400" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S400" s="3" t="s">
         <v>22</v>
       </c>
@@ -18762,6 +19959,9 @@
       <c r="M401" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R401" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S401" s="3" t="s">
         <v>22</v>
       </c>
@@ -18800,6 +20000,9 @@
       <c r="M402" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R402" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S402" s="3" t="s">
         <v>22</v>
       </c>
@@ -18838,6 +20041,9 @@
       <c r="M403" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R403" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S403" s="3" t="s">
         <v>22</v>
       </c>
@@ -18876,6 +20082,9 @@
       <c r="M404" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R404" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S404" s="3" t="s">
         <v>22</v>
       </c>
@@ -18914,6 +20123,9 @@
       <c r="M405" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R405" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S405" s="3" t="s">
         <v>22</v>
       </c>
@@ -18952,6 +20164,9 @@
       <c r="M406" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R406" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S406" s="3" t="s">
         <v>22</v>
       </c>
@@ -18990,6 +20205,9 @@
       <c r="M407" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R407" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S407" s="3" t="s">
         <v>22</v>
       </c>
@@ -19028,6 +20246,9 @@
       <c r="M408" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R408" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S408" s="3" t="s">
         <v>22</v>
       </c>
@@ -19066,6 +20287,9 @@
       <c r="M409" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R409" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S409" s="3" t="s">
         <v>22</v>
       </c>
@@ -19104,6 +20328,9 @@
       <c r="M410" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R410" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S410" s="3" t="s">
         <v>22</v>
       </c>
@@ -19142,6 +20369,9 @@
       <c r="M411" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R411" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S411" s="3" t="s">
         <v>22</v>
       </c>
@@ -19180,6 +20410,9 @@
       <c r="M412" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R412" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S412" s="3" t="s">
         <v>22</v>
       </c>
@@ -19218,6 +20451,9 @@
       <c r="M413" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R413" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S413" s="3" t="s">
         <v>22</v>
       </c>
@@ -19256,6 +20492,9 @@
       <c r="M414" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R414" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S414" s="3" t="s">
         <v>22</v>
       </c>
@@ -19294,6 +20533,9 @@
       <c r="M415" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R415" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S415" s="3" t="s">
         <v>22</v>
       </c>
@@ -19332,6 +20574,9 @@
       <c r="M416" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R416" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S416" s="3" t="s">
         <v>22</v>
       </c>
@@ -19370,6 +20615,9 @@
       <c r="M417" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R417" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S417" s="3" t="s">
         <v>22</v>
       </c>
@@ -19408,6 +20656,9 @@
       <c r="M418" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R418" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S418" s="3" t="s">
         <v>22</v>
       </c>
@@ -19446,6 +20697,9 @@
       <c r="M419" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R419" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S419" s="3" t="s">
         <v>22</v>
       </c>
@@ -19484,6 +20738,9 @@
       <c r="M420" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R420" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S420" s="3" t="s">
         <v>22</v>
       </c>
@@ -19522,6 +20779,9 @@
       <c r="M421" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R421" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S421" s="3" t="s">
         <v>22</v>
       </c>
@@ -19560,6 +20820,9 @@
       <c r="M422" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R422" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S422" s="3" t="s">
         <v>22</v>
       </c>
@@ -19598,6 +20861,9 @@
       <c r="M423" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R423" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S423" s="3" t="s">
         <v>22</v>
       </c>
@@ -19636,6 +20902,9 @@
       <c r="M424" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R424" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S424" s="3" t="s">
         <v>22</v>
       </c>
@@ -19674,6 +20943,9 @@
       <c r="M425" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R425" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S425" s="3" t="s">
         <v>22</v>
       </c>
@@ -19712,6 +20984,9 @@
       <c r="M426" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R426" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S426" s="3" t="s">
         <v>22</v>
       </c>
@@ -19750,6 +21025,9 @@
       <c r="M427" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R427" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S427" s="3" t="s">
         <v>22</v>
       </c>
@@ -19788,6 +21066,9 @@
       <c r="M428" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R428" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S428" s="3" t="s">
         <v>22</v>
       </c>
@@ -19826,6 +21107,9 @@
       <c r="M429" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R429" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S429" s="3" t="s">
         <v>22</v>
       </c>
@@ -19864,6 +21148,9 @@
       <c r="M430" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R430" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S430" s="3" t="s">
         <v>22</v>
       </c>
@@ -19902,6 +21189,9 @@
       <c r="M431" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R431" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S431" s="3" t="s">
         <v>22</v>
       </c>
@@ -19940,6 +21230,9 @@
       <c r="M432" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R432" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S432" s="3" t="s">
         <v>22</v>
       </c>
@@ -19978,6 +21271,9 @@
       <c r="M433" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R433" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S433" s="3" t="s">
         <v>22</v>
       </c>
@@ -20016,6 +21312,9 @@
       <c r="M434" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R434" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S434" s="3" t="s">
         <v>22</v>
       </c>
@@ -20054,6 +21353,9 @@
       <c r="M435" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R435" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S435" s="3" t="s">
         <v>22</v>
       </c>
@@ -20092,6 +21394,9 @@
       <c r="M436" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R436" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S436" s="3" t="s">
         <v>22</v>
       </c>
@@ -20130,6 +21435,9 @@
       <c r="M437" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R437" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S437" s="3" t="s">
         <v>22</v>
       </c>
@@ -20168,6 +21476,9 @@
       <c r="M438" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R438" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S438" s="3" t="s">
         <v>22</v>
       </c>
@@ -20206,6 +21517,9 @@
       <c r="M439" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R439" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S439" s="3" t="s">
         <v>22</v>
       </c>
@@ -20244,6 +21558,9 @@
       <c r="M440" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R440" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S440" s="3" t="s">
         <v>22</v>
       </c>
@@ -20282,6 +21599,9 @@
       <c r="M441" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R441" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S441" s="3" t="s">
         <v>22</v>
       </c>
@@ -20320,6 +21640,9 @@
       <c r="M442" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R442" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S442" s="3" t="s">
         <v>22</v>
       </c>
@@ -20358,6 +21681,9 @@
       <c r="M443" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R443" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S443" s="3" t="s">
         <v>22</v>
       </c>
@@ -20396,6 +21722,9 @@
       <c r="M444" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R444" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S444" s="3" t="s">
         <v>22</v>
       </c>
@@ -20434,6 +21763,9 @@
       <c r="M445" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R445" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S445" s="3" t="s">
         <v>22</v>
       </c>
@@ -20472,6 +21804,9 @@
       <c r="M446" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R446" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S446" s="3" t="s">
         <v>22</v>
       </c>
@@ -20510,6 +21845,9 @@
       <c r="M447" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R447" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S447" s="3" t="s">
         <v>22</v>
       </c>
@@ -20548,6 +21886,9 @@
       <c r="M448" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R448" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S448" s="3" t="s">
         <v>22</v>
       </c>
@@ -20586,6 +21927,9 @@
       <c r="M449" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R449" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S449" s="3" t="s">
         <v>22</v>
       </c>
@@ -20624,6 +21968,9 @@
       <c r="M450" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R450" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S450" s="3" t="s">
         <v>22</v>
       </c>
@@ -20662,6 +22009,9 @@
       <c r="M451" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R451" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S451" s="3" t="s">
         <v>22</v>
       </c>
@@ -20700,6 +22050,9 @@
       <c r="M452" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R452" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S452" s="3" t="s">
         <v>22</v>
       </c>
@@ -20738,6 +22091,9 @@
       <c r="M453" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R453" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S453" s="3" t="s">
         <v>22</v>
       </c>
@@ -20776,6 +22132,9 @@
       <c r="M454" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R454" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S454" s="3" t="s">
         <v>22</v>
       </c>
@@ -20814,6 +22173,9 @@
       <c r="M455" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R455" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S455" s="3" t="s">
         <v>22</v>
       </c>
@@ -20852,6 +22214,9 @@
       <c r="M456" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R456" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S456" s="3" t="s">
         <v>22</v>
       </c>
@@ -20890,6 +22255,9 @@
       <c r="M457" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R457" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S457" s="3" t="s">
         <v>22</v>
       </c>
@@ -20928,6 +22296,9 @@
       <c r="M458" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R458" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S458" s="3" t="s">
         <v>22</v>
       </c>
@@ -20966,6 +22337,9 @@
       <c r="M459" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R459" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S459" s="3" t="s">
         <v>22</v>
       </c>
@@ -21004,6 +22378,9 @@
       <c r="M460" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R460" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S460" s="3" t="s">
         <v>22</v>
       </c>
@@ -21042,6 +22419,9 @@
       <c r="M461" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R461" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S461" s="3" t="s">
         <v>22</v>
       </c>
@@ -21080,6 +22460,9 @@
       <c r="M462" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R462" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S462" s="3" t="s">
         <v>22</v>
       </c>
@@ -21118,6 +22501,9 @@
       <c r="M463" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R463" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S463" s="3" t="s">
         <v>22</v>
       </c>
@@ -21156,6 +22542,9 @@
       <c r="M464" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R464" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S464" s="3" t="s">
         <v>22</v>
       </c>
@@ -21194,6 +22583,9 @@
       <c r="M465" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R465" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S465" s="3" t="s">
         <v>22</v>
       </c>
@@ -21232,6 +22624,9 @@
       <c r="M466" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R466" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S466" s="3" t="s">
         <v>22</v>
       </c>
@@ -21270,6 +22665,9 @@
       <c r="M467" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R467" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S467" s="3" t="s">
         <v>22</v>
       </c>
@@ -21308,6 +22706,9 @@
       <c r="M468" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R468" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S468" s="3" t="s">
         <v>22</v>
       </c>
@@ -21346,6 +22747,9 @@
       <c r="M469" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R469" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S469" s="3" t="s">
         <v>22</v>
       </c>
@@ -21384,6 +22788,9 @@
       <c r="M470" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R470" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S470" s="3" t="s">
         <v>22</v>
       </c>
@@ -21422,6 +22829,9 @@
       <c r="M471" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R471" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S471" s="3" t="s">
         <v>22</v>
       </c>
@@ -21460,6 +22870,9 @@
       <c r="M472" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R472" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S472" s="3" t="s">
         <v>22</v>
       </c>
@@ -21498,6 +22911,9 @@
       <c r="M473" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R473" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S473" s="3" t="s">
         <v>22</v>
       </c>
@@ -21536,6 +22952,9 @@
       <c r="M474" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R474" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S474" s="3" t="s">
         <v>22</v>
       </c>
@@ -21574,6 +22993,9 @@
       <c r="M475" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R475" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S475" s="3" t="s">
         <v>22</v>
       </c>
@@ -21612,6 +23034,9 @@
       <c r="M476" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R476" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S476" s="3" t="s">
         <v>22</v>
       </c>
@@ -21650,6 +23075,9 @@
       <c r="M477" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R477" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S477" s="3" t="s">
         <v>22</v>
       </c>
@@ -21688,6 +23116,9 @@
       <c r="M478" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R478" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S478" s="3" t="s">
         <v>22</v>
       </c>
@@ -21726,6 +23157,9 @@
       <c r="M479" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R479" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S479" s="3" t="s">
         <v>22</v>
       </c>
@@ -21764,6 +23198,9 @@
       <c r="M480" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R480" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S480" s="3" t="s">
         <v>22</v>
       </c>
@@ -21802,6 +23239,9 @@
       <c r="M481" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R481" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S481" s="3" t="s">
         <v>22</v>
       </c>
@@ -21840,6 +23280,9 @@
       <c r="M482" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R482" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S482" s="3" t="s">
         <v>22</v>
       </c>
@@ -21878,6 +23321,9 @@
       <c r="M483" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R483" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S483" s="3" t="s">
         <v>22</v>
       </c>
@@ -21916,6 +23362,9 @@
       <c r="M484" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R484" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S484" s="3" t="s">
         <v>22</v>
       </c>
@@ -21954,6 +23403,9 @@
       <c r="M485" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R485" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S485" s="3" t="s">
         <v>22</v>
       </c>
@@ -21992,6 +23444,9 @@
       <c r="M486" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R486" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S486" s="3" t="s">
         <v>22</v>
       </c>
@@ -22030,6 +23485,9 @@
       <c r="M487" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R487" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S487" s="3" t="s">
         <v>22</v>
       </c>
@@ -22068,6 +23526,9 @@
       <c r="M488" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R488" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S488" s="3" t="s">
         <v>22</v>
       </c>
@@ -22112,6 +23573,9 @@
       <c r="M489" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R489" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S489" s="3" t="s">
         <v>22</v>
       </c>
@@ -22156,6 +23620,9 @@
       <c r="M490" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R490" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S490" s="3" t="s">
         <v>22</v>
       </c>
@@ -22200,6 +23667,9 @@
       <c r="M491" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R491" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S491" s="3" t="s">
         <v>22</v>
       </c>
@@ -22244,6 +23714,9 @@
       <c r="M492" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R492" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S492" s="3" t="s">
         <v>22</v>
       </c>
@@ -22288,6 +23761,9 @@
       <c r="M493" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R493" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S493" s="3" t="s">
         <v>22</v>
       </c>
@@ -22332,6 +23808,9 @@
       <c r="M494" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R494" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S494" s="3" t="s">
         <v>22</v>
       </c>
@@ -22376,6 +23855,9 @@
       <c r="M495" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R495" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S495" s="3" t="s">
         <v>22</v>
       </c>
@@ -22420,6 +23902,9 @@
       <c r="M496" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R496" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S496" s="3" t="s">
         <v>22</v>
       </c>
@@ -22464,6 +23949,9 @@
       <c r="M497" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R497" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S497" s="3" t="s">
         <v>22</v>
       </c>
@@ -22508,6 +23996,9 @@
       <c r="M498" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R498" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S498" s="3" t="s">
         <v>22</v>
       </c>
@@ -22552,6 +24043,9 @@
       <c r="M499" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R499" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S499" s="3" t="s">
         <v>22</v>
       </c>
@@ -22596,6 +24090,9 @@
       <c r="M500" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R500" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S500" s="3" t="s">
         <v>22</v>
       </c>
@@ -22640,6 +24137,9 @@
       <c r="M501" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R501" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S501" s="3" t="s">
         <v>22</v>
       </c>
@@ -22684,6 +24184,9 @@
       <c r="M502" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R502" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S502" s="3" t="s">
         <v>22</v>
       </c>
@@ -22728,6 +24231,9 @@
       <c r="M503" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R503" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S503" s="3" t="s">
         <v>22</v>
       </c>
@@ -22772,6 +24278,9 @@
       <c r="M504" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R504" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S504" s="3" t="s">
         <v>22</v>
       </c>
@@ -22816,6 +24325,9 @@
       <c r="M505" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R505" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S505" s="3" t="s">
         <v>22</v>
       </c>
@@ -22860,6 +24372,9 @@
       <c r="M506" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R506" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S506" s="3" t="s">
         <v>22</v>
       </c>
@@ -22904,6 +24419,9 @@
       <c r="M507" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R507" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S507" s="3" t="s">
         <v>22</v>
       </c>
@@ -22948,6 +24466,9 @@
       <c r="M508" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R508" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S508" s="3" t="s">
         <v>22</v>
       </c>
@@ -22992,6 +24513,9 @@
       <c r="M509" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R509" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S509" s="3" t="s">
         <v>22</v>
       </c>
@@ -23036,6 +24560,9 @@
       <c r="M510" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R510" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S510" s="3" t="s">
         <v>22</v>
       </c>
@@ -23080,6 +24607,9 @@
       <c r="M511" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R511" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S511" s="3" t="s">
         <v>22</v>
       </c>
@@ -23124,6 +24654,9 @@
       <c r="M512" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R512" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S512" s="3" t="s">
         <v>22</v>
       </c>
@@ -23168,6 +24701,9 @@
       <c r="M513" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R513" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S513" s="3" t="s">
         <v>22</v>
       </c>
@@ -23212,6 +24748,9 @@
       <c r="M514" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R514" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S514" s="3" t="s">
         <v>22</v>
       </c>
@@ -23256,6 +24795,9 @@
       <c r="M515" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R515" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S515" s="3" t="s">
         <v>22</v>
       </c>
@@ -23299,6 +24841,9 @@
       </c>
       <c r="M516" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="R516" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S516" s="3" t="s">
         <v>22</v>
@@ -23338,6 +24883,9 @@
       <c r="M517" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R517" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S517" s="3" t="s">
         <v>22</v>
       </c>
@@ -23376,6 +24924,9 @@
       <c r="M518" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R518" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S518" s="3" t="s">
         <v>22</v>
       </c>
@@ -23414,6 +24965,9 @@
       <c r="M519" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R519" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S519" s="3" t="s">
         <v>22</v>
       </c>
@@ -23452,6 +25006,9 @@
       <c r="M520" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R520" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S520" s="3" t="s">
         <v>22</v>
       </c>
@@ -23490,6 +25047,9 @@
       <c r="M521" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R521" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S521" s="3" t="s">
         <v>22</v>
       </c>
@@ -23528,6 +25088,9 @@
       <c r="M522" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R522" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S522" s="3" t="s">
         <v>22</v>
       </c>
@@ -23566,6 +25129,9 @@
       <c r="M523" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R523" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S523" s="3" t="s">
         <v>22</v>
       </c>
@@ -23604,6 +25170,9 @@
       <c r="M524" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R524" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S524" s="3" t="s">
         <v>22</v>
       </c>
@@ -23642,6 +25211,9 @@
       <c r="M525" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R525" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S525" s="3" t="s">
         <v>22</v>
       </c>
@@ -23680,6 +25252,9 @@
       <c r="M526" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R526" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S526" s="3" t="s">
         <v>22</v>
       </c>
@@ -23718,6 +25293,9 @@
       <c r="M527" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R527" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S527" s="3" t="s">
         <v>22</v>
       </c>
@@ -23756,6 +25334,9 @@
       <c r="M528" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R528" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S528" s="3" t="s">
         <v>22</v>
       </c>
@@ -23794,6 +25375,9 @@
       <c r="M529" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R529" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S529" s="3" t="s">
         <v>22</v>
       </c>
@@ -23832,6 +25416,9 @@
       <c r="M530" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R530" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S530" s="3" t="s">
         <v>22</v>
       </c>
@@ -23870,6 +25457,9 @@
       <c r="M531" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R531" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S531" s="3" t="s">
         <v>22</v>
       </c>
@@ -23908,6 +25498,9 @@
       <c r="M532" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R532" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S532" s="3" t="s">
         <v>22</v>
       </c>
@@ -23946,6 +25539,9 @@
       <c r="M533" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R533" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S533" s="3" t="s">
         <v>22</v>
       </c>
@@ -23984,6 +25580,9 @@
       <c r="M534" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R534" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S534" s="3" t="s">
         <v>22</v>
       </c>
@@ -24022,6 +25621,9 @@
       <c r="M535" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R535" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S535" s="3" t="s">
         <v>22</v>
       </c>
@@ -24060,6 +25662,9 @@
       <c r="M536" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R536" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S536" s="3" t="s">
         <v>22</v>
       </c>
@@ -24098,6 +25703,9 @@
       <c r="M537" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R537" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S537" s="3" t="s">
         <v>22</v>
       </c>
@@ -24136,6 +25744,9 @@
       <c r="M538" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R538" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S538" s="3" t="s">
         <v>22</v>
       </c>
@@ -24174,6 +25785,9 @@
       <c r="M539" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R539" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S539" s="3" t="s">
         <v>22</v>
       </c>
@@ -24212,6 +25826,9 @@
       <c r="M540" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R540" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S540" s="3" t="s">
         <v>22</v>
       </c>
@@ -24250,6 +25867,9 @@
       <c r="M541" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R541" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S541" s="3" t="s">
         <v>22</v>
       </c>
@@ -24288,6 +25908,9 @@
       <c r="M542" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R542" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S542" s="3" t="s">
         <v>22</v>
       </c>
@@ -24326,6 +25949,9 @@
       <c r="M543" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R543" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S543" s="3" t="s">
         <v>22</v>
       </c>
@@ -24364,6 +25990,9 @@
       <c r="M544" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R544" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S544" s="3" t="s">
         <v>22</v>
       </c>
@@ -24402,6 +26031,9 @@
       <c r="M545" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R545" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S545" s="3" t="s">
         <v>22</v>
       </c>
@@ -24440,6 +26072,9 @@
       <c r="M546" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R546" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S546" s="3" t="s">
         <v>22</v>
       </c>
@@ -24478,6 +26113,9 @@
       <c r="M547" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R547" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S547" s="3" t="s">
         <v>22</v>
       </c>
@@ -24516,6 +26154,9 @@
       <c r="M548" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R548" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S548" s="3" t="s">
         <v>22</v>
       </c>
@@ -24554,6 +26195,9 @@
       <c r="M549" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R549" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S549" s="3" t="s">
         <v>22</v>
       </c>
@@ -24592,6 +26236,9 @@
       <c r="M550" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R550" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S550" s="3" t="s">
         <v>22</v>
       </c>
@@ -24630,6 +26277,9 @@
       <c r="M551" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R551" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S551" s="3" t="s">
         <v>22</v>
       </c>
@@ -24668,6 +26318,9 @@
       <c r="M552" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R552" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S552" s="3" t="s">
         <v>22</v>
       </c>
@@ -24706,6 +26359,9 @@
       <c r="M553" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R553" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S553" s="3" t="s">
         <v>22</v>
       </c>
@@ -24744,6 +26400,9 @@
       <c r="M554" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R554" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S554" s="3" t="s">
         <v>22</v>
       </c>
@@ -24782,6 +26441,9 @@
       <c r="M555" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R555" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S555" s="3" t="s">
         <v>22</v>
       </c>
@@ -24820,6 +26482,9 @@
       <c r="M556" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R556" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S556" s="3" t="s">
         <v>22</v>
       </c>
@@ -24858,6 +26523,9 @@
       <c r="M557" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R557" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S557" s="3" t="s">
         <v>22</v>
       </c>
@@ -24896,6 +26564,9 @@
       <c r="M558" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R558" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S558" s="3" t="s">
         <v>22</v>
       </c>
@@ -24934,6 +26605,9 @@
       <c r="M559" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R559" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S559" s="3" t="s">
         <v>22</v>
       </c>
@@ -24972,6 +26646,9 @@
       <c r="M560" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R560" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S560" s="3" t="s">
         <v>22</v>
       </c>
@@ -25010,6 +26687,9 @@
       <c r="M561" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R561" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S561" s="3" t="s">
         <v>22</v>
       </c>
@@ -25048,6 +26728,9 @@
       <c r="M562" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R562" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S562" s="3" t="s">
         <v>22</v>
       </c>
@@ -25086,6 +26769,9 @@
       <c r="M563" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R563" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S563" s="3" t="s">
         <v>22</v>
       </c>
@@ -25124,6 +26810,9 @@
       <c r="M564" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R564" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S564" s="3" t="s">
         <v>22</v>
       </c>
@@ -25162,6 +26851,9 @@
       <c r="M565" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R565" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S565" s="3" t="s">
         <v>22</v>
       </c>
@@ -25200,6 +26892,9 @@
       <c r="M566" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R566" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S566" s="3" t="s">
         <v>22</v>
       </c>
@@ -25238,6 +26933,9 @@
       <c r="M567" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R567" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S567" s="3" t="s">
         <v>22</v>
       </c>
@@ -25276,6 +26974,9 @@
       <c r="M568" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R568" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S568" s="3" t="s">
         <v>22</v>
       </c>
@@ -25314,6 +27015,9 @@
       <c r="M569" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R569" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S569" s="3" t="s">
         <v>22</v>
       </c>
@@ -25352,6 +27056,9 @@
       <c r="M570" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R570" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S570" s="3" t="s">
         <v>22</v>
       </c>
@@ -25390,6 +27097,9 @@
       <c r="M571" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R571" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S571" s="3" t="s">
         <v>22</v>
       </c>
@@ -25428,6 +27138,9 @@
       <c r="M572" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R572" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S572" s="3" t="s">
         <v>22</v>
       </c>
@@ -25466,6 +27179,9 @@
       <c r="M573" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R573" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S573" s="3" t="s">
         <v>22</v>
       </c>
@@ -25504,6 +27220,9 @@
       <c r="M574" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R574" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S574" s="3" t="s">
         <v>22</v>
       </c>
@@ -25542,6 +27261,9 @@
       <c r="M575" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R575" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S575" s="3" t="s">
         <v>22</v>
       </c>
@@ -25580,6 +27302,9 @@
       <c r="M576" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R576" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S576" s="3" t="s">
         <v>22</v>
       </c>
@@ -25618,6 +27343,9 @@
       <c r="M577" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R577" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S577" s="3" t="s">
         <v>22</v>
       </c>
@@ -25656,6 +27384,9 @@
       <c r="M578" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R578" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S578" s="3" t="s">
         <v>22</v>
       </c>
@@ -25694,6 +27425,9 @@
       <c r="M579" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R579" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S579" s="3" t="s">
         <v>22</v>
       </c>
@@ -25732,6 +27466,9 @@
       <c r="M580" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R580" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S580" s="3" t="s">
         <v>22</v>
       </c>
@@ -25770,6 +27507,9 @@
       <c r="M581" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R581" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S581" s="3" t="s">
         <v>22</v>
       </c>
@@ -25808,6 +27548,9 @@
       <c r="M582" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R582" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S582" s="3" t="s">
         <v>22</v>
       </c>
@@ -25846,6 +27589,9 @@
       <c r="M583" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R583" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S583" s="3" t="s">
         <v>22</v>
       </c>
@@ -25884,6 +27630,9 @@
       <c r="M584" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R584" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S584" s="3" t="s">
         <v>22</v>
       </c>
@@ -25922,6 +27671,9 @@
       <c r="M585" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R585" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S585" s="3" t="s">
         <v>22</v>
       </c>
@@ -25960,6 +27712,9 @@
       <c r="M586" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R586" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S586" s="3" t="s">
         <v>22</v>
       </c>
@@ -25998,6 +27753,9 @@
       <c r="M587" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R587" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S587" s="3" t="s">
         <v>22</v>
       </c>
@@ -26036,6 +27794,9 @@
       <c r="M588" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R588" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S588" s="3" t="s">
         <v>22</v>
       </c>
@@ -26074,6 +27835,9 @@
       <c r="M589" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R589" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S589" s="3" t="s">
         <v>22</v>
       </c>
@@ -26112,6 +27876,9 @@
       <c r="M590" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R590" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S590" s="3" t="s">
         <v>22</v>
       </c>
@@ -26150,6 +27917,9 @@
       <c r="M591" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R591" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S591" s="3" t="s">
         <v>22</v>
       </c>
@@ -26188,6 +27958,9 @@
       <c r="M592" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R592" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S592" s="3" t="s">
         <v>22</v>
       </c>
@@ -26226,6 +27999,9 @@
       <c r="M593" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R593" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S593" s="3" t="s">
         <v>22</v>
       </c>
@@ -26264,6 +28040,9 @@
       <c r="M594" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R594" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S594" s="3" t="s">
         <v>22</v>
       </c>
@@ -26302,6 +28081,9 @@
       <c r="M595" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R595" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S595" s="3" t="s">
         <v>22</v>
       </c>
@@ -26340,6 +28122,9 @@
       <c r="M596" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R596" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S596" s="3" t="s">
         <v>22</v>
       </c>
@@ -26378,6 +28163,9 @@
       <c r="M597" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R597" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S597" s="3" t="s">
         <v>22</v>
       </c>
@@ -26416,6 +28204,9 @@
       <c r="M598" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R598" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S598" s="3" t="s">
         <v>22</v>
       </c>
@@ -26454,6 +28245,9 @@
       <c r="M599" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R599" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S599" s="3" t="s">
         <v>22</v>
       </c>
@@ -26492,6 +28286,9 @@
       <c r="M600" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R600" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S600" s="3" t="s">
         <v>22</v>
       </c>
@@ -26530,6 +28327,9 @@
       <c r="M601" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R601" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S601" s="3" t="s">
         <v>22</v>
       </c>
@@ -26568,6 +28368,9 @@
       <c r="M602" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R602" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S602" s="3" t="s">
         <v>22</v>
       </c>
@@ -26606,6 +28409,9 @@
       <c r="M603" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R603" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S603" s="3" t="s">
         <v>22</v>
       </c>
@@ -26644,6 +28450,9 @@
       <c r="M604" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R604" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S604" s="3" t="s">
         <v>22</v>
       </c>
@@ -26682,6 +28491,9 @@
       <c r="M605" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R605" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S605" s="3" t="s">
         <v>22</v>
       </c>
@@ -26720,6 +28532,9 @@
       <c r="M606" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R606" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S606" s="3" t="s">
         <v>22</v>
       </c>
@@ -26758,6 +28573,9 @@
       <c r="M607" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R607" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S607" s="3" t="s">
         <v>22</v>
       </c>
@@ -26796,6 +28614,9 @@
       <c r="M608" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R608" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S608" s="3" t="s">
         <v>22</v>
       </c>
@@ -26834,6 +28655,9 @@
       <c r="M609" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R609" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S609" s="3" t="s">
         <v>22</v>
       </c>
@@ -26872,6 +28696,9 @@
       <c r="M610" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R610" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S610" s="3" t="s">
         <v>22</v>
       </c>
@@ -26910,6 +28737,9 @@
       <c r="M611" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R611" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S611" s="3" t="s">
         <v>22</v>
       </c>
@@ -26948,6 +28778,9 @@
       <c r="M612" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R612" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S612" s="3" t="s">
         <v>22</v>
       </c>
@@ -26986,6 +28819,9 @@
       <c r="M613" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R613" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S613" s="3" t="s">
         <v>22</v>
       </c>
@@ -27024,6 +28860,9 @@
       <c r="M614" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R614" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S614" s="3" t="s">
         <v>22</v>
       </c>
@@ -27062,6 +28901,9 @@
       <c r="M615" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R615" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S615" s="3" t="s">
         <v>22</v>
       </c>
@@ -27100,6 +28942,9 @@
       <c r="M616" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R616" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S616" s="3" t="s">
         <v>22</v>
       </c>
@@ -27138,6 +28983,9 @@
       <c r="M617" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R617" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S617" s="3" t="s">
         <v>22</v>
       </c>
@@ -27176,6 +29024,9 @@
       <c r="M618" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R618" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S618" s="3" t="s">
         <v>22</v>
       </c>
@@ -27214,6 +29065,9 @@
       <c r="M619" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R619" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S619" s="3" t="s">
         <v>22</v>
       </c>
@@ -27252,6 +29106,9 @@
       <c r="M620" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R620" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S620" s="3" t="s">
         <v>22</v>
       </c>
@@ -27290,6 +29147,9 @@
       <c r="M621" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R621" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S621" s="3" t="s">
         <v>22</v>
       </c>
@@ -27328,6 +29188,9 @@
       <c r="M622" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R622" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S622" s="3" t="s">
         <v>22</v>
       </c>
@@ -27366,6 +29229,9 @@
       <c r="M623" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R623" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S623" s="3" t="s">
         <v>22</v>
       </c>
@@ -27404,6 +29270,9 @@
       <c r="M624" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R624" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S624" s="3" t="s">
         <v>22</v>
       </c>
@@ -27442,6 +29311,9 @@
       <c r="M625" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R625" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S625" s="3" t="s">
         <v>22</v>
       </c>
@@ -27480,6 +29352,9 @@
       <c r="M626" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R626" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S626" s="3" t="s">
         <v>22</v>
       </c>
@@ -27518,6 +29393,9 @@
       <c r="M627" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R627" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S627" s="3" t="s">
         <v>22</v>
       </c>
@@ -27556,6 +29434,9 @@
       <c r="M628" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R628" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S628" s="3" t="s">
         <v>22</v>
       </c>
@@ -27594,6 +29475,9 @@
       <c r="M629" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R629" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S629" s="3" t="s">
         <v>22</v>
       </c>
@@ -27632,6 +29516,9 @@
       <c r="M630" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R630" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S630" s="3" t="s">
         <v>22</v>
       </c>
@@ -27670,6 +29557,9 @@
       <c r="M631" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R631" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S631" s="3" t="s">
         <v>22</v>
       </c>
@@ -27708,6 +29598,9 @@
       <c r="M632" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R632" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S632" s="3" t="s">
         <v>22</v>
       </c>
@@ -27746,6 +29639,9 @@
       <c r="M633" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R633" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S633" s="3" t="s">
         <v>22</v>
       </c>
@@ -27784,6 +29680,9 @@
       <c r="M634" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R634" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S634" s="3" t="s">
         <v>22</v>
       </c>
@@ -27822,6 +29721,9 @@
       <c r="M635" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R635" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S635" s="3" t="s">
         <v>22</v>
       </c>
@@ -27860,6 +29762,9 @@
       <c r="M636" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R636" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S636" s="3" t="s">
         <v>22</v>
       </c>
@@ -27898,6 +29803,9 @@
       <c r="M637" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R637" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S637" s="3" t="s">
         <v>22</v>
       </c>
@@ -27936,6 +29844,9 @@
       <c r="M638" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R638" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S638" s="3" t="s">
         <v>22</v>
       </c>
@@ -27974,6 +29885,9 @@
       <c r="M639" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R639" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S639" s="3" t="s">
         <v>22</v>
       </c>
@@ -28012,6 +29926,9 @@
       <c r="M640" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R640" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S640" s="3" t="s">
         <v>22</v>
       </c>
@@ -28050,6 +29967,9 @@
       <c r="M641" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R641" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S641" s="3" t="s">
         <v>22</v>
       </c>
@@ -28088,6 +30008,9 @@
       <c r="M642" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R642" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S642" s="3" t="s">
         <v>22</v>
       </c>
@@ -28144,6 +30067,9 @@
       <c r="Q643" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R643" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S643" s="3" t="s">
         <v>22</v>
       </c>
@@ -28200,6 +30126,9 @@
       <c r="Q644" s="3" t="s">
         <v>654</v>
       </c>
+      <c r="R644" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S644" s="3" t="s">
         <v>22</v>
       </c>
@@ -28256,6 +30185,9 @@
       <c r="Q645" s="3" t="s">
         <v>657</v>
       </c>
+      <c r="R645" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S645" s="3" t="s">
         <v>22</v>
       </c>
@@ -28311,6 +30243,9 @@
       </c>
       <c r="Q646" s="3" t="s">
         <v>660</v>
+      </c>
+      <c r="R646" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S646" s="3" t="s">
         <v>22</v>
@@ -28350,6 +30285,9 @@
       <c r="M647" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R647" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S647" s="3" t="s">
         <v>22</v>
       </c>
@@ -28388,6 +30326,9 @@
       <c r="M648" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R648" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S648" s="3" t="s">
         <v>22</v>
       </c>
@@ -28426,6 +30367,9 @@
       <c r="M649" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R649" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S649" s="3" t="s">
         <v>22</v>
       </c>
@@ -28464,6 +30408,9 @@
       <c r="M650" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R650" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S650" s="3" t="s">
         <v>22</v>
       </c>
@@ -28502,6 +30449,9 @@
       <c r="M651" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R651" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S651" s="3" t="s">
         <v>22</v>
       </c>
@@ -28540,6 +30490,9 @@
       <c r="M652" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R652" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S652" s="3" t="s">
         <v>22</v>
       </c>
@@ -28578,6 +30531,9 @@
       <c r="M653" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R653" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S653" s="3" t="s">
         <v>22</v>
       </c>
@@ -28616,6 +30572,9 @@
       <c r="M654" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R654" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S654" s="3" t="s">
         <v>22</v>
       </c>
@@ -28654,6 +30613,9 @@
       <c r="M655" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R655" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S655" s="3" t="s">
         <v>22</v>
       </c>
@@ -28692,6 +30654,9 @@
       <c r="M656" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R656" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S656" s="3" t="s">
         <v>22</v>
       </c>
@@ -28736,6 +30701,9 @@
       <c r="M657" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R657" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S657" s="3" t="s">
         <v>22</v>
       </c>
@@ -28780,6 +30748,9 @@
       <c r="M658" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R658" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S658" s="3" t="s">
         <v>22</v>
       </c>
@@ -28824,6 +30795,9 @@
       <c r="M659" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R659" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S659" s="3" t="s">
         <v>22</v>
       </c>
@@ -28868,6 +30842,9 @@
       <c r="M660" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R660" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S660" s="3" t="s">
         <v>22</v>
       </c>
@@ -28912,6 +30889,9 @@
       <c r="M661" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R661" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S661" s="3" t="s">
         <v>22</v>
       </c>
@@ -28956,6 +30936,9 @@
       <c r="M662" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R662" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S662" s="3" t="s">
         <v>22</v>
       </c>
@@ -29000,6 +30983,9 @@
       <c r="M663" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R663" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S663" s="3" t="s">
         <v>22</v>
       </c>
@@ -29044,6 +31030,9 @@
       <c r="M664" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R664" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S664" s="3" t="s">
         <v>22</v>
       </c>
@@ -29088,6 +31077,9 @@
       <c r="M665" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R665" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S665" s="3" t="s">
         <v>22</v>
       </c>
@@ -29132,6 +31124,9 @@
       <c r="M666" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R666" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S666" s="3" t="s">
         <v>22</v>
       </c>
@@ -29176,6 +31171,9 @@
       <c r="M667" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R667" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S667" s="3" t="s">
         <v>22</v>
       </c>
@@ -29220,6 +31218,9 @@
       <c r="M668" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R668" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S668" s="3" t="s">
         <v>22</v>
       </c>
@@ -29263,6 +31264,9 @@
       </c>
       <c r="M669" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="R669" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S669" s="3" t="s">
         <v>22</v>
@@ -29302,6 +31306,9 @@
       <c r="M670" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R670" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S670" s="3" t="s">
         <v>22</v>
       </c>
@@ -29340,6 +31347,9 @@
       <c r="M671" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R671" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S671" s="3" t="s">
         <v>22</v>
       </c>
@@ -29378,6 +31388,9 @@
       <c r="M672" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R672" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S672" s="3" t="s">
         <v>22</v>
       </c>
@@ -29422,6 +31435,9 @@
       <c r="M673" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R673" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S673" s="3" t="s">
         <v>22</v>
       </c>
@@ -29466,6 +31482,9 @@
       <c r="M674" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R674" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S674" s="3" t="s">
         <v>22</v>
       </c>
@@ -29510,6 +31529,9 @@
       <c r="M675" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R675" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S675" s="3" t="s">
         <v>22</v>
       </c>
@@ -29554,6 +31576,9 @@
       <c r="M676" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R676" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S676" s="3" t="s">
         <v>22</v>
       </c>
@@ -29598,6 +31623,9 @@
       <c r="M677" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R677" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S677" s="3" t="s">
         <v>22</v>
       </c>
@@ -29642,6 +31670,9 @@
       <c r="M678" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R678" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S678" s="3" t="s">
         <v>22</v>
       </c>
@@ -29686,6 +31717,9 @@
       <c r="M679" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R679" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S679" s="3" t="s">
         <v>22</v>
       </c>
@@ -29730,6 +31764,9 @@
       <c r="M680" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R680" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S680" s="3" t="s">
         <v>22</v>
       </c>
@@ -29774,6 +31811,9 @@
       <c r="M681" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R681" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S681" s="3" t="s">
         <v>22</v>
       </c>
@@ -29818,6 +31858,9 @@
       <c r="M682" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R682" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S682" s="3" t="s">
         <v>22</v>
       </c>
@@ -29862,6 +31905,9 @@
       <c r="M683" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R683" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S683" s="3" t="s">
         <v>22</v>
       </c>
@@ -29906,6 +31952,9 @@
       <c r="M684" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R684" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S684" s="3" t="s">
         <v>22</v>
       </c>
@@ -29950,6 +31999,9 @@
       <c r="M685" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R685" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S685" s="3" t="s">
         <v>22</v>
       </c>
@@ -29994,6 +32046,9 @@
       <c r="M686" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R686" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S686" s="3" t="s">
         <v>22</v>
       </c>
@@ -30038,6 +32093,9 @@
       <c r="M687" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R687" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S687" s="3" t="s">
         <v>22</v>
       </c>
@@ -30082,6 +32140,9 @@
       <c r="M688" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R688" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S688" s="3" t="s">
         <v>22</v>
       </c>
@@ -30126,6 +32187,9 @@
       <c r="M689" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R689" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S689" s="3" t="s">
         <v>22</v>
       </c>
@@ -30170,6 +32234,9 @@
       <c r="M690" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R690" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S690" s="3" t="s">
         <v>22</v>
       </c>
@@ -30214,6 +32281,9 @@
       <c r="M691" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R691" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S691" s="3" t="s">
         <v>22</v>
       </c>
@@ -30258,6 +32328,9 @@
       <c r="M692" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R692" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S692" s="3" t="s">
         <v>22</v>
       </c>
@@ -30302,6 +32375,9 @@
       <c r="M693" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R693" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S693" s="3" t="s">
         <v>22</v>
       </c>
@@ -30346,6 +32422,9 @@
       <c r="M694" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R694" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S694" s="3" t="s">
         <v>22</v>
       </c>
@@ -30390,6 +32469,9 @@
       <c r="M695" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R695" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S695" s="3" t="s">
         <v>22</v>
       </c>
@@ -30433,6 +32515,9 @@
       </c>
       <c r="M696" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="R696" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S696" s="3" t="s">
         <v>22</v>
@@ -30472,6 +32557,9 @@
       <c r="M697" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R697" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S697" s="3" t="s">
         <v>22</v>
       </c>
@@ -30510,6 +32598,9 @@
       <c r="M698" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R698" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S698" s="3" t="s">
         <v>22</v>
       </c>
@@ -30548,6 +32639,9 @@
       <c r="M699" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R699" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S699" s="3" t="s">
         <v>22</v>
       </c>
@@ -30604,6 +32698,9 @@
       <c r="Q700" s="3" t="s">
         <v>708</v>
       </c>
+      <c r="R700" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S700" s="3" t="s">
         <v>22</v>
       </c>
@@ -30659,6 +32756,9 @@
       </c>
       <c r="Q701" s="3" t="s">
         <v>708</v>
+      </c>
+      <c r="R701" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S701" s="3" t="s">
         <v>22</v>
@@ -30698,6 +32798,9 @@
       <c r="M702" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R702" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S702" s="3" t="s">
         <v>22</v>
       </c>
@@ -30736,6 +32839,9 @@
       <c r="M703" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R703" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S703" s="3" t="s">
         <v>22</v>
       </c>
@@ -30774,6 +32880,9 @@
       <c r="M704" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R704" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S704" s="3" t="s">
         <v>22</v>
       </c>
@@ -30812,6 +32921,9 @@
       <c r="M705" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R705" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S705" s="3" t="s">
         <v>22</v>
       </c>
@@ -30850,6 +32962,9 @@
       <c r="M706" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R706" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S706" s="3" t="s">
         <v>22</v>
       </c>
@@ -30894,6 +33009,9 @@
       <c r="M707" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R707" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S707" s="3" t="s">
         <v>22</v>
       </c>
@@ -30938,6 +33056,9 @@
       <c r="M708" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R708" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S708" s="3" t="s">
         <v>22</v>
       </c>
@@ -30982,6 +33103,9 @@
       <c r="M709" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R709" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S709" s="3" t="s">
         <v>22</v>
       </c>
@@ -31026,6 +33150,9 @@
       <c r="M710" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R710" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S710" s="3" t="s">
         <v>22</v>
       </c>
@@ -31070,6 +33197,9 @@
       <c r="M711" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R711" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S711" s="3" t="s">
         <v>22</v>
       </c>
@@ -31114,6 +33244,9 @@
       <c r="M712" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R712" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S712" s="3" t="s">
         <v>22</v>
       </c>
@@ -31158,6 +33291,9 @@
       <c r="M713" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R713" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S713" s="3" t="s">
         <v>22</v>
       </c>
@@ -31202,6 +33338,9 @@
       <c r="M714" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R714" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S714" s="3" t="s">
         <v>22</v>
       </c>
@@ -31245,6 +33384,9 @@
       </c>
       <c r="M715" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="R715" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S715" s="3" t="s">
         <v>22</v>
@@ -31284,6 +33426,9 @@
       <c r="M716" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R716" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S716" s="3" t="s">
         <v>22</v>
       </c>
@@ -31322,6 +33467,9 @@
       <c r="M717" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R717" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S717" s="3" t="s">
         <v>22</v>
       </c>
@@ -31366,6 +33514,9 @@
       <c r="M718" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R718" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S718" s="3" t="s">
         <v>22</v>
       </c>
@@ -31410,6 +33561,9 @@
       <c r="M719" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R719" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S719" s="3" t="s">
         <v>22</v>
       </c>
@@ -31454,6 +33608,9 @@
       <c r="M720" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R720" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S720" s="3" t="s">
         <v>22</v>
       </c>
@@ -31497,6 +33654,9 @@
       </c>
       <c r="M721" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="R721" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S721" s="3" t="s">
         <v>22</v>
@@ -31536,6 +33696,9 @@
       <c r="M722" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R722" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S722" s="3" t="s">
         <v>22</v>
       </c>
@@ -31574,6 +33737,9 @@
       <c r="M723" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R723" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S723" s="3" t="s">
         <v>22</v>
       </c>
@@ -31618,6 +33784,9 @@
       <c r="M724" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R724" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S724" s="3" t="s">
         <v>22</v>
       </c>
@@ -31662,6 +33831,9 @@
       <c r="M725" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R725" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S725" s="3" t="s">
         <v>22</v>
       </c>
@@ -31706,6 +33878,9 @@
       <c r="M726" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R726" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S726" s="3" t="s">
         <v>22</v>
       </c>
@@ -31750,6 +33925,9 @@
       <c r="M727" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R727" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S727" s="3" t="s">
         <v>22</v>
       </c>
@@ -31794,6 +33972,9 @@
       <c r="M728" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R728" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S728" s="3" t="s">
         <v>22</v>
       </c>
@@ -31838,6 +34019,9 @@
       <c r="M729" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R729" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S729" s="3" t="s">
         <v>22</v>
       </c>
@@ -31882,6 +34066,9 @@
       <c r="M730" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R730" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S730" s="3" t="s">
         <v>22</v>
       </c>
@@ -31925,6 +34112,9 @@
       </c>
       <c r="M731" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="R731" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S731" s="3" t="s">
         <v>22</v>
@@ -31964,6 +34154,9 @@
       <c r="M732" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R732" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S732" s="3" t="s">
         <v>22</v>
       </c>
@@ -32008,6 +34201,9 @@
       <c r="M733" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R733" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S733" s="3" t="s">
         <v>22</v>
       </c>
@@ -32051,6 +34247,9 @@
       </c>
       <c r="M734" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="R734" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S734" s="3" t="s">
         <v>22</v>
@@ -32090,6 +34289,9 @@
       <c r="M735" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R735" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S735" s="3" t="s">
         <v>22</v>
       </c>
@@ -32128,6 +34330,9 @@
       <c r="M736" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R736" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S736" s="3" t="s">
         <v>22</v>
       </c>
@@ -32166,6 +34371,9 @@
       <c r="M737" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R737" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S737" s="3" t="s">
         <v>22</v>
       </c>
@@ -32204,6 +34412,9 @@
       <c r="M738" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R738" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S738" s="3" t="s">
         <v>22</v>
       </c>
@@ -32242,6 +34453,9 @@
       <c r="M739" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R739" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S739" s="3" t="s">
         <v>22</v>
       </c>
@@ -32280,6 +34494,9 @@
       <c r="M740" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R740" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S740" s="3" t="s">
         <v>22</v>
       </c>
@@ -32318,6 +34535,9 @@
       <c r="M741" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R741" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S741" s="3" t="s">
         <v>22</v>
       </c>
@@ -32374,6 +34594,9 @@
       <c r="Q742" s="3" t="s">
         <v>753</v>
       </c>
+      <c r="R742" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S742" s="3" t="s">
         <v>22</v>
       </c>
@@ -32418,6 +34641,9 @@
       <c r="M743" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R743" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S743" s="3" t="s">
         <v>22</v>
       </c>
@@ -32462,6 +34688,9 @@
       <c r="M744" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R744" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S744" s="3" t="s">
         <v>22</v>
       </c>
@@ -32509,6 +34738,9 @@
       <c r="N745" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="R745" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S745" s="3" t="s">
         <v>22</v>
       </c>
@@ -32556,6 +34788,9 @@
       <c r="N746" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="R746" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S746" s="3" t="s">
         <v>22</v>
       </c>
@@ -32603,6 +34838,9 @@
       <c r="N747" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="R747" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S747" s="3" t="s">
         <v>22</v>
       </c>
@@ -32659,6 +34897,9 @@
       <c r="Q748" s="3" t="s">
         <v>763</v>
       </c>
+      <c r="R748" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S748" s="3" t="s">
         <v>22</v>
       </c>
@@ -32706,6 +34947,9 @@
       <c r="N749" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="R749" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S749" s="3" t="s">
         <v>22</v>
       </c>
@@ -32753,6 +34997,9 @@
       <c r="N750" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="R750" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S750" s="3" t="s">
         <v>22</v>
       </c>
@@ -32809,6 +35056,9 @@
       <c r="Q751" s="3" t="s">
         <v>446</v>
       </c>
+      <c r="R751" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S751" s="3" t="s">
         <v>22</v>
       </c>
@@ -32856,6 +35106,9 @@
       <c r="N752" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="R752" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S752" s="3" t="s">
         <v>22</v>
       </c>
@@ -32903,6 +35156,9 @@
       <c r="N753" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="R753" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S753" s="3" t="s">
         <v>22</v>
       </c>
@@ -32950,6 +35206,9 @@
       <c r="N754" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="R754" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S754" s="3" t="s">
         <v>22</v>
       </c>
@@ -32997,6 +35256,9 @@
       <c r="N755" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="R755" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S755" s="3" t="s">
         <v>22</v>
       </c>
@@ -33044,6 +35306,9 @@
       <c r="N756" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="R756" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S756" s="3" t="s">
         <v>22</v>
       </c>
@@ -33091,6 +35356,9 @@
       <c r="N757" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="R757" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S757" s="3" t="s">
         <v>22</v>
       </c>
@@ -33138,6 +35406,9 @@
       <c r="N758" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="R758" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S758" s="3" t="s">
         <v>22</v>
       </c>
@@ -33185,6 +35456,9 @@
       <c r="N759" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="R759" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S759" s="3" t="s">
         <v>22</v>
       </c>
@@ -33232,6 +35506,9 @@
       <c r="N760" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="R760" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S760" s="3" t="s">
         <v>22</v>
       </c>
@@ -33288,6 +35565,9 @@
       <c r="Q761" s="3" t="s">
         <v>785</v>
       </c>
+      <c r="R761" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S761" s="3" t="s">
         <v>22</v>
       </c>
@@ -33344,6 +35624,9 @@
       <c r="Q762" s="3" t="s">
         <v>785</v>
       </c>
+      <c r="R762" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S762" s="3" t="s">
         <v>22</v>
       </c>
@@ -33400,6 +35683,9 @@
       <c r="Q763" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R763" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S763" s="3" t="s">
         <v>22</v>
       </c>
@@ -33455,6 +35741,9 @@
       </c>
       <c r="Q764" s="3" t="s">
         <v>798</v>
+      </c>
+      <c r="R764" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S764" s="3" t="s">
         <v>22</v>
@@ -33494,6 +35783,9 @@
       <c r="M765" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R765" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S765" s="3" t="s">
         <v>22</v>
       </c>
@@ -33532,6 +35824,9 @@
       <c r="M766" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R766" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S766" s="3" t="s">
         <v>22</v>
       </c>
@@ -33570,6 +35865,9 @@
       <c r="M767" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R767" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S767" s="3" t="s">
         <v>22</v>
       </c>
@@ -33608,6 +35906,9 @@
       <c r="M768" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R768" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S768" s="3" t="s">
         <v>22</v>
       </c>
@@ -33646,6 +35947,9 @@
       <c r="M769" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R769" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S769" s="3" t="s">
         <v>22</v>
       </c>
@@ -33684,6 +35988,9 @@
       <c r="M770" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R770" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S770" s="3" t="s">
         <v>22</v>
       </c>
@@ -33722,6 +36029,9 @@
       <c r="M771" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R771" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S771" s="3" t="s">
         <v>22</v>
       </c>
@@ -33760,6 +36070,9 @@
       <c r="M772" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R772" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S772" s="3" t="s">
         <v>22</v>
       </c>
@@ -33798,6 +36111,9 @@
       <c r="M773" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R773" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S773" s="3" t="s">
         <v>22</v>
       </c>
@@ -33836,6 +36152,9 @@
       <c r="M774" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R774" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S774" s="3" t="s">
         <v>22</v>
       </c>
@@ -33874,6 +36193,9 @@
       <c r="M775" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R775" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S775" s="3" t="s">
         <v>38</v>
       </c>
@@ -33912,6 +36234,9 @@
       <c r="M776" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R776" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S776" s="3" t="s">
         <v>38</v>
       </c>
@@ -33950,6 +36275,9 @@
       <c r="M777" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R777" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S777" s="3" t="s">
         <v>38</v>
       </c>
@@ -33988,6 +36316,9 @@
       <c r="M778" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R778" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S778" s="3" t="s">
         <v>38</v>
       </c>
@@ -34026,6 +36357,9 @@
       <c r="M779" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R779" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S779" s="3" t="s">
         <v>22</v>
       </c>
@@ -34064,6 +36398,9 @@
       <c r="M780" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R780" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S780" s="3" t="s">
         <v>22</v>
       </c>
@@ -34102,6 +36439,9 @@
       <c r="M781" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R781" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S781" s="3" t="s">
         <v>22</v>
       </c>
@@ -34140,6 +36480,9 @@
       <c r="M782" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R782" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S782" s="3" t="s">
         <v>22</v>
       </c>
@@ -34178,6 +36521,9 @@
       <c r="M783" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R783" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S783" s="3" t="s">
         <v>22</v>
       </c>
@@ -34216,6 +36562,9 @@
       <c r="M784" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R784" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S784" s="3" t="s">
         <v>22</v>
       </c>
@@ -34254,6 +36603,9 @@
       <c r="M785" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R785" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S785" s="3" t="s">
         <v>22</v>
       </c>
@@ -34292,6 +36644,9 @@
       <c r="M786" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R786" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S786" s="3" t="s">
         <v>22</v>
       </c>
@@ -34330,6 +36685,9 @@
       <c r="M787" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R787" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S787" s="3" t="s">
         <v>22</v>
       </c>
@@ -34368,6 +36726,9 @@
       <c r="M788" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R788" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S788" s="3" t="s">
         <v>22</v>
       </c>
@@ -34406,6 +36767,9 @@
       <c r="M789" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R789" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S789" s="3" t="s">
         <v>22</v>
       </c>
@@ -34444,6 +36808,9 @@
       <c r="M790" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R790" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S790" s="3" t="s">
         <v>22</v>
       </c>
@@ -34482,6 +36849,9 @@
       <c r="M791" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R791" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S791" s="3" t="s">
         <v>22</v>
       </c>
@@ -34520,6 +36890,9 @@
       <c r="M792" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R792" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S792" s="3" t="s">
         <v>22</v>
       </c>
@@ -34558,6 +36931,9 @@
       <c r="M793" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R793" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S793" s="3" t="s">
         <v>22</v>
       </c>
@@ -34596,6 +36972,9 @@
       <c r="M794" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R794" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S794" s="3" t="s">
         <v>22</v>
       </c>
@@ -34634,6 +37013,9 @@
       <c r="M795" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R795" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S795" s="3" t="s">
         <v>22</v>
       </c>
@@ -34672,6 +37054,9 @@
       <c r="M796" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R796" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S796" s="3" t="s">
         <v>22</v>
       </c>
@@ -34710,6 +37095,9 @@
       <c r="M797" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R797" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S797" s="3" t="s">
         <v>22</v>
       </c>
@@ -34748,6 +37136,9 @@
       <c r="M798" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R798" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S798" s="3" t="s">
         <v>22</v>
       </c>
@@ -34786,6 +37177,9 @@
       <c r="M799" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R799" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S799" s="3" t="s">
         <v>22</v>
       </c>
@@ -34824,6 +37218,9 @@
       <c r="M800" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R800" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S800" s="3" t="s">
         <v>22</v>
       </c>
@@ -34862,6 +37259,9 @@
       <c r="M801" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R801" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S801" s="3" t="s">
         <v>22</v>
       </c>
@@ -34900,6 +37300,9 @@
       <c r="M802" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R802" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S802" s="3" t="s">
         <v>22</v>
       </c>
@@ -34938,6 +37341,9 @@
       <c r="M803" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R803" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S803" s="3" t="s">
         <v>22</v>
       </c>
@@ -34976,6 +37382,9 @@
       <c r="M804" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R804" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S804" s="3" t="s">
         <v>22</v>
       </c>
@@ -35014,6 +37423,9 @@
       <c r="M805" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R805" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S805" s="3" t="s">
         <v>22</v>
       </c>
@@ -35052,6 +37464,9 @@
       <c r="M806" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R806" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S806" s="3" t="s">
         <v>22</v>
       </c>
@@ -35090,6 +37505,9 @@
       <c r="M807" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R807" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S807" s="3" t="s">
         <v>22</v>
       </c>
@@ -35128,6 +37546,9 @@
       <c r="M808" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R808" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S808" s="3" t="s">
         <v>22</v>
       </c>
@@ -35166,6 +37587,9 @@
       <c r="M809" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R809" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S809" s="3" t="s">
         <v>22</v>
       </c>
@@ -35204,6 +37628,9 @@
       <c r="M810" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R810" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S810" s="3" t="s">
         <v>22</v>
       </c>
@@ -35260,6 +37687,9 @@
       <c r="Q811" s="3" t="s">
         <v>846</v>
       </c>
+      <c r="R811" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S811" s="3" t="s">
         <v>22</v>
       </c>
@@ -35316,6 +37746,9 @@
       <c r="Q812" s="3" t="s">
         <v>846</v>
       </c>
+      <c r="R812" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S812" s="3" t="s">
         <v>22</v>
       </c>
@@ -35371,6 +37804,9 @@
       </c>
       <c r="Q813" s="3" t="s">
         <v>846</v>
+      </c>
+      <c r="R813" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S813" s="3" t="s">
         <v>22</v>
@@ -35410,6 +37846,9 @@
       <c r="M814" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R814" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S814" s="3" t="s">
         <v>22</v>
       </c>
@@ -35448,6 +37887,9 @@
       <c r="M815" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R815" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S815" s="3" t="s">
         <v>22</v>
       </c>
@@ -35486,6 +37928,9 @@
       <c r="M816" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R816" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S816" s="3" t="s">
         <v>22</v>
       </c>
@@ -35524,6 +37969,9 @@
       <c r="M817" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R817" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S817" s="3" t="s">
         <v>22</v>
       </c>
@@ -35562,6 +38010,9 @@
       <c r="M818" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R818" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S818" s="3" t="s">
         <v>22</v>
       </c>
@@ -35600,6 +38051,9 @@
       <c r="M819" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R819" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S819" s="3" t="s">
         <v>22</v>
       </c>
@@ -35638,6 +38092,9 @@
       <c r="M820" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R820" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S820" s="3" t="s">
         <v>22</v>
       </c>
@@ -35676,6 +38133,9 @@
       <c r="M821" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R821" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S821" s="3" t="s">
         <v>22</v>
       </c>
@@ -35714,6 +38174,9 @@
       <c r="M822" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R822" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S822" s="3" t="s">
         <v>22</v>
       </c>
@@ -35752,6 +38215,9 @@
       <c r="M823" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R823" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S823" s="3" t="s">
         <v>22</v>
       </c>
@@ -35790,6 +38256,9 @@
       <c r="M824" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R824" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S824" s="3" t="s">
         <v>22</v>
       </c>
@@ -35828,6 +38297,9 @@
       <c r="M825" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R825" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S825" s="3" t="s">
         <v>22</v>
       </c>
@@ -35866,6 +38338,9 @@
       <c r="M826" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R826" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S826" s="3" t="s">
         <v>22</v>
       </c>
@@ -35904,6 +38379,9 @@
       <c r="M827" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R827" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S827" s="3" t="s">
         <v>22</v>
       </c>
@@ -35942,6 +38420,9 @@
       <c r="M828" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R828" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S828" s="3" t="s">
         <v>22</v>
       </c>
@@ -35980,6 +38461,9 @@
       <c r="M829" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R829" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S829" s="3" t="s">
         <v>22</v>
       </c>
@@ -36018,6 +38502,9 @@
       <c r="M830" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R830" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S830" s="3" t="s">
         <v>22</v>
       </c>
@@ -36056,6 +38543,9 @@
       <c r="M831" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R831" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S831" s="3" t="s">
         <v>22</v>
       </c>
@@ -36094,6 +38584,9 @@
       <c r="M832" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R832" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S832" s="3" t="s">
         <v>22</v>
       </c>
@@ -36132,6 +38625,9 @@
       <c r="M833" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R833" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S833" s="3" t="s">
         <v>22</v>
       </c>
@@ -36170,6 +38666,9 @@
       <c r="M834" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R834" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S834" s="3" t="s">
         <v>22</v>
       </c>
@@ -36208,6 +38707,9 @@
       <c r="M835" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R835" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S835" s="3" t="s">
         <v>22</v>
       </c>
@@ -36246,6 +38748,9 @@
       <c r="M836" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R836" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S836" s="3" t="s">
         <v>22</v>
       </c>
@@ -36284,6 +38789,9 @@
       <c r="M837" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R837" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S837" s="3" t="s">
         <v>22</v>
       </c>
@@ -36322,6 +38830,9 @@
       <c r="M838" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R838" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S838" s="3" t="s">
         <v>22</v>
       </c>
@@ -36360,6 +38871,9 @@
       <c r="M839" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R839" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S839" s="3" t="s">
         <v>22</v>
       </c>
@@ -36398,6 +38912,9 @@
       <c r="M840" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R840" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S840" s="3" t="s">
         <v>22</v>
       </c>
@@ -36436,6 +38953,9 @@
       <c r="M841" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R841" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S841" s="3" t="s">
         <v>22</v>
       </c>
@@ -36474,6 +38994,9 @@
       <c r="M842" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R842" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S842" s="3" t="s">
         <v>22</v>
       </c>
@@ -36512,6 +39035,9 @@
       <c r="M843" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R843" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S843" s="3" t="s">
         <v>22</v>
       </c>
@@ -36550,6 +39076,9 @@
       <c r="M844" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R844" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S844" s="3" t="s">
         <v>22</v>
       </c>
@@ -36588,6 +39117,9 @@
       <c r="M845" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R845" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S845" s="3" t="s">
         <v>22</v>
       </c>
@@ -36626,6 +39158,9 @@
       <c r="M846" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R846" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S846" s="3" t="s">
         <v>22</v>
       </c>
@@ -36664,6 +39199,9 @@
       <c r="M847" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R847" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S847" s="3" t="s">
         <v>22</v>
       </c>
@@ -36702,6 +39240,9 @@
       <c r="M848" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R848" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S848" s="3" t="s">
         <v>22</v>
       </c>
@@ -36740,6 +39281,9 @@
       <c r="M849" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R849" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S849" s="3" t="s">
         <v>22</v>
       </c>
@@ -36778,6 +39322,9 @@
       <c r="M850" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R850" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S850" s="3" t="s">
         <v>22</v>
       </c>
@@ -36816,6 +39363,9 @@
       <c r="M851" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R851" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S851" s="3" t="s">
         <v>22</v>
       </c>
@@ -36854,6 +39404,9 @@
       <c r="M852" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R852" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S852" s="3" t="s">
         <v>22</v>
       </c>
@@ -36892,6 +39445,9 @@
       <c r="M853" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R853" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S853" s="3" t="s">
         <v>22</v>
       </c>
@@ -36930,6 +39486,9 @@
       <c r="M854" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R854" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S854" s="3" t="s">
         <v>22</v>
       </c>
@@ -36968,6 +39527,9 @@
       <c r="M855" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R855" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S855" s="3" t="s">
         <v>22</v>
       </c>
@@ -37006,6 +39568,9 @@
       <c r="M856" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R856" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S856" s="3" t="s">
         <v>22</v>
       </c>
@@ -37044,6 +39609,9 @@
       <c r="M857" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R857" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S857" s="3" t="s">
         <v>22</v>
       </c>
@@ -37082,6 +39650,9 @@
       <c r="M858" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R858" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S858" s="3" t="s">
         <v>22</v>
       </c>
@@ -37120,6 +39691,9 @@
       <c r="M859" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R859" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S859" s="3" t="s">
         <v>22</v>
       </c>
@@ -37158,6 +39732,9 @@
       <c r="M860" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R860" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S860" s="3" t="s">
         <v>22</v>
       </c>
@@ -37196,6 +39773,9 @@
       <c r="M861" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R861" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S861" s="3" t="s">
         <v>22</v>
       </c>
@@ -37234,6 +39814,9 @@
       <c r="M862" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R862" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S862" s="3" t="s">
         <v>22</v>
       </c>
@@ -37272,6 +39855,9 @@
       <c r="M863" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R863" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S863" s="3" t="s">
         <v>22</v>
       </c>
@@ -37310,6 +39896,9 @@
       <c r="M864" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R864" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S864" s="3" t="s">
         <v>22</v>
       </c>
@@ -37348,6 +39937,9 @@
       <c r="M865" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R865" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S865" s="3" t="s">
         <v>22</v>
       </c>
@@ -37386,6 +39978,9 @@
       <c r="M866" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R866" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="S866" s="3" t="s">
         <v>22</v>
       </c>
@@ -37442,8 +40037,8 @@
       <c r="Q867" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R867" s="3" t="n">
-        <v>1</v>
+      <c r="R867" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S867" s="3" t="s">
         <v>38</v>
@@ -37501,8 +40096,8 @@
       <c r="Q868" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R868" s="3" t="n">
-        <v>1</v>
+      <c r="R868" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S868" s="3" t="s">
         <v>38</v>
@@ -37560,8 +40155,8 @@
       <c r="Q869" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="R869" s="3" t="n">
-        <v>1</v>
+      <c r="R869" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S869" s="3" t="s">
         <v>38</v>
@@ -37619,8 +40214,8 @@
       <c r="Q870" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R870" s="3" t="n">
-        <v>1</v>
+      <c r="R870" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S870" s="3" t="s">
         <v>38</v>
@@ -37678,8 +40273,8 @@
       <c r="Q871" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R871" s="3" t="n">
-        <v>0</v>
+      <c r="R871" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S871" s="3" t="s">
         <v>38</v>
@@ -37737,8 +40332,8 @@
       <c r="Q872" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R872" s="3" t="n">
-        <v>1</v>
+      <c r="R872" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S872" s="3" t="s">
         <v>38</v>
@@ -37796,8 +40391,8 @@
       <c r="Q873" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R873" s="3" t="n">
-        <v>1</v>
+      <c r="R873" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S873" s="3" t="s">
         <v>38</v>
@@ -37855,8 +40450,8 @@
       <c r="Q874" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R874" s="3" t="n">
-        <v>1</v>
+      <c r="R874" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S874" s="3" t="s">
         <v>38</v>
@@ -37914,8 +40509,8 @@
       <c r="Q875" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R875" s="3" t="n">
-        <v>0</v>
+      <c r="R875" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S875" s="3" t="s">
         <v>38</v>
@@ -37973,14 +40568,14 @@
       <c r="Q876" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R876" s="3" t="n">
-        <v>0</v>
+      <c r="R876" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S876" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="5" t="s">
         <v>942</v>
       </c>
@@ -38032,14 +40627,14 @@
       <c r="Q877" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="R877" s="3" t="n">
-        <v>1</v>
+      <c r="R877" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S877" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
         <v>947</v>
       </c>
@@ -38091,14 +40686,14 @@
       <c r="Q878" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="R878" s="3" t="n">
-        <v>1</v>
+      <c r="R878" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S878" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
         <v>60</v>
       </c>
@@ -38150,14 +40745,14 @@
       <c r="Q879" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="R879" s="3" t="n">
-        <v>1</v>
+      <c r="R879" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S879" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
         <v>952</v>
       </c>
@@ -38209,14 +40804,14 @@
       <c r="Q880" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="R880" s="3" t="n">
-        <v>1</v>
+      <c r="R880" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S880" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="s">
         <v>32</v>
       </c>
@@ -38268,8 +40863,8 @@
       <c r="Q881" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="R881" s="3" t="n">
-        <v>1</v>
+      <c r="R881" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S881" s="3" t="s">
         <v>22</v>
@@ -38327,8 +40922,8 @@
       <c r="Q882" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="R882" s="3" t="n">
-        <v>0</v>
+      <c r="R882" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S882" s="3" t="s">
         <v>22</v>
@@ -38386,8 +40981,8 @@
       <c r="Q883" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="R883" s="3" t="n">
-        <v>1</v>
+      <c r="R883" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S883" s="3" t="s">
         <v>22</v>
@@ -38442,8 +41037,8 @@
       <c r="Q884" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R884" s="3" t="n">
-        <v>1</v>
+      <c r="R884" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S884" s="3" t="s">
         <v>38</v>
@@ -38501,8 +41096,8 @@
       <c r="Q885" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="R885" s="3" t="n">
-        <v>0</v>
+      <c r="R885" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S885" s="3" t="s">
         <v>22</v>
@@ -38560,8 +41155,8 @@
       <c r="Q886" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="R886" s="3" t="n">
-        <v>1</v>
+      <c r="R886" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S886" s="3" t="s">
         <v>22</v>
@@ -38619,8 +41214,8 @@
       <c r="Q887" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R887" s="3" t="n">
-        <v>1</v>
+      <c r="R887" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S887" s="3" t="s">
         <v>22</v>
@@ -38678,8 +41273,8 @@
       <c r="Q888" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="R888" s="3" t="n">
-        <v>1</v>
+      <c r="R888" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S888" s="3" t="s">
         <v>22</v>
@@ -38737,8 +41332,8 @@
       <c r="Q889" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="R889" s="3" t="n">
-        <v>1</v>
+      <c r="R889" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S889" s="3" t="s">
         <v>22</v>
@@ -38796,8 +41391,8 @@
       <c r="Q890" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="R890" s="3" t="n">
-        <v>1</v>
+      <c r="R890" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S890" s="3" t="s">
         <v>22</v>
@@ -38855,8 +41450,8 @@
       <c r="Q891" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="R891" s="3" t="n">
-        <v>1</v>
+      <c r="R891" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S891" s="3" t="s">
         <v>22</v>
@@ -38914,8 +41509,8 @@
       <c r="Q892" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="R892" s="3" t="n">
-        <v>1</v>
+      <c r="R892" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S892" s="3" t="s">
         <v>22</v>
@@ -38973,8 +41568,8 @@
       <c r="Q893" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="R893" s="3" t="n">
-        <v>1</v>
+      <c r="R893" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S893" s="3" t="s">
         <v>22</v>
@@ -39032,14 +41627,14 @@
       <c r="Q894" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="R894" s="3" t="n">
-        <v>1</v>
+      <c r="R894" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S894" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="s">
         <v>1013</v>
       </c>
@@ -39091,14 +41686,14 @@
       <c r="Q895" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="R895" s="3" t="n">
-        <v>1</v>
+      <c r="R895" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S895" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
         <v>1019</v>
       </c>
@@ -39150,14 +41745,14 @@
       <c r="Q896" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="R896" s="3" t="n">
-        <v>1</v>
+      <c r="R896" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S896" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
         <v>1020</v>
       </c>
@@ -39209,14 +41804,14 @@
       <c r="Q897" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="R897" s="3" t="n">
-        <v>1</v>
+      <c r="R897" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S897" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
         <v>283</v>
       </c>
@@ -39268,14 +41863,14 @@
       <c r="Q898" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="R898" s="3" t="n">
-        <v>1</v>
+      <c r="R898" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S898" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
         <v>1021</v>
       </c>
@@ -39327,14 +41922,14 @@
       <c r="Q899" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="R899" s="3" t="n">
-        <v>1</v>
+      <c r="R899" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S899" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="s">
         <v>133</v>
       </c>
@@ -39386,14 +41981,14 @@
       <c r="Q900" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="R900" s="3" t="n">
-        <v>1</v>
+      <c r="R900" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S900" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
         <v>1022</v>
       </c>
@@ -39445,14 +42040,14 @@
       <c r="Q901" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="R901" s="3" t="n">
-        <v>1</v>
+      <c r="R901" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S901" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
         <v>1023</v>
       </c>
@@ -39504,8 +42099,8 @@
       <c r="Q902" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="R902" s="3" t="n">
-        <v>1</v>
+      <c r="R902" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S902" s="3" t="s">
         <v>22</v>
@@ -39563,8 +42158,8 @@
       <c r="Q903" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="R903" s="3" t="n">
-        <v>1</v>
+      <c r="R903" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S903" s="3" t="s">
         <v>22</v>
@@ -39622,8 +42217,8 @@
       <c r="Q904" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R904" s="3" t="n">
-        <v>1</v>
+      <c r="R904" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S904" s="3" t="s">
         <v>22</v>
@@ -39681,14 +42276,14 @@
       <c r="Q905" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R905" s="3" t="n">
-        <v>0</v>
+      <c r="R905" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S905" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="4" t="s">
         <v>171</v>
       </c>
@@ -39740,8 +42335,8 @@
       <c r="Q906" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R906" s="3" t="n">
-        <v>0</v>
+      <c r="R906" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S906" s="3" t="s">
         <v>22</v>
@@ -39799,8 +42394,8 @@
       <c r="Q907" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R907" s="3" t="n">
-        <v>0</v>
+      <c r="R907" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S907" s="3" t="s">
         <v>22</v>
@@ -39858,14 +42453,14 @@
       <c r="Q908" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R908" s="3" t="n">
-        <v>0</v>
+      <c r="R908" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S908" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
         <v>1040</v>
       </c>
@@ -39917,14 +42512,14 @@
       <c r="Q909" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R909" s="3" t="n">
-        <v>0</v>
+      <c r="R909" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S909" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
         <v>1040</v>
       </c>
@@ -39976,8 +42571,8 @@
       <c r="Q910" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R910" s="3" t="n">
-        <v>0</v>
+      <c r="R910" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S910" s="3" t="s">
         <v>22</v>
@@ -40035,8 +42630,8 @@
       <c r="Q911" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R911" s="3" t="n">
-        <v>0</v>
+      <c r="R911" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S911" s="3" t="s">
         <v>22</v>
@@ -40094,14 +42689,14 @@
       <c r="Q912" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R912" s="3" t="n">
-        <v>0</v>
+      <c r="R912" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S912" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
         <v>1042</v>
       </c>
@@ -40153,14 +42748,14 @@
       <c r="Q913" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R913" s="3" t="n">
-        <v>0</v>
+      <c r="R913" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S913" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
         <v>1042</v>
       </c>
@@ -40212,14 +42807,14 @@
       <c r="Q914" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R914" s="3" t="n">
-        <v>0</v>
+      <c r="R914" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S914" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
         <v>1042</v>
       </c>
@@ -40271,8 +42866,8 @@
       <c r="Q915" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R915" s="3" t="n">
-        <v>0</v>
+      <c r="R915" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S915" s="3" t="s">
         <v>22</v>
@@ -40330,8 +42925,8 @@
       <c r="Q916" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R916" s="3" t="n">
-        <v>0</v>
+      <c r="R916" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S916" s="3" t="s">
         <v>22</v>
@@ -40389,8 +42984,8 @@
       <c r="Q917" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R917" s="3" t="n">
-        <v>0</v>
+      <c r="R917" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S917" s="3" t="s">
         <v>22</v>
@@ -40448,14 +43043,14 @@
       <c r="Q918" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R918" s="3" t="n">
-        <v>0</v>
+      <c r="R918" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S918" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
         <v>1044</v>
       </c>
@@ -40507,14 +43102,14 @@
       <c r="Q919" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R919" s="3" t="n">
-        <v>0</v>
+      <c r="R919" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S919" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
         <v>1044</v>
       </c>
@@ -40566,14 +43161,14 @@
       <c r="Q920" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R920" s="3" t="n">
-        <v>0</v>
+      <c r="R920" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S920" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
         <v>1044</v>
       </c>
@@ -40625,8 +43220,8 @@
       <c r="Q921" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R921" s="3" t="n">
-        <v>0</v>
+      <c r="R921" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S921" s="3" t="s">
         <v>22</v>
@@ -40684,14 +43279,14 @@
       <c r="Q922" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R922" s="3" t="n">
-        <v>0</v>
+      <c r="R922" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S922" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
         <v>1045</v>
       </c>
@@ -40743,14 +43338,14 @@
       <c r="Q923" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R923" s="3" t="n">
-        <v>0</v>
+      <c r="R923" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S923" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
         <v>1045</v>
       </c>
@@ -40802,14 +43397,14 @@
       <c r="Q924" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R924" s="3" t="n">
-        <v>0</v>
+      <c r="R924" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S924" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
         <v>1045</v>
       </c>
@@ -40861,8 +43456,8 @@
       <c r="Q925" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R925" s="3" t="n">
-        <v>0</v>
+      <c r="R925" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S925" s="3" t="s">
         <v>22</v>
@@ -40920,8 +43515,8 @@
       <c r="Q926" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R926" s="3" t="n">
-        <v>0</v>
+      <c r="R926" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S926" s="3" t="s">
         <v>22</v>
@@ -40979,14 +43574,14 @@
       <c r="Q927" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R927" s="3" t="n">
-        <v>0</v>
+      <c r="R927" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S927" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="0" t="s">
         <v>1046</v>
       </c>
@@ -41038,14 +43633,14 @@
       <c r="Q928" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R928" s="3" t="n">
-        <v>0</v>
+      <c r="R928" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S928" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="s">
         <v>1046</v>
       </c>
@@ -41097,14 +43692,14 @@
       <c r="Q929" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R929" s="3" t="n">
-        <v>0</v>
+      <c r="R929" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S929" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="s">
         <v>1046</v>
       </c>
@@ -41156,8 +43751,8 @@
       <c r="Q930" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R930" s="3" t="n">
-        <v>0</v>
+      <c r="R930" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S930" s="3" t="s">
         <v>22</v>
@@ -41215,8 +43810,8 @@
       <c r="Q931" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R931" s="3" t="n">
-        <v>0</v>
+      <c r="R931" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S931" s="3" t="s">
         <v>22</v>
@@ -41274,8 +43869,8 @@
       <c r="Q932" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R932" s="3" t="n">
-        <v>0</v>
+      <c r="R932" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S932" s="3" t="s">
         <v>22</v>
@@ -41333,14 +43928,14 @@
       <c r="Q933" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R933" s="3" t="n">
-        <v>0</v>
+      <c r="R933" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S933" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
         <v>1049</v>
       </c>
@@ -41392,14 +43987,14 @@
       <c r="Q934" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R934" s="3" t="n">
-        <v>0</v>
+      <c r="R934" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S934" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
         <v>1049</v>
       </c>
@@ -41451,14 +44046,14 @@
       <c r="Q935" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R935" s="3" t="n">
-        <v>0</v>
+      <c r="R935" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S935" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
         <v>1049</v>
       </c>
@@ -41510,8 +44105,8 @@
       <c r="Q936" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R936" s="3" t="n">
-        <v>0</v>
+      <c r="R936" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S936" s="3" t="s">
         <v>22</v>
@@ -41569,14 +44164,14 @@
       <c r="Q937" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="R937" s="3" t="n">
-        <v>0</v>
+      <c r="R937" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S937" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="4" t="s">
         <v>1050</v>
       </c>
@@ -41628,8 +44223,8 @@
       <c r="Q938" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R938" s="3" t="n">
-        <v>1</v>
+      <c r="R938" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S938" s="3" t="s">
         <v>38</v>
@@ -41687,8 +44282,8 @@
       <c r="Q939" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R939" s="3" t="n">
-        <v>1</v>
+      <c r="R939" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S939" s="3" t="s">
         <v>38</v>
@@ -41746,14 +44341,14 @@
       <c r="Q940" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R940" s="3" t="n">
-        <v>1</v>
+      <c r="R940" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S940" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
         <v>1064</v>
       </c>
@@ -41805,8 +44400,8 @@
       <c r="Q941" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="R941" s="3" t="n">
-        <v>1</v>
+      <c r="R941" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S941" s="3" t="s">
         <v>22</v>
@@ -41864,8 +44459,8 @@
       <c r="Q942" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="R942" s="3" t="n">
-        <v>1</v>
+      <c r="R942" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S942" s="3" t="s">
         <v>22</v>
@@ -41923,14 +44518,14 @@
       <c r="Q943" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="R943" s="3" t="n">
-        <v>1</v>
+      <c r="R943" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S943" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
         <v>245</v>
       </c>
@@ -41982,8 +44577,8 @@
       <c r="Q944" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="R944" s="3" t="n">
-        <v>1</v>
+      <c r="R944" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S944" s="3" t="s">
         <v>22</v>
@@ -42041,14 +44636,14 @@
       <c r="Q945" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R945" s="3" t="n">
-        <v>0</v>
+      <c r="R945" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="S945" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
         <v>610</v>
       </c>
@@ -42100,14 +44695,14 @@
       <c r="Q946" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R946" s="3" t="n">
-        <v>1</v>
+      <c r="R946" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S946" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
         <v>1091</v>
       </c>
@@ -42159,14 +44754,14 @@
       <c r="Q947" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R947" s="3" t="n">
-        <v>1</v>
+      <c r="R947" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S947" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
         <v>1096</v>
       </c>
@@ -42218,8 +44813,8 @@
       <c r="Q948" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R948" s="3" t="n">
-        <v>1</v>
+      <c r="R948" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S948" s="3" t="s">
         <v>22</v>
@@ -42277,8 +44872,8 @@
       <c r="Q949" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R949" s="3" t="n">
-        <v>1</v>
+      <c r="R949" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S949" s="3" t="s">
         <v>22</v>

--- a/Degraders_list_v2.xlsx
+++ b/Degraders_list_v2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10524" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10524" uniqueCount="1094">
   <si>
     <t xml:space="preserve">Microorganism</t>
   </si>
@@ -1360,7 +1360,7 @@
     <t xml:space="preserve">Plastic waste soil</t>
   </si>
   <si>
-    <t xml:space="preserve">Jabalpur, Madhya Pradesh, India</t>
+    <t xml:space="preserve">India</t>
   </si>
   <si>
     <t xml:space="preserve">Shovitri, M., Nafi’ah, R., Antika, T. R., Alami, N. H., Kuswytasari, N. D., &amp; Zulaikha, E. (2017). Soil burial method for plastic degradation performed by Pseudomonas PL-01, Bacillus PL-01, and indigenous bacteria. In AIP Conference Proceedings (Vol. 1854, No. 1, p. 020035). AIP Publishing.</t>
@@ -1984,7 +1984,7 @@
     <t xml:space="preserve">Soil</t>
   </si>
   <si>
-    <t xml:space="preserve">Leningrad Region, Russia</t>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Penicillium aurantiogriseum</t>
@@ -1993,7 +1993,7 @@
     <t xml:space="preserve">Barrel with fruit test</t>
   </si>
   <si>
-    <t xml:space="preserve">Kharkov, Ukraine</t>
+    <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
     <t xml:space="preserve">Parengyodontium album</t>
@@ -2002,9 +2002,6 @@
     <t xml:space="preserve">Wall</t>
   </si>
   <si>
-    <t xml:space="preserve">Moscow, Kremlin, Russia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pseudonocardia sp.</t>
   </si>
   <si>
@@ -2146,7 +2143,7 @@
     <t xml:space="preserve">Sewage treatment plant</t>
   </si>
   <si>
-    <t xml:space="preserve">Suyoung, Korea</t>
+    <t xml:space="preserve">Korea</t>
   </si>
   <si>
     <t xml:space="preserve">Pseudonocardia alni</t>
@@ -2188,7 +2185,7 @@
     <t xml:space="preserve">PLA (Mn 5.4 × 103 )</t>
   </si>
   <si>
-    <t xml:space="preserve">Sigma-Aldrich Chemical (USA)</t>
+    <t xml:space="preserve">Sigma Aldrich</t>
   </si>
   <si>
     <t xml:space="preserve">Stoleru, E., Hitruc, E. G., Vasile, C., &amp; Oprică, L. (2017). Biodegradation of poly (lactic acid)/chitosan stratified composites in presence of the Phanerochaete chrysosporium fungus. Polymer Degradation and Stability, 143, 118-129.</t>
@@ -2281,9 +2278,6 @@
     <t xml:space="preserve">Reliance Industries Ltd., Mumbai, India</t>
   </si>
   <si>
-    <t xml:space="preserve">Palikarne dumping ground, Chennai, India</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arkatkar, A., Juwarkar, A. A., Bhaduri, S., Uppara, P. V., &amp; Doble, M. (2010). Growth of Pseudomonas and Bacillus biofilms on pretreated polypropylene surface. International Biodeterioration &amp; Biodegradation, 64(6), 530-536.</t>
   </si>
   <si>
@@ -2296,9 +2290,6 @@
     <t xml:space="preserve">PP granules (white, spherical) with density of 0.9 g/mL at 25  C</t>
   </si>
   <si>
-    <t xml:space="preserve">Sigma Aldrich Chemical Co. (USA)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Auta, H. S., Emenike, C. U., Jayanthi, B., &amp; Fauziah, S. H. (2018). Growth kinetics and biodeterioration of polypropylene microplastics by Bacillus sp. and Rhodococcus sp. isolated from mangrove sediment. Marine pollution bulletin, 127, 15-21.</t>
   </si>
   <si>
@@ -2311,9 +2302,6 @@
     <t xml:space="preserve">YUHWA PP Soxhlet extracted with toluene</t>
   </si>
   <si>
-    <t xml:space="preserve">Anyang-si, Gyeonggido, Korea</t>
-  </si>
-  <si>
     <t xml:space="preserve">Engyodontium album</t>
   </si>
   <si>
@@ -2350,7 +2338,7 @@
     <t xml:space="preserve">Expanded polystyrene (EPS) solution (2%) in chloroform;Films of pure polystyrene</t>
   </si>
   <si>
-    <t xml:space="preserve">;Fluka, Germany, Mol. Wt. 100,000</t>
+    <t xml:space="preserve">Fluka, Germany, Mol. Wt. 100,000</t>
   </si>
   <si>
     <t xml:space="preserve">Paenibacillus urinalis</t>
@@ -2377,9 +2365,6 @@
     <t xml:space="preserve">Wetland</t>
   </si>
   <si>
-    <t xml:space="preserve">Uttar Pradesh, India</t>
-  </si>
-  <si>
     <t xml:space="preserve">Exiguobacterium undae</t>
   </si>
   <si>
@@ -2395,7 +2380,7 @@
     <t xml:space="preserve">Two 14C-labelled PS polymers were synthesisedwith molecular weight (MW) of 15 and 29 kDa</t>
   </si>
   <si>
-    <t xml:space="preserve">Sigma–Aldrich (Buchs, Switzerland);J. T. Baker (Munich, Germany)</t>
+    <t xml:space="preserve">Sigma Aldrich;J. T. Baker (Munich, Germany)</t>
   </si>
   <si>
     <t xml:space="preserve">Exiguobacterium sp.</t>
@@ -2416,7 +2401,7 @@
     <t xml:space="preserve">Mealworm gut</t>
   </si>
   <si>
-    <t xml:space="preserve">Daxing Insect Breeding Plant, Beijing, China</t>
+    <t xml:space="preserve">China</t>
   </si>
   <si>
     <t xml:space="preserve">PS Blend</t>
@@ -2560,7 +2545,7 @@
     <t xml:space="preserve">Institute of Applied Biochemistry, University of Tsukuba, Ibaraki- Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Irbid, Jordan</t>
+    <t xml:space="preserve">Jordan</t>
   </si>
   <si>
     <t xml:space="preserve">Jansen, B., Schumacher-Perdreau, F., Peters, G., &amp; Pulverer, G. (1991). Evidence for degradation of synthetic polyurethanes by Staphylococcus epidermidis. Zentralblatt für Bakteriologie, 276(1), 36-45.</t>
@@ -2752,9 +2737,6 @@
     <t xml:space="preserve">3HB oligomer</t>
   </si>
   <si>
-    <t xml:space="preserve">Sigma Aldrich</t>
-  </si>
-  <si>
     <t xml:space="preserve">PHBV Oligomers</t>
   </si>
   <si>
@@ -2779,7 +2761,7 @@
     <t xml:space="preserve">Produced via the polycondensation of EG with FDCA</t>
   </si>
   <si>
-    <t xml:space="preserve">Sakai, Japan</t>
+    <t xml:space="preserve">Japan</t>
   </si>
   <si>
     <t xml:space="preserve">Sphingomonas macrogoltabidus</t>
@@ -2860,7 +2842,7 @@
     <t xml:space="preserve">Spectrophotometry;Weight loss;SEM</t>
   </si>
   <si>
-    <t xml:space="preserve">LGC Standards GmbH</t>
+    <t xml:space="preserve">Germany</t>
   </si>
   <si>
     <t xml:space="preserve">Cladosporium sphaerospermum</t>
@@ -2875,9 +2857,6 @@
     <t xml:space="preserve">Commercial grade PLA with molecular weight of 85,000–160,000</t>
   </si>
   <si>
-    <t xml:space="preserve">Western Ghats of Kerala</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rhodotorula mucilaginosa</t>
   </si>
   <si>
@@ -2899,9 +2878,6 @@
     <t xml:space="preserve">Tokuyama (Tsukuba, Japan)</t>
   </si>
   <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Purified PHB granules for enzyme assays of PHB depolymerase were prepared as described by Smibert and Krieg</t>
   </si>
   <si>
@@ -3001,9 +2977,6 @@
     <t xml:space="preserve">Crude oil contaminated soil</t>
   </si>
   <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
     <t xml:space="preserve">Liu, Y., Deng, Y., Chen, P., Duan, M., Lin, X., &amp; Zhang, Y. (2019). Biodegradation analysis of polyvinyl alcohol during the compost burial course. Journal of basic microbiology, 59(4), 368-374.</t>
   </si>
   <si>
@@ -3022,9 +2995,6 @@
     <t xml:space="preserve">Compost</t>
   </si>
   <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
     <t xml:space="preserve">Esmaeili, A., Pourbabaee, A. A., Alikhani, H. A., Shabani, F., &amp; Esmaeili, E. (2013). Biodegradation of low-density polyethylene (LDPE) by mixed culture of Lysinibacillus xylanilyticus and Aspergillus niger in soil. Plos one, 8(9).</t>
   </si>
   <si>
@@ -3187,7 +3157,7 @@
     <t xml:space="preserve">Spectrophotometry;LC-MS</t>
   </si>
   <si>
-    <t xml:space="preserve">BASF, Germany</t>
+    <t xml:space="preserve">BASF</t>
   </si>
   <si>
     <t xml:space="preserve">Wang, Y. L., Lin, Y. T., Chen, C. L., Shaw, G. C., &amp; Liaw, S. H. (2014). Crystallization and preliminary crystallographic analysis of poly (3-hydroxybutyrate) depolymerase from Bacillus thuringiensis. Acta Crystallographica Section F: Structural Biology Communications, 70(10), 1421-1423.</t>
@@ -3275,9 +3245,6 @@
   </si>
   <si>
     <t xml:space="preserve">Milled PBAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASF SE (Germany)</t>
   </si>
   <si>
     <t xml:space="preserve">P(3HB-co-4HB)</t>
@@ -3462,8 +3429,8 @@
   </sheetPr>
   <dimension ref="A1:S953"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30242,7 +30209,7 @@
         <v>659</v>
       </c>
       <c r="Q646" s="3" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="R646" s="3" t="s">
         <v>22</v>
@@ -30253,7 +30220,7 @@
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B647" s="1" t="n">
         <v>0</v>
@@ -30262,7 +30229,7 @@
         <v>644</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E647" s="3" t="s">
         <v>22</v>
@@ -30303,7 +30270,7 @@
         <v>644</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E648" s="3" t="s">
         <v>192</v>
@@ -30335,7 +30302,7 @@
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B649" s="1" t="n">
         <v>0</v>
@@ -30344,10 +30311,10 @@
         <v>644</v>
       </c>
       <c r="D649" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E649" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="E649" s="3" t="s">
-        <v>666</v>
       </c>
       <c r="F649" s="3" t="s">
         <v>22</v>
@@ -30376,7 +30343,7 @@
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B650" s="1" t="n">
         <v>0</v>
@@ -30385,10 +30352,10 @@
         <v>644</v>
       </c>
       <c r="D650" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E650" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="E650" s="3" t="s">
-        <v>666</v>
       </c>
       <c r="F650" s="3" t="s">
         <v>22</v>
@@ -30417,7 +30384,7 @@
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B651" s="1" t="n">
         <v>0</v>
@@ -30426,7 +30393,7 @@
         <v>644</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E651" s="3" t="s">
         <v>22</v>
@@ -30467,7 +30434,7 @@
         <v>644</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E652" s="3" t="s">
         <v>22</v>
@@ -30499,7 +30466,7 @@
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B653" s="1" t="n">
         <v>0</v>
@@ -30508,7 +30475,7 @@
         <v>644</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E653" s="3" t="s">
         <v>22</v>
@@ -30540,7 +30507,7 @@
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B654" s="1" t="n">
         <v>0</v>
@@ -30549,7 +30516,7 @@
         <v>644</v>
       </c>
       <c r="D654" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E654" s="3" t="s">
         <v>22</v>
@@ -30590,7 +30557,7 @@
         <v>644</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E655" s="3" t="s">
         <v>22</v>
@@ -30622,7 +30589,7 @@
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B656" s="1" t="n">
         <v>0</v>
@@ -30631,7 +30598,7 @@
         <v>644</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E656" s="3" t="s">
         <v>22</v>
@@ -30672,7 +30639,7 @@
         <v>644</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E657" s="3" t="s">
         <v>22</v>
@@ -30693,10 +30660,10 @@
         <v>552</v>
       </c>
       <c r="K657" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="L657" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="L657" s="3" t="s">
-        <v>680</v>
       </c>
       <c r="M657" s="3" t="s">
         <v>23</v>
@@ -30710,7 +30677,7 @@
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B658" s="1" t="n">
         <v>0</v>
@@ -30719,7 +30686,7 @@
         <v>644</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E658" s="3" t="s">
         <v>22</v>
@@ -30740,10 +30707,10 @@
         <v>552</v>
       </c>
       <c r="K658" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="L658" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="L658" s="3" t="s">
-        <v>680</v>
       </c>
       <c r="M658" s="3" t="s">
         <v>23</v>
@@ -30757,7 +30724,7 @@
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B659" s="1" t="n">
         <v>0</v>
@@ -30766,7 +30733,7 @@
         <v>644</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E659" s="3" t="s">
         <v>22</v>
@@ -30787,10 +30754,10 @@
         <v>552</v>
       </c>
       <c r="K659" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="L659" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="L659" s="3" t="s">
-        <v>680</v>
       </c>
       <c r="M659" s="3" t="s">
         <v>23</v>
@@ -30804,7 +30771,7 @@
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B660" s="1" t="n">
         <v>0</v>
@@ -30813,7 +30780,7 @@
         <v>644</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E660" s="3" t="s">
         <v>22</v>
@@ -30834,10 +30801,10 @@
         <v>552</v>
       </c>
       <c r="K660" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="L660" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="L660" s="3" t="s">
-        <v>680</v>
       </c>
       <c r="M660" s="3" t="s">
         <v>23</v>
@@ -30851,7 +30818,7 @@
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B661" s="1" t="n">
         <v>0</v>
@@ -30860,7 +30827,7 @@
         <v>644</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E661" s="3" t="s">
         <v>22</v>
@@ -30881,10 +30848,10 @@
         <v>552</v>
       </c>
       <c r="K661" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="L661" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="L661" s="3" t="s">
-        <v>680</v>
       </c>
       <c r="M661" s="3" t="s">
         <v>23</v>
@@ -30898,7 +30865,7 @@
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B662" s="1" t="n">
         <v>0</v>
@@ -30907,7 +30874,7 @@
         <v>644</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E662" s="3" t="s">
         <v>22</v>
@@ -30928,10 +30895,10 @@
         <v>552</v>
       </c>
       <c r="K662" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="L662" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="L662" s="3" t="s">
-        <v>680</v>
       </c>
       <c r="M662" s="3" t="s">
         <v>23</v>
@@ -30945,7 +30912,7 @@
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B663" s="1" t="n">
         <v>0</v>
@@ -30954,7 +30921,7 @@
         <v>644</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E663" s="3" t="s">
         <v>22</v>
@@ -30975,10 +30942,10 @@
         <v>552</v>
       </c>
       <c r="K663" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="L663" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="L663" s="3" t="s">
-        <v>680</v>
       </c>
       <c r="M663" s="3" t="s">
         <v>23</v>
@@ -30992,7 +30959,7 @@
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B664" s="1" t="n">
         <v>0</v>
@@ -31001,7 +30968,7 @@
         <v>644</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E664" s="3" t="s">
         <v>22</v>
@@ -31022,10 +30989,10 @@
         <v>552</v>
       </c>
       <c r="K664" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="L664" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="L664" s="3" t="s">
-        <v>680</v>
       </c>
       <c r="M664" s="3" t="s">
         <v>23</v>
@@ -31039,7 +31006,7 @@
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B665" s="1" t="n">
         <v>0</v>
@@ -31048,7 +31015,7 @@
         <v>644</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E665" s="3" t="s">
         <v>22</v>
@@ -31069,10 +31036,10 @@
         <v>552</v>
       </c>
       <c r="K665" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="L665" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="L665" s="3" t="s">
-        <v>680</v>
       </c>
       <c r="M665" s="3" t="s">
         <v>23</v>
@@ -31086,7 +31053,7 @@
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B666" s="1" t="n">
         <v>0</v>
@@ -31095,7 +31062,7 @@
         <v>644</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E666" s="3" t="s">
         <v>22</v>
@@ -31116,10 +31083,10 @@
         <v>552</v>
       </c>
       <c r="K666" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="L666" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="L666" s="3" t="s">
-        <v>680</v>
       </c>
       <c r="M666" s="3" t="s">
         <v>23</v>
@@ -31133,7 +31100,7 @@
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B667" s="1" t="n">
         <v>0</v>
@@ -31142,7 +31109,7 @@
         <v>644</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E667" s="3" t="s">
         <v>22</v>
@@ -31163,10 +31130,10 @@
         <v>552</v>
       </c>
       <c r="K667" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="L667" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="L667" s="3" t="s">
-        <v>680</v>
       </c>
       <c r="M667" s="3" t="s">
         <v>23</v>
@@ -31180,7 +31147,7 @@
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B668" s="1" t="n">
         <v>0</v>
@@ -31189,7 +31156,7 @@
         <v>644</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E668" s="3" t="s">
         <v>22</v>
@@ -31210,10 +31177,10 @@
         <v>552</v>
       </c>
       <c r="K668" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="L668" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="L668" s="3" t="s">
-        <v>680</v>
       </c>
       <c r="M668" s="3" t="s">
         <v>23</v>
@@ -31227,7 +31194,7 @@
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B669" s="1" t="n">
         <v>0</v>
@@ -31236,7 +31203,7 @@
         <v>644</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E669" s="3" t="s">
         <v>22</v>
@@ -31257,10 +31224,10 @@
         <v>552</v>
       </c>
       <c r="K669" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="L669" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="L669" s="3" t="s">
-        <v>680</v>
       </c>
       <c r="M669" s="3" t="s">
         <v>23</v>
@@ -31274,7 +31241,7 @@
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B670" s="1" t="n">
         <v>0</v>
@@ -31283,7 +31250,7 @@
         <v>644</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E670" s="3" t="s">
         <v>22</v>
@@ -31324,10 +31291,10 @@
         <v>644</v>
       </c>
       <c r="D671" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="E671" s="3" t="s">
         <v>693</v>
-      </c>
-      <c r="E671" s="3" t="s">
-        <v>694</v>
       </c>
       <c r="F671" s="3" t="s">
         <v>22</v>
@@ -31365,7 +31332,7 @@
         <v>644</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E672" s="3" t="s">
         <v>22</v>
@@ -31427,10 +31394,10 @@
         <v>552</v>
       </c>
       <c r="K673" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L673" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L673" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M673" s="3" t="s">
         <v>23</v>
@@ -31444,7 +31411,7 @@
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B674" s="1" t="n">
         <v>0</v>
@@ -31474,10 +31441,10 @@
         <v>552</v>
       </c>
       <c r="K674" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L674" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L674" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M674" s="3" t="s">
         <v>23</v>
@@ -31521,10 +31488,10 @@
         <v>552</v>
       </c>
       <c r="K675" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L675" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L675" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M675" s="3" t="s">
         <v>23</v>
@@ -31568,10 +31535,10 @@
         <v>552</v>
       </c>
       <c r="K676" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L676" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L676" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M676" s="3" t="s">
         <v>23</v>
@@ -31615,10 +31582,10 @@
         <v>552</v>
       </c>
       <c r="K677" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L677" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L677" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M677" s="3" t="s">
         <v>23</v>
@@ -31662,10 +31629,10 @@
         <v>552</v>
       </c>
       <c r="K678" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L678" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L678" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M678" s="3" t="s">
         <v>23</v>
@@ -31709,10 +31676,10 @@
         <v>552</v>
       </c>
       <c r="K679" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L679" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L679" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M679" s="3" t="s">
         <v>23</v>
@@ -31756,10 +31723,10 @@
         <v>552</v>
       </c>
       <c r="K680" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L680" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L680" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M680" s="3" t="s">
         <v>23</v>
@@ -31803,10 +31770,10 @@
         <v>552</v>
       </c>
       <c r="K681" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L681" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L681" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M681" s="3" t="s">
         <v>23</v>
@@ -31850,10 +31817,10 @@
         <v>552</v>
       </c>
       <c r="K682" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L682" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L682" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M682" s="3" t="s">
         <v>23</v>
@@ -31897,10 +31864,10 @@
         <v>552</v>
       </c>
       <c r="K683" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L683" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L683" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M683" s="3" t="s">
         <v>23</v>
@@ -31944,10 +31911,10 @@
         <v>552</v>
       </c>
       <c r="K684" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L684" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L684" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M684" s="3" t="s">
         <v>23</v>
@@ -31991,10 +31958,10 @@
         <v>552</v>
       </c>
       <c r="K685" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L685" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L685" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M685" s="3" t="s">
         <v>23</v>
@@ -32038,10 +32005,10 @@
         <v>552</v>
       </c>
       <c r="K686" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L686" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L686" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M686" s="3" t="s">
         <v>23</v>
@@ -32085,10 +32052,10 @@
         <v>552</v>
       </c>
       <c r="K687" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L687" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L687" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M687" s="3" t="s">
         <v>23</v>
@@ -32132,10 +32099,10 @@
         <v>552</v>
       </c>
       <c r="K688" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L688" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L688" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M688" s="3" t="s">
         <v>23</v>
@@ -32179,10 +32146,10 @@
         <v>552</v>
       </c>
       <c r="K689" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L689" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L689" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M689" s="3" t="s">
         <v>23</v>
@@ -32226,10 +32193,10 @@
         <v>552</v>
       </c>
       <c r="K690" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L690" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L690" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M690" s="3" t="s">
         <v>23</v>
@@ -32273,10 +32240,10 @@
         <v>552</v>
       </c>
       <c r="K691" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L691" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L691" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M691" s="3" t="s">
         <v>23</v>
@@ -32320,10 +32287,10 @@
         <v>552</v>
       </c>
       <c r="K692" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L692" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L692" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M692" s="3" t="s">
         <v>23</v>
@@ -32367,10 +32334,10 @@
         <v>552</v>
       </c>
       <c r="K693" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L693" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L693" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M693" s="3" t="s">
         <v>23</v>
@@ -32414,10 +32381,10 @@
         <v>552</v>
       </c>
       <c r="K694" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L694" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L694" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M694" s="3" t="s">
         <v>23</v>
@@ -32461,10 +32428,10 @@
         <v>552</v>
       </c>
       <c r="K695" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L695" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L695" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M695" s="3" t="s">
         <v>23</v>
@@ -32508,10 +32475,10 @@
         <v>552</v>
       </c>
       <c r="K696" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L696" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="L696" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="M696" s="3" t="s">
         <v>23</v>
@@ -32566,7 +32533,7 @@
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B698" s="1" t="n">
         <v>0</v>
@@ -32575,7 +32542,7 @@
         <v>644</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E698" s="3" t="s">
         <v>22</v>
@@ -32616,7 +32583,7 @@
         <v>644</v>
       </c>
       <c r="D699" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E699" s="3" t="s">
         <v>22</v>
@@ -32657,7 +32624,7 @@
         <v>644</v>
       </c>
       <c r="D700" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E700" s="3" t="s">
         <v>22</v>
@@ -32675,28 +32642,28 @@
         <v>2017</v>
       </c>
       <c r="J700" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="K700" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="K700" s="3" t="s">
+      <c r="L700" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="L700" s="3" t="s">
+      <c r="M700" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N700" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O700" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="M700" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N700" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O700" s="3" t="s">
+      <c r="P700" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="P700" s="3" t="s">
+      <c r="Q700" s="3" t="s">
         <v>707</v>
-      </c>
-      <c r="Q700" s="3" t="s">
-        <v>708</v>
       </c>
       <c r="R700" s="3" t="s">
         <v>22</v>
@@ -32716,7 +32683,7 @@
         <v>644</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E701" s="3" t="s">
         <v>22</v>
@@ -32734,28 +32701,28 @@
         <v>2017</v>
       </c>
       <c r="J701" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="K701" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="K701" s="3" t="s">
+      <c r="L701" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="L701" s="3" t="s">
+      <c r="M701" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N701" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O701" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="M701" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N701" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O701" s="3" t="s">
+      <c r="P701" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="P701" s="3" t="s">
+      <c r="Q701" s="3" t="s">
         <v>707</v>
-      </c>
-      <c r="Q701" s="3" t="s">
-        <v>708</v>
       </c>
       <c r="R701" s="3" t="s">
         <v>22</v>
@@ -32766,7 +32733,7 @@
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B702" s="1" t="n">
         <v>0</v>
@@ -32775,7 +32742,7 @@
         <v>644</v>
       </c>
       <c r="D702" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E702" s="3" t="s">
         <v>22</v>
@@ -32816,7 +32783,7 @@
         <v>644</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E703" s="3" t="s">
         <v>22</v>
@@ -32857,7 +32824,7 @@
         <v>644</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E704" s="3" t="s">
         <v>22</v>
@@ -32898,7 +32865,7 @@
         <v>644</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E705" s="3" t="s">
         <v>646</v>
@@ -32930,7 +32897,7 @@
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B706" s="1" t="n">
         <v>0</v>
@@ -32939,7 +32906,7 @@
         <v>644</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E706" s="3" t="s">
         <v>22</v>
@@ -33001,10 +32968,10 @@
         <v>552</v>
       </c>
       <c r="K707" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="L707" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="L707" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="M707" s="3" t="s">
         <v>23</v>
@@ -33048,10 +33015,10 @@
         <v>552</v>
       </c>
       <c r="K708" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="L708" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="L708" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="M708" s="3" t="s">
         <v>23</v>
@@ -33095,10 +33062,10 @@
         <v>552</v>
       </c>
       <c r="K709" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="L709" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="L709" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="M709" s="3" t="s">
         <v>23</v>
@@ -33142,10 +33109,10 @@
         <v>552</v>
       </c>
       <c r="K710" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="L710" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="L710" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="M710" s="3" t="s">
         <v>23</v>
@@ -33189,10 +33156,10 @@
         <v>552</v>
       </c>
       <c r="K711" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="L711" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="L711" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="M711" s="3" t="s">
         <v>23</v>
@@ -33236,10 +33203,10 @@
         <v>552</v>
       </c>
       <c r="K712" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="L712" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="L712" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="M712" s="3" t="s">
         <v>23</v>
@@ -33283,10 +33250,10 @@
         <v>552</v>
       </c>
       <c r="K713" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="L713" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="L713" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="M713" s="3" t="s">
         <v>23</v>
@@ -33330,10 +33297,10 @@
         <v>552</v>
       </c>
       <c r="K714" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="L714" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="L714" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="M714" s="3" t="s">
         <v>23</v>
@@ -33377,10 +33344,10 @@
         <v>552</v>
       </c>
       <c r="K715" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="L715" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="L715" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="M715" s="3" t="s">
         <v>23</v>
@@ -33403,7 +33370,7 @@
         <v>644</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E716" s="3" t="s">
         <v>22</v>
@@ -33435,7 +33402,7 @@
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B717" s="1" t="n">
         <v>0</v>
@@ -33444,7 +33411,7 @@
         <v>644</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E717" s="3" t="s">
         <v>646</v>
@@ -33506,10 +33473,10 @@
         <v>552</v>
       </c>
       <c r="K718" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="L718" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="L718" s="3" t="s">
-        <v>722</v>
       </c>
       <c r="M718" s="3" t="s">
         <v>23</v>
@@ -33553,10 +33520,10 @@
         <v>552</v>
       </c>
       <c r="K719" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="L719" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="L719" s="3" t="s">
-        <v>722</v>
       </c>
       <c r="M719" s="3" t="s">
         <v>23</v>
@@ -33600,10 +33567,10 @@
         <v>552</v>
       </c>
       <c r="K720" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="L720" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="L720" s="3" t="s">
-        <v>722</v>
       </c>
       <c r="M720" s="3" t="s">
         <v>23</v>
@@ -33647,10 +33614,10 @@
         <v>552</v>
       </c>
       <c r="K721" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="L721" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="L721" s="3" t="s">
-        <v>722</v>
       </c>
       <c r="M721" s="3" t="s">
         <v>23</v>
@@ -33673,7 +33640,7 @@
         <v>644</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E722" s="3" t="s">
         <v>22</v>
@@ -33705,7 +33672,7 @@
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B723" s="1" t="n">
         <v>0</v>
@@ -33714,7 +33681,7 @@
         <v>644</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E723" s="3" t="s">
         <v>22</v>
@@ -33746,7 +33713,7 @@
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B724" s="1" t="n">
         <v>0</v>
@@ -33755,7 +33722,7 @@
         <v>644</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E724" s="3" t="s">
         <v>22</v>
@@ -33776,10 +33743,10 @@
         <v>552</v>
       </c>
       <c r="K724" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="L724" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="L724" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="M724" s="3" t="s">
         <v>23</v>
@@ -33802,7 +33769,7 @@
         <v>644</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E725" s="3" t="s">
         <v>22</v>
@@ -33823,10 +33790,10 @@
         <v>552</v>
       </c>
       <c r="K725" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="L725" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="L725" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="M725" s="3" t="s">
         <v>23</v>
@@ -33840,7 +33807,7 @@
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B726" s="1" t="n">
         <v>0</v>
@@ -33849,7 +33816,7 @@
         <v>644</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E726" s="3" t="s">
         <v>22</v>
@@ -33870,10 +33837,10 @@
         <v>552</v>
       </c>
       <c r="K726" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="L726" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="L726" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="M726" s="3" t="s">
         <v>23</v>
@@ -33887,7 +33854,7 @@
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B727" s="1" t="n">
         <v>0</v>
@@ -33896,7 +33863,7 @@
         <v>644</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E727" s="3" t="s">
         <v>22</v>
@@ -33917,10 +33884,10 @@
         <v>552</v>
       </c>
       <c r="K727" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="L727" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="L727" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="M727" s="3" t="s">
         <v>23</v>
@@ -33934,7 +33901,7 @@
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B728" s="1" t="n">
         <v>0</v>
@@ -33943,7 +33910,7 @@
         <v>644</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E728" s="3" t="s">
         <v>22</v>
@@ -33964,10 +33931,10 @@
         <v>552</v>
       </c>
       <c r="K728" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="L728" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="L728" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="M728" s="3" t="s">
         <v>23</v>
@@ -33981,7 +33948,7 @@
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B729" s="1" t="n">
         <v>0</v>
@@ -33990,7 +33957,7 @@
         <v>644</v>
       </c>
       <c r="D729" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E729" s="3" t="s">
         <v>22</v>
@@ -34011,10 +33978,10 @@
         <v>552</v>
       </c>
       <c r="K729" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="L729" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="L729" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="M729" s="3" t="s">
         <v>23</v>
@@ -34028,7 +33995,7 @@
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B730" s="1" t="n">
         <v>0</v>
@@ -34037,7 +34004,7 @@
         <v>644</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E730" s="3" t="s">
         <v>22</v>
@@ -34058,10 +34025,10 @@
         <v>552</v>
       </c>
       <c r="K730" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="L730" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="L730" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="M730" s="3" t="s">
         <v>23</v>
@@ -34075,7 +34042,7 @@
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B731" s="1" t="n">
         <v>0</v>
@@ -34084,7 +34051,7 @@
         <v>644</v>
       </c>
       <c r="D731" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E731" s="3" t="s">
         <v>22</v>
@@ -34105,10 +34072,10 @@
         <v>552</v>
       </c>
       <c r="K731" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="L731" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="L731" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="M731" s="3" t="s">
         <v>23</v>
@@ -34163,7 +34130,7 @@
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B733" s="1" t="n">
         <v>0</v>
@@ -34172,7 +34139,7 @@
         <v>644</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E733" s="3" t="s">
         <v>22</v>
@@ -34190,10 +34157,10 @@
         <v>2005</v>
       </c>
       <c r="J733" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="K733" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="K733" s="3" t="s">
-        <v>736</v>
       </c>
       <c r="L733" s="3" t="s">
         <v>23</v>
@@ -34210,7 +34177,7 @@
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B734" s="1" t="n">
         <v>0</v>
@@ -34219,7 +34186,7 @@
         <v>644</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E734" s="3" t="s">
         <v>22</v>
@@ -34237,10 +34204,10 @@
         <v>2005</v>
       </c>
       <c r="J734" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="K734" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="K734" s="3" t="s">
-        <v>736</v>
       </c>
       <c r="L734" s="3" t="s">
         <v>23</v>
@@ -34257,7 +34224,7 @@
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B735" s="1" t="n">
         <v>0</v>
@@ -34266,7 +34233,7 @@
         <v>644</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E735" s="3" t="s">
         <v>22</v>
@@ -34307,7 +34274,7 @@
         <v>644</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E736" s="3" t="s">
         <v>22</v>
@@ -34339,7 +34306,7 @@
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B737" s="1" t="n">
         <v>0</v>
@@ -34348,7 +34315,7 @@
         <v>644</v>
       </c>
       <c r="D737" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E737" s="3" t="s">
         <v>22</v>
@@ -34389,7 +34356,7 @@
         <v>644</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E738" s="3" t="s">
         <v>22</v>
@@ -34427,10 +34394,10 @@
         <v>0</v>
       </c>
       <c r="C739" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D739" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="D739" s="2" t="s">
-        <v>745</v>
       </c>
       <c r="E739" s="3" t="s">
         <v>22</v>
@@ -34468,7 +34435,7 @@
         <v>0</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D740" s="2" t="s">
         <v>178</v>
@@ -34509,7 +34476,7 @@
         <v>0</v>
       </c>
       <c r="C741" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D741" s="2" t="s">
         <v>181</v>
@@ -34544,16 +34511,16 @@
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B742" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C742" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B742" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C742" s="1" t="s">
+      <c r="D742" s="4" t="s">
         <v>748</v>
-      </c>
-      <c r="D742" s="4" t="s">
-        <v>749</v>
       </c>
       <c r="E742" s="3" t="s">
         <v>22</v>
@@ -34571,13 +34538,13 @@
         <v>2009</v>
       </c>
       <c r="J742" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="K742" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="K742" s="3" t="s">
+      <c r="L742" s="3" t="s">
         <v>751</v>
-      </c>
-      <c r="L742" s="3" t="s">
-        <v>752</v>
       </c>
       <c r="M742" s="3" t="s">
         <v>23</v>
@@ -34592,7 +34559,7 @@
         <v>445</v>
       </c>
       <c r="Q742" s="3" t="s">
-        <v>753</v>
+        <v>446</v>
       </c>
       <c r="R742" s="3" t="s">
         <v>22</v>
@@ -34603,16 +34570,16 @@
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B743" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C743" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B743" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C743" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="D743" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E743" s="3" t="s">
         <v>22</v>
@@ -34630,13 +34597,13 @@
         <v>2010</v>
       </c>
       <c r="J743" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="K743" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="L743" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="M743" s="3" t="s">
         <v>23</v>
@@ -34656,10 +34623,10 @@
         <v>0</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E744" s="3" t="s">
         <v>22</v>
@@ -34677,13 +34644,13 @@
         <v>2010</v>
       </c>
       <c r="J744" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="K744" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="L744" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="M744" s="3" t="s">
         <v>23</v>
@@ -34703,7 +34670,7 @@
         <v>0</v>
       </c>
       <c r="C745" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D745" s="2" t="s">
         <v>352</v>
@@ -34724,13 +34691,13 @@
         <v>2017</v>
       </c>
       <c r="J745" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="K745" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="K745" s="3" t="s">
-        <v>757</v>
-      </c>
       <c r="L745" s="3" t="s">
-        <v>758</v>
+        <v>721</v>
       </c>
       <c r="M745" s="3" t="s">
         <v>23</v>
@@ -34753,10 +34720,10 @@
         <v>0</v>
       </c>
       <c r="C746" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E746" s="3" t="s">
         <v>22</v>
@@ -34774,13 +34741,13 @@
         <v>2018</v>
       </c>
       <c r="J746" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="K746" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="L746" s="3" t="s">
-        <v>758</v>
+        <v>721</v>
       </c>
       <c r="M746" s="3" t="s">
         <v>23</v>
@@ -34803,10 +34770,10 @@
         <v>0</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E747" s="3" t="s">
         <v>22</v>
@@ -34824,13 +34791,13 @@
         <v>2018</v>
       </c>
       <c r="J747" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="K747" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="L747" s="3" t="s">
-        <v>758</v>
+        <v>721</v>
       </c>
       <c r="M747" s="3" t="s">
         <v>23</v>
@@ -34853,7 +34820,7 @@
         <v>0</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D748" s="2" t="s">
         <v>380</v>
@@ -34874,10 +34841,10 @@
         <v>2016</v>
       </c>
       <c r="J748" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="K748" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="L748" s="3" t="s">
         <v>23</v>
@@ -34895,7 +34862,7 @@
         <v>445</v>
       </c>
       <c r="Q748" s="3" t="s">
-        <v>763</v>
+        <v>707</v>
       </c>
       <c r="R748" s="3" t="s">
         <v>22</v>
@@ -34906,16 +34873,16 @@
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="5" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B749" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D749" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E749" s="3" t="s">
         <v>22</v>
@@ -34933,13 +34900,13 @@
         <v>2013</v>
       </c>
       <c r="J749" s="3" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="K749" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="L749" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="M749" s="3" t="s">
         <v>23</v>
@@ -34962,10 +34929,10 @@
         <v>0</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E750" s="3" t="s">
         <v>22</v>
@@ -34983,13 +34950,13 @@
         <v>2013</v>
       </c>
       <c r="J750" s="3" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="K750" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="L750" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="M750" s="3" t="s">
         <v>23</v>
@@ -35012,7 +34979,7 @@
         <v>0</v>
       </c>
       <c r="C751" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D751" s="2" t="s">
         <v>441</v>
@@ -35036,7 +35003,7 @@
         <v>442</v>
       </c>
       <c r="K751" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L751" s="3" t="s">
         <v>443</v>
@@ -35071,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="C752" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D752" s="2" t="s">
         <v>65</v>
@@ -35092,13 +35059,13 @@
         <v>2018</v>
       </c>
       <c r="J752" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="K752" s="3" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="L752" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="M752" s="3" t="s">
         <v>23</v>
@@ -35121,7 +35088,7 @@
         <v>0</v>
       </c>
       <c r="C753" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D753" s="2" t="s">
         <v>65</v>
@@ -35142,13 +35109,13 @@
         <v>2018</v>
       </c>
       <c r="J753" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="K753" s="3" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="L753" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="M753" s="3" t="s">
         <v>23</v>
@@ -35171,7 +35138,7 @@
         <v>0</v>
       </c>
       <c r="C754" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D754" s="2" t="s">
         <v>65</v>
@@ -35192,13 +35159,13 @@
         <v>2018</v>
       </c>
       <c r="J754" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="K754" s="3" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="L754" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="M754" s="3" t="s">
         <v>23</v>
@@ -35221,7 +35188,7 @@
         <v>0</v>
       </c>
       <c r="C755" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D755" s="2" t="s">
         <v>69</v>
@@ -35242,13 +35209,13 @@
         <v>2018</v>
       </c>
       <c r="J755" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="K755" s="3" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="L755" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="M755" s="3" t="s">
         <v>23</v>
@@ -35271,10 +35238,10 @@
         <v>0</v>
       </c>
       <c r="C756" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D756" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E756" s="3" t="s">
         <v>22</v>
@@ -35292,13 +35259,13 @@
         <v>2010</v>
       </c>
       <c r="J756" s="3" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="K756" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="L756" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="M756" s="3" t="s">
         <v>23</v>
@@ -35315,16 +35282,16 @@
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="5" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B757" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C757" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D757" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E757" s="3" t="s">
         <v>22</v>
@@ -35342,13 +35309,13 @@
         <v>2010</v>
       </c>
       <c r="J757" s="3" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="K757" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="L757" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="M757" s="3" t="s">
         <v>23</v>
@@ -35371,10 +35338,10 @@
         <v>0</v>
       </c>
       <c r="C758" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E758" s="3" t="s">
         <v>22</v>
@@ -35392,13 +35359,13 @@
         <v>2010</v>
       </c>
       <c r="J758" s="3" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="K758" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="L758" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="M758" s="3" t="s">
         <v>23</v>
@@ -35421,7 +35388,7 @@
         <v>0</v>
       </c>
       <c r="C759" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D759" s="2" t="s">
         <v>352</v>
@@ -35442,13 +35409,13 @@
         <v>2017</v>
       </c>
       <c r="J759" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="K759" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="K759" s="3" t="s">
-        <v>757</v>
-      </c>
       <c r="L759" s="3" t="s">
-        <v>758</v>
+        <v>721</v>
       </c>
       <c r="M759" s="3" t="s">
         <v>23</v>
@@ -35471,7 +35438,7 @@
         <v>0</v>
       </c>
       <c r="C760" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D760" s="2" t="s">
         <v>352</v>
@@ -35492,13 +35459,13 @@
         <v>2017</v>
       </c>
       <c r="J760" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="K760" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="K760" s="3" t="s">
-        <v>757</v>
-      </c>
       <c r="L760" s="3" t="s">
-        <v>758</v>
+        <v>721</v>
       </c>
       <c r="M760" s="3" t="s">
         <v>23</v>
@@ -35515,16 +35482,16 @@
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B761" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E761" s="3" t="s">
         <v>22</v>
@@ -35542,28 +35509,28 @@
         <v>2018</v>
       </c>
       <c r="J761" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="K761" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="L761" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="M761" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N761" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O761" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="P761" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="K761" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="L761" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="M761" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N761" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O761" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="P761" s="3" t="s">
-        <v>784</v>
-      </c>
       <c r="Q761" s="3" t="s">
-        <v>785</v>
+        <v>446</v>
       </c>
       <c r="R761" s="3" t="s">
         <v>22</v>
@@ -35574,16 +35541,16 @@
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="5" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B762" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C762" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D762" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E762" s="3" t="s">
         <v>22</v>
@@ -35601,28 +35568,28 @@
         <v>2018</v>
       </c>
       <c r="J762" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="K762" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="L762" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="M762" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N762" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O762" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="P762" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="K762" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="L762" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="M762" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N762" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O762" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="P762" s="3" t="s">
-        <v>784</v>
-      </c>
       <c r="Q762" s="3" t="s">
-        <v>785</v>
+        <v>446</v>
       </c>
       <c r="R762" s="3" t="s">
         <v>22</v>
@@ -35633,16 +35600,16 @@
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="5" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B763" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C763" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D763" s="2" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E763" s="3" t="s">
         <v>22</v>
@@ -35660,13 +35627,13 @@
         <v>2017</v>
       </c>
       <c r="J763" s="3" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="K763" s="3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="L763" s="3" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="M763" s="3" t="s">
         <v>23</v>
@@ -35692,16 +35659,16 @@
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="5" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B764" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C764" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D764" s="2" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E764" s="3" t="s">
         <v>22</v>
@@ -35719,13 +35686,13 @@
         <v>2015</v>
       </c>
       <c r="J764" s="3" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="K764" s="3" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="L764" s="3" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="M764" s="3" t="s">
         <v>23</v>
@@ -35734,13 +35701,13 @@
         <v>22</v>
       </c>
       <c r="O764" s="3" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="P764" s="3" t="s">
         <v>651</v>
       </c>
       <c r="Q764" s="3" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="R764" s="3" t="s">
         <v>22</v>
@@ -35757,10 +35724,10 @@
         <v>0</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E765" s="3" t="s">
         <v>22</v>
@@ -35798,10 +35765,10 @@
         <v>0</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E766" s="3" t="s">
         <v>22</v>
@@ -35833,16 +35800,16 @@
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="5" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B767" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C767" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D767" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E767" s="3" t="s">
         <v>22</v>
@@ -35874,16 +35841,16 @@
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="5" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B768" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C768" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D768" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E768" s="3" t="s">
         <v>22</v>
@@ -35921,7 +35888,7 @@
         <v>0</v>
       </c>
       <c r="C769" s="1" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D769" s="2" t="s">
         <v>302</v>
@@ -35962,7 +35929,7 @@
         <v>0</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D770" s="2" t="s">
         <v>332</v>
@@ -35997,13 +35964,13 @@
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="5" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B771" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C771" s="1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D771" s="2" t="s">
         <v>332</v>
@@ -36044,7 +36011,7 @@
         <v>0</v>
       </c>
       <c r="C772" s="1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D772" s="2" t="s">
         <v>332</v>
@@ -36085,7 +36052,7 @@
         <v>0</v>
       </c>
       <c r="C773" s="1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D773" s="2" t="s">
         <v>332</v>
@@ -36126,7 +36093,7 @@
         <v>0</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D774" s="2" t="s">
         <v>178</v>
@@ -36161,16 +36128,16 @@
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="5" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B775" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C775" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E775" s="3" t="s">
         <v>22</v>
@@ -36202,16 +36169,16 @@
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="5" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B776" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C776" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D776" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E776" s="3" t="s">
         <v>22</v>
@@ -36243,16 +36210,16 @@
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="5" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B777" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C777" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E777" s="3" t="s">
         <v>22</v>
@@ -36284,16 +36251,16 @@
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="5" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B778" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E778" s="3" t="s">
         <v>22</v>
@@ -36331,10 +36298,10 @@
         <v>0</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D779" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E779" s="3" t="s">
         <v>22</v>
@@ -36372,10 +36339,10 @@
         <v>0</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E780" s="3" t="s">
         <v>22</v>
@@ -36413,7 +36380,7 @@
         <v>0</v>
       </c>
       <c r="C781" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D781" s="2" t="s">
         <v>36</v>
@@ -36448,16 +36415,16 @@
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B782" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C782" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D782" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="E782" s="3" t="s">
         <v>22</v>
@@ -36489,16 +36456,16 @@
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="5" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B783" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C783" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D783" s="2" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="E783" s="3" t="s">
         <v>22</v>
@@ -36536,7 +36503,7 @@
         <v>0</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D784" s="2" t="s">
         <v>531</v>
@@ -36571,16 +36538,16 @@
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="5" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B785" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C785" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D785" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="E785" s="3" t="s">
         <v>22</v>
@@ -36618,10 +36585,10 @@
         <v>0</v>
       </c>
       <c r="C786" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="E786" s="3" t="s">
         <v>22</v>
@@ -36653,16 +36620,16 @@
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="5" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B787" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D787" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="E787" s="3" t="s">
         <v>22</v>
@@ -36694,16 +36661,16 @@
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="5" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B788" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C788" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D788" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="E788" s="3" t="s">
         <v>22</v>
@@ -36735,16 +36702,16 @@
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="5" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B789" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="E789" s="3" t="s">
         <v>22</v>
@@ -36776,16 +36743,16 @@
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="5" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B790" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C790" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="E790" s="3" t="s">
         <v>22</v>
@@ -36817,16 +36784,16 @@
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="5" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B791" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D791" s="2" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="E791" s="3" t="s">
         <v>22</v>
@@ -36858,16 +36825,16 @@
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="5" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B792" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C792" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="E792" s="3" t="s">
         <v>22</v>
@@ -36905,10 +36872,10 @@
         <v>0</v>
       </c>
       <c r="C793" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D793" s="2" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E793" s="3" t="s">
         <v>22</v>
@@ -36946,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="C794" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D794" s="2" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E794" s="3" t="s">
         <v>22</v>
@@ -36987,10 +36954,10 @@
         <v>0</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D795" s="2" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E795" s="3" t="s">
         <v>22</v>
@@ -37028,10 +36995,10 @@
         <v>0</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D796" s="2" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E796" s="3" t="s">
         <v>22</v>
@@ -37069,7 +37036,7 @@
         <v>0</v>
       </c>
       <c r="C797" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D797" s="2" t="s">
         <v>292</v>
@@ -37110,7 +37077,7 @@
         <v>0</v>
       </c>
       <c r="C798" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D798" s="2" t="s">
         <v>292</v>
@@ -37151,7 +37118,7 @@
         <v>0</v>
       </c>
       <c r="C799" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D799" s="2" t="s">
         <v>292</v>
@@ -37186,13 +37153,13 @@
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="5" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B800" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C800" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D800" s="2" t="s">
         <v>292</v>
@@ -37233,7 +37200,7 @@
         <v>0</v>
       </c>
       <c r="C801" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D801" s="2" t="s">
         <v>292</v>
@@ -37274,7 +37241,7 @@
         <v>0</v>
       </c>
       <c r="C802" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D802" s="2" t="s">
         <v>292</v>
@@ -37315,7 +37282,7 @@
         <v>0</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D803" s="2" t="s">
         <v>292</v>
@@ -37350,16 +37317,16 @@
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="5" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B804" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C804" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="E804" s="3" t="s">
         <v>22</v>
@@ -37391,16 +37358,16 @@
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="5" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B805" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C805" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D805" s="2" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E805" s="3" t="s">
         <v>237</v>
@@ -37432,16 +37399,16 @@
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="5" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B806" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D806" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E806" s="3" t="s">
         <v>37</v>
@@ -37479,13 +37446,13 @@
         <v>0</v>
       </c>
       <c r="C807" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D807" s="2" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="E807" s="3" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="F807" s="3" t="s">
         <v>22</v>
@@ -37520,7 +37487,7 @@
         <v>0</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D808" s="2" t="s">
         <v>471</v>
@@ -37561,10 +37528,10 @@
         <v>0</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D809" s="2" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E809" s="3" t="s">
         <v>237</v>
@@ -37576,7 +37543,7 @@
         <v>23</v>
       </c>
       <c r="H809" s="5" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="I809" s="3" t="n">
         <v>2016</v>
@@ -37596,16 +37563,16 @@
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="5" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B810" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D810" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E810" s="3" t="s">
         <v>22</v>
@@ -37637,16 +37604,16 @@
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="5" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B811" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D811" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E811" s="3" t="s">
         <v>22</v>
@@ -37664,13 +37631,13 @@
         <v>2011</v>
       </c>
       <c r="J811" s="3" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="K811" s="3" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="L811" s="3" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="M811" s="3" t="s">
         <v>23</v>
@@ -37685,7 +37652,7 @@
         <v>23</v>
       </c>
       <c r="Q811" s="3" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="R811" s="3" t="s">
         <v>22</v>
@@ -37702,10 +37669,10 @@
         <v>0</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D812" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E812" s="3" t="s">
         <v>22</v>
@@ -37723,13 +37690,13 @@
         <v>2011</v>
       </c>
       <c r="J812" s="3" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="K812" s="3" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="L812" s="3" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="M812" s="3" t="s">
         <v>23</v>
@@ -37744,7 +37711,7 @@
         <v>23</v>
       </c>
       <c r="Q812" s="3" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="R812" s="3" t="s">
         <v>22</v>
@@ -37761,10 +37728,10 @@
         <v>0</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D813" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E813" s="3" t="s">
         <v>22</v>
@@ -37782,13 +37749,13 @@
         <v>2011</v>
       </c>
       <c r="J813" s="3" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="K813" s="3" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="L813" s="3" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="M813" s="3" t="s">
         <v>23</v>
@@ -37803,7 +37770,7 @@
         <v>23</v>
       </c>
       <c r="Q813" s="3" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="R813" s="3" t="s">
         <v>22</v>
@@ -37820,10 +37787,10 @@
         <v>0</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D814" s="2" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="E814" s="3" t="s">
         <v>22</v>
@@ -37855,16 +37822,16 @@
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="5" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B815" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D815" s="2" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="E815" s="3" t="s">
         <v>192</v>
@@ -37896,16 +37863,16 @@
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="5" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B816" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D816" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E816" s="3" t="s">
         <v>22</v>
@@ -37937,16 +37904,16 @@
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="5" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B817" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D817" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E817" s="3" t="s">
         <v>22</v>
@@ -37978,16 +37945,16 @@
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="5" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="B818" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D818" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E818" s="3" t="s">
         <v>22</v>
@@ -38025,10 +37992,10 @@
         <v>0</v>
       </c>
       <c r="C819" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D819" s="2" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="E819" s="3" t="s">
         <v>22</v>
@@ -38060,16 +38027,16 @@
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="5" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B820" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D820" s="2" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="E820" s="3" t="s">
         <v>22</v>
@@ -38107,10 +38074,10 @@
         <v>0</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D821" s="2" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="E821" s="3" t="s">
         <v>22</v>
@@ -38142,16 +38109,16 @@
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="5" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B822" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D822" s="2" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="E822" s="3" t="s">
         <v>22</v>
@@ -38189,10 +38156,10 @@
         <v>0</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D823" s="2" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E823" s="3" t="s">
         <v>237</v>
@@ -38224,16 +38191,16 @@
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="5" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B824" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D824" s="2" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E824" s="3" t="s">
         <v>22</v>
@@ -38271,10 +38238,10 @@
         <v>0</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D825" s="2" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E825" s="3" t="s">
         <v>22</v>
@@ -38306,16 +38273,16 @@
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="5" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B826" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C826" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D826" s="2" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="E826" s="3" t="s">
         <v>22</v>
@@ -38353,10 +38320,10 @@
         <v>0</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D827" s="2" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E827" s="3" t="s">
         <v>22</v>
@@ -38388,16 +38355,16 @@
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="5" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B828" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D828" s="2" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="E828" s="3" t="s">
         <v>22</v>
@@ -38429,16 +38396,16 @@
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="5" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B829" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D829" s="2" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="E829" s="3" t="s">
         <v>22</v>
@@ -38476,10 +38443,10 @@
         <v>0</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D830" s="2" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="E830" s="3" t="s">
         <v>22</v>
@@ -38517,13 +38484,13 @@
         <v>0</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D831" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E831" s="3" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="F831" s="3" t="s">
         <v>22</v>
@@ -38552,19 +38519,19 @@
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="5" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B832" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C832" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D832" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="E832" s="3" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F832" s="3" t="s">
         <v>22</v>
@@ -38599,10 +38566,10 @@
         <v>0</v>
       </c>
       <c r="C833" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D833" s="2" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="E833" s="3" t="s">
         <v>22</v>
@@ -38634,16 +38601,16 @@
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="5" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B834" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C834" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D834" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E834" s="3" t="s">
         <v>22</v>
@@ -38675,16 +38642,16 @@
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="5" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B835" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C835" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D835" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E835" s="3" t="s">
         <v>22</v>
@@ -38722,10 +38689,10 @@
         <v>0</v>
       </c>
       <c r="C836" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D836" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E836" s="3" t="s">
         <v>22</v>
@@ -38763,10 +38730,10 @@
         <v>0</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D837" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="E837" s="3" t="s">
         <v>22</v>
@@ -38804,7 +38771,7 @@
         <v>0</v>
       </c>
       <c r="C838" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D838" s="2" t="s">
         <v>452</v>
@@ -38819,7 +38786,7 @@
         <v>23</v>
       </c>
       <c r="H838" s="5" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="I838" s="3" t="n">
         <v>2000</v>
@@ -38845,7 +38812,7 @@
         <v>0</v>
       </c>
       <c r="C839" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D839" s="2" t="s">
         <v>497</v>
@@ -38886,13 +38853,13 @@
         <v>0</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="D840" s="2" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="E840" s="3" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="F840" s="3" t="s">
         <v>22</v>
@@ -38921,16 +38888,16 @@
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="5" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B841" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="D841" s="2" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="E841" s="3" t="s">
         <v>22</v>
@@ -38962,16 +38929,16 @@
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="5" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B842" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="D842" s="2" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="E842" s="3" t="s">
         <v>22</v>
@@ -39009,10 +38976,10 @@
         <v>0</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D843" s="2" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="E843" s="3" t="s">
         <v>22</v>
@@ -39050,10 +39017,10 @@
         <v>0</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D844" s="2" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="E844" s="3" t="s">
         <v>22</v>
@@ -39085,16 +39052,16 @@
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="5" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B845" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D845" s="2" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="E845" s="3" t="s">
         <v>22</v>
@@ -39132,10 +39099,10 @@
         <v>0</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D846" s="2" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="E846" s="3" t="s">
         <v>22</v>
@@ -39167,16 +39134,16 @@
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="5" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B847" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C847" s="3" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D847" s="2" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="E847" s="3" t="s">
         <v>22</v>
@@ -39208,16 +39175,16 @@
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B848" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D848" s="2" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="E848" s="3" t="s">
         <v>22</v>
@@ -39255,10 +39222,10 @@
         <v>0</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D849" s="2" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="E849" s="3" t="s">
         <v>22</v>
@@ -39290,16 +39257,16 @@
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="5" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B850" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C850" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D850" s="2" t="s">
         <v>886</v>
-      </c>
-      <c r="D850" s="2" t="s">
-        <v>891</v>
       </c>
       <c r="E850" s="3" t="s">
         <v>22</v>
@@ -39337,7 +39304,7 @@
         <v>0</v>
       </c>
       <c r="C851" s="3" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D851" s="2" t="s">
         <v>143</v>
@@ -39378,7 +39345,7 @@
         <v>0</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D852" s="2" t="s">
         <v>57</v>
@@ -39413,16 +39380,16 @@
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="5" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B853" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C853" s="3" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D853" s="2" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="E853" s="3" t="s">
         <v>22</v>
@@ -39460,10 +39427,10 @@
         <v>0</v>
       </c>
       <c r="C854" s="3" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D854" s="2" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E854" s="3" t="s">
         <v>22</v>
@@ -39501,10 +39468,10 @@
         <v>0</v>
       </c>
       <c r="C855" s="3" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D855" s="2" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E855" s="3" t="s">
         <v>22</v>
@@ -39536,16 +39503,16 @@
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="5" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B856" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D856" s="2" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="E856" s="3" t="s">
         <v>22</v>
@@ -39583,7 +39550,7 @@
         <v>0</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D857" s="2" t="s">
         <v>344</v>
@@ -39624,10 +39591,10 @@
         <v>0</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D858" s="2" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="E858" s="3" t="s">
         <v>22</v>
@@ -39665,10 +39632,10 @@
         <v>0</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D859" s="2" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="E859" s="3" t="s">
         <v>22</v>
@@ -39706,10 +39673,10 @@
         <v>0</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D860" s="2" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="E860" s="3" t="s">
         <v>192</v>
@@ -39747,7 +39714,7 @@
         <v>0</v>
       </c>
       <c r="C861" s="3" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D861" s="2" t="s">
         <v>139</v>
@@ -39788,7 +39755,7 @@
         <v>0</v>
       </c>
       <c r="C862" s="3" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D862" s="2" t="s">
         <v>139</v>
@@ -39829,7 +39796,7 @@
         <v>0</v>
       </c>
       <c r="C863" s="3" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D863" s="2" t="s">
         <v>139</v>
@@ -39870,7 +39837,7 @@
         <v>0</v>
       </c>
       <c r="C864" s="3" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D864" s="2" t="s">
         <v>139</v>
@@ -39905,13 +39872,13 @@
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="5" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B865" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C865" s="3" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D865" s="2" t="s">
         <v>139</v>
@@ -39952,7 +39919,7 @@
         <v>0</v>
       </c>
       <c r="C866" s="3" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D866" s="2" t="s">
         <v>139</v>
@@ -39987,19 +39954,19 @@
     </row>
     <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="5" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B867" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="D867" s="2" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="E867" s="3" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="F867" s="3" t="s">
         <v>38</v>
@@ -40008,19 +39975,19 @@
         <v>23</v>
       </c>
       <c r="H867" s="5" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="I867" s="3" t="n">
         <v>2014</v>
       </c>
       <c r="J867" s="3" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="K867" s="3" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="L867" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M867" s="3" t="s">
         <v>38</v>
@@ -40046,19 +40013,19 @@
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="5" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B868" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="D868" s="2" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="E868" s="3" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="F868" s="3" t="s">
         <v>38</v>
@@ -40067,19 +40034,19 @@
         <v>23</v>
       </c>
       <c r="H868" s="0" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="I868" s="3" t="n">
         <v>2014</v>
       </c>
       <c r="J868" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="K868" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="K868" s="3" t="s">
-        <v>914</v>
-      </c>
       <c r="L868" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M868" s="3" t="s">
         <v>38</v>
@@ -40111,10 +40078,10 @@
         <v>0</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="D869" s="2" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="E869" s="3" t="s">
         <v>500</v>
@@ -40132,10 +40099,10 @@
         <v>2018</v>
       </c>
       <c r="J869" s="3" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="K869" s="3" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="L869" s="3" t="s">
         <v>23</v>
@@ -40153,7 +40120,7 @@
         <v>445</v>
       </c>
       <c r="Q869" s="3" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="R869" s="3" t="s">
         <v>38</v>
@@ -40164,7 +40131,7 @@
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="5" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="B870" s="1" t="n">
         <v>0</v>
@@ -40173,28 +40140,28 @@
         <v>472</v>
       </c>
       <c r="D870" s="2" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="E870" s="3" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="F870" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G870" s="3" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="H870" s="3" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="I870" s="3" t="n">
         <v>2005</v>
       </c>
       <c r="J870" s="3" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="K870" s="3" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="L870" s="3" t="s">
         <v>23</v>
@@ -40232,28 +40199,28 @@
         <v>472</v>
       </c>
       <c r="D871" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="E871" s="3" t="s">
         <v>921</v>
-      </c>
-      <c r="E871" s="3" t="s">
-        <v>927</v>
       </c>
       <c r="F871" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G871" s="3" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="H871" s="3" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="I871" s="3" t="n">
         <v>2005</v>
       </c>
       <c r="J871" s="3" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="K871" s="3" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="L871" s="3" t="s">
         <v>23</v>
@@ -40291,7 +40258,7 @@
         <v>527</v>
       </c>
       <c r="D872" s="2" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="E872" s="3" t="s">
         <v>22</v>
@@ -40309,13 +40276,13 @@
         <v>2006</v>
       </c>
       <c r="J872" s="3" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="K872" s="3" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="L872" s="3" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="M872" s="3" t="s">
         <v>23</v>
@@ -40350,7 +40317,7 @@
         <v>470</v>
       </c>
       <c r="D873" s="2" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="E873" s="3" t="s">
         <v>22</v>
@@ -40368,13 +40335,13 @@
         <v>2006</v>
       </c>
       <c r="J873" s="3" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="K873" s="3" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="L873" s="3" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="M873" s="3" t="s">
         <v>23</v>
@@ -40409,7 +40376,7 @@
         <v>474</v>
       </c>
       <c r="D874" s="2" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="E874" s="3" t="s">
         <v>22</v>
@@ -40427,13 +40394,13 @@
         <v>2006</v>
       </c>
       <c r="J874" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="K874" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="L874" s="3" t="s">
         <v>931</v>
-      </c>
-      <c r="K874" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="L874" s="3" t="s">
-        <v>937</v>
       </c>
       <c r="M874" s="3" t="s">
         <v>23</v>
@@ -40468,7 +40435,7 @@
         <v>628</v>
       </c>
       <c r="D875" s="2" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="E875" s="3" t="s">
         <v>22</v>
@@ -40486,13 +40453,13 @@
         <v>2006</v>
       </c>
       <c r="J875" s="3" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="K875" s="3" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="L875" s="3" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="M875" s="3" t="s">
         <v>23</v>
@@ -40524,10 +40491,10 @@
         <v>0</v>
       </c>
       <c r="C876" s="1" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="D876" s="2" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="E876" s="3" t="s">
         <v>22</v>
@@ -40545,10 +40512,10 @@
         <v>2006</v>
       </c>
       <c r="J876" s="3" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="K876" s="3" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="L876" s="3" t="s">
         <v>23</v>
@@ -40577,7 +40544,7 @@
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="5" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B877" s="1" t="n">
         <v>0</v>
@@ -40586,10 +40553,10 @@
         <v>527</v>
       </c>
       <c r="D877" s="2" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="E877" s="3" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="F877" s="3" t="s">
         <v>22</v>
@@ -40604,13 +40571,13 @@
         <v>2014</v>
       </c>
       <c r="J877" s="3" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="K877" s="3" t="s">
         <v>527</v>
       </c>
       <c r="L877" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M877" s="3" t="s">
         <v>38</v>
@@ -40625,7 +40592,7 @@
         <v>651</v>
       </c>
       <c r="Q877" s="3" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="R877" s="3" t="s">
         <v>38</v>
@@ -40636,7 +40603,7 @@
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="B878" s="1" t="n">
         <v>0</v>
@@ -40645,7 +40612,7 @@
         <v>644</v>
       </c>
       <c r="D878" s="2" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="E878" s="3" t="s">
         <v>22</v>
@@ -40663,13 +40630,13 @@
         <v>2016</v>
       </c>
       <c r="J878" s="0" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="K878" s="3" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="L878" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M878" s="3" t="s">
         <v>38</v>
@@ -40684,7 +40651,7 @@
         <v>23</v>
       </c>
       <c r="Q878" s="3" t="s">
-        <v>951</v>
+        <v>446</v>
       </c>
       <c r="R878" s="3" t="s">
         <v>38</v>
@@ -40704,7 +40671,7 @@
         <v>644</v>
       </c>
       <c r="D879" s="2" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="E879" s="3" t="s">
         <v>22</v>
@@ -40722,13 +40689,13 @@
         <v>2016</v>
       </c>
       <c r="J879" s="0" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="K879" s="3" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="L879" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M879" s="3" t="s">
         <v>38</v>
@@ -40743,7 +40710,7 @@
         <v>23</v>
       </c>
       <c r="Q879" s="3" t="s">
-        <v>951</v>
+        <v>446</v>
       </c>
       <c r="R879" s="3" t="s">
         <v>38</v>
@@ -40754,7 +40721,7 @@
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="B880" s="1" t="n">
         <v>0</v>
@@ -40763,7 +40730,7 @@
         <v>644</v>
       </c>
       <c r="D880" s="2" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="E880" s="3" t="s">
         <v>22</v>
@@ -40781,13 +40748,13 @@
         <v>2016</v>
       </c>
       <c r="J880" s="0" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="K880" s="3" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="L880" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M880" s="3" t="s">
         <v>38</v>
@@ -40802,7 +40769,7 @@
         <v>23</v>
       </c>
       <c r="Q880" s="3" t="s">
-        <v>951</v>
+        <v>446</v>
       </c>
       <c r="R880" s="3" t="s">
         <v>38</v>
@@ -40822,7 +40789,7 @@
         <v>644</v>
       </c>
       <c r="D881" s="2" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="E881" s="3" t="s">
         <v>22</v>
@@ -40840,13 +40807,13 @@
         <v>2016</v>
       </c>
       <c r="J881" s="0" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="K881" s="3" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="L881" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M881" s="3" t="s">
         <v>38</v>
@@ -40861,7 +40828,7 @@
         <v>23</v>
       </c>
       <c r="Q881" s="3" t="s">
-        <v>951</v>
+        <v>446</v>
       </c>
       <c r="R881" s="3" t="s">
         <v>38</v>
@@ -40878,34 +40845,34 @@
         <v>0</v>
       </c>
       <c r="C882" s="1" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="D882" s="2" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="E882" s="3" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="F882" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G882" s="3" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="H882" s="3" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="I882" s="3" t="n">
         <v>1999</v>
       </c>
       <c r="J882" s="0" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="K882" s="3" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="L882" s="3" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="M882" s="3" t="s">
         <v>23</v>
@@ -40920,7 +40887,7 @@
         <v>23</v>
       </c>
       <c r="Q882" s="3" t="s">
-        <v>959</v>
+        <v>913</v>
       </c>
       <c r="R882" s="3" t="s">
         <v>22</v>
@@ -40940,28 +40907,28 @@
         <v>527</v>
       </c>
       <c r="D883" s="2" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="E883" s="3" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="F883" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G883" s="3" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="H883" s="3" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="I883" s="3" t="n">
         <v>1999</v>
       </c>
       <c r="J883" s="0" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="K883" s="3" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="L883" s="3" t="s">
         <v>23</v>
@@ -40979,7 +40946,7 @@
         <v>23</v>
       </c>
       <c r="Q883" s="3" t="s">
-        <v>959</v>
+        <v>913</v>
       </c>
       <c r="R883" s="3" t="s">
         <v>38</v>
@@ -40990,37 +40957,37 @@
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="0" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="B884" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="D884" s="2" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E884" s="3" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="F884" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G884" s="3" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="H884" s="3" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="I884" s="3" t="n">
         <v>2005</v>
       </c>
       <c r="K884" s="3" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="L884" s="3" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="M884" s="3" t="s">
         <v>23</v>
@@ -41046,16 +41013,16 @@
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="B885" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C885" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="B885" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C885" s="1" t="s">
-        <v>969</v>
-      </c>
       <c r="D885" s="2" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="E885" s="3" t="s">
         <v>22</v>
@@ -41073,13 +41040,13 @@
         <v>1995</v>
       </c>
       <c r="J885" s="0" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="K885" s="3" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="L885" s="3" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="M885" s="3" t="s">
         <v>23</v>
@@ -41088,13 +41055,13 @@
         <v>22</v>
       </c>
       <c r="O885" s="3" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="P885" s="3" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="Q885" s="3" t="s">
-        <v>959</v>
+        <v>913</v>
       </c>
       <c r="R885" s="3" t="s">
         <v>22</v>
@@ -41105,7 +41072,7 @@
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B886" s="1" t="n">
         <v>0</v>
@@ -41114,28 +41081,28 @@
         <v>527</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="E886" s="3" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="F886" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G886" s="3" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="H886" s="3" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="I886" s="3" t="n">
         <v>1997</v>
       </c>
       <c r="J886" s="0" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="K886" s="3" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="L886" s="3" t="s">
         <v>23</v>
@@ -41147,13 +41114,13 @@
         <v>22</v>
       </c>
       <c r="O886" s="3" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="P886" s="3" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="Q886" s="3" t="s">
-        <v>959</v>
+        <v>913</v>
       </c>
       <c r="R886" s="3" t="s">
         <v>38</v>
@@ -41164,7 +41131,7 @@
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="0" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="B887" s="1" t="n">
         <v>0</v>
@@ -41173,28 +41140,28 @@
         <v>527</v>
       </c>
       <c r="D887" s="2" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="E887" s="3" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="F887" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G887" s="3" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="H887" s="3" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="I887" s="3" t="n">
         <v>2011</v>
       </c>
       <c r="J887" s="0" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="K887" s="3" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="L887" s="3" t="s">
         <v>23</v>
@@ -41223,16 +41190,16 @@
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="0" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="B888" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D888" s="2" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="E888" s="3" t="s">
         <v>22</v>
@@ -41250,13 +41217,13 @@
         <v>2012</v>
       </c>
       <c r="J888" s="0" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="K888" s="3" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="L888" s="3" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="M888" s="3" t="s">
         <v>23</v>
@@ -41268,10 +41235,10 @@
         <v>653</v>
       </c>
       <c r="P888" s="3" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="Q888" s="3" t="s">
-        <v>993</v>
+        <v>446</v>
       </c>
       <c r="R888" s="3" t="s">
         <v>38</v>
@@ -41288,10 +41255,10 @@
         <v>0</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D889" s="2" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="E889" s="3" t="s">
         <v>22</v>
@@ -41309,13 +41276,13 @@
         <v>2012</v>
       </c>
       <c r="J889" s="0" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="K889" s="3" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="L889" s="3" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="M889" s="3" t="s">
         <v>23</v>
@@ -41327,10 +41294,10 @@
         <v>653</v>
       </c>
       <c r="P889" s="3" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="Q889" s="3" t="s">
-        <v>993</v>
+        <v>446</v>
       </c>
       <c r="R889" s="3" t="s">
         <v>38</v>
@@ -41347,10 +41314,10 @@
         <v>0</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="D890" s="2" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="E890" s="3" t="s">
         <v>22</v>
@@ -41368,13 +41335,13 @@
         <v>2019</v>
       </c>
       <c r="J890" s="3" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="K890" s="3" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="L890" s="3" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="M890" s="3" t="s">
         <v>23</v>
@@ -41383,13 +41350,13 @@
         <v>22</v>
       </c>
       <c r="O890" s="3" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="P890" s="3" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="Q890" s="3" t="s">
-        <v>1000</v>
+        <v>793</v>
       </c>
       <c r="R890" s="3" t="s">
         <v>38</v>
@@ -41406,10 +41373,10 @@
         <v>0</v>
       </c>
       <c r="C891" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="D891" s="2" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="E891" s="3" t="s">
         <v>22</v>
@@ -41427,13 +41394,13 @@
         <v>2019</v>
       </c>
       <c r="J891" s="3" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="K891" s="3" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="L891" s="3" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="M891" s="3" t="s">
         <v>23</v>
@@ -41442,13 +41409,13 @@
         <v>22</v>
       </c>
       <c r="O891" s="3" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="P891" s="3" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="Q891" s="3" t="s">
-        <v>1000</v>
+        <v>793</v>
       </c>
       <c r="R891" s="3" t="s">
         <v>38</v>
@@ -41468,7 +41435,7 @@
         <v>346</v>
       </c>
       <c r="D892" s="2" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="E892" s="3" t="s">
         <v>22</v>
@@ -41486,13 +41453,13 @@
         <v>2013</v>
       </c>
       <c r="J892" s="3" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="K892" s="3" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="L892" s="3" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="M892" s="3" t="s">
         <v>23</v>
@@ -41504,10 +41471,10 @@
         <v>653</v>
       </c>
       <c r="P892" s="3" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="Q892" s="3" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="R892" s="3" t="s">
         <v>38</v>
@@ -41518,7 +41485,7 @@
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="B893" s="1" t="n">
         <v>0</v>
@@ -41527,7 +41494,7 @@
         <v>346</v>
       </c>
       <c r="D893" s="2" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="E893" s="3" t="s">
         <v>22</v>
@@ -41545,13 +41512,13 @@
         <v>2013</v>
       </c>
       <c r="J893" s="3" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="K893" s="3" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="L893" s="3" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="M893" s="3" t="s">
         <v>23</v>
@@ -41563,10 +41530,10 @@
         <v>653</v>
       </c>
       <c r="P893" s="3" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="Q893" s="3" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="R893" s="3" t="s">
         <v>38</v>
@@ -41577,7 +41544,7 @@
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="B894" s="1" t="n">
         <v>0</v>
@@ -41586,7 +41553,7 @@
         <v>262</v>
       </c>
       <c r="D894" s="2" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="E894" s="3" t="s">
         <v>22</v>
@@ -41604,13 +41571,13 @@
         <v>2007</v>
       </c>
       <c r="J894" s="3" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="K894" s="3" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="L894" s="3" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="M894" s="3" t="s">
         <v>23</v>
@@ -41625,7 +41592,7 @@
         <v>651</v>
       </c>
       <c r="Q894" s="3" t="s">
-        <v>959</v>
+        <v>913</v>
       </c>
       <c r="R894" s="3" t="s">
         <v>38</v>
@@ -41636,16 +41603,16 @@
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="B895" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D895" s="2" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="E895" s="3" t="s">
         <v>22</v>
@@ -41666,10 +41633,10 @@
         <v>552</v>
       </c>
       <c r="K895" s="3" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="L895" s="3" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="M895" s="3" t="s">
         <v>22</v>
@@ -41678,13 +41645,13 @@
         <v>38</v>
       </c>
       <c r="O895" s="3" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="P895" s="3" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="Q895" s="3" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="R895" s="3" t="s">
         <v>38</v>
@@ -41695,16 +41662,16 @@
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="B896" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D896" s="2" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="E896" s="3" t="s">
         <v>22</v>
@@ -41725,10 +41692,10 @@
         <v>552</v>
       </c>
       <c r="K896" s="3" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="L896" s="3" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="M896" s="3" t="s">
         <v>22</v>
@@ -41737,13 +41704,13 @@
         <v>38</v>
       </c>
       <c r="O896" s="3" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="P896" s="3" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="Q896" s="3" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="R896" s="3" t="s">
         <v>38</v>
@@ -41754,16 +41721,16 @@
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="B897" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D897" s="2" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="E897" s="3" t="s">
         <v>22</v>
@@ -41784,10 +41751,10 @@
         <v>552</v>
       </c>
       <c r="K897" s="3" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="L897" s="3" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="M897" s="3" t="s">
         <v>22</v>
@@ -41796,13 +41763,13 @@
         <v>22</v>
       </c>
       <c r="O897" s="3" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="P897" s="3" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="Q897" s="3" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="R897" s="3" t="s">
         <v>38</v>
@@ -41819,10 +41786,10 @@
         <v>0</v>
       </c>
       <c r="C898" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D898" s="2" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="E898" s="3" t="s">
         <v>22</v>
@@ -41843,10 +41810,10 @@
         <v>552</v>
       </c>
       <c r="K898" s="3" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="L898" s="3" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="M898" s="3" t="s">
         <v>22</v>
@@ -41855,13 +41822,13 @@
         <v>22</v>
       </c>
       <c r="O898" s="3" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="P898" s="3" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="Q898" s="3" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="R898" s="3" t="s">
         <v>38</v>
@@ -41872,16 +41839,16 @@
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="B899" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D899" s="2" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="E899" s="3" t="s">
         <v>22</v>
@@ -41902,10 +41869,10 @@
         <v>552</v>
       </c>
       <c r="K899" s="3" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="L899" s="3" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="M899" s="3" t="s">
         <v>22</v>
@@ -41914,13 +41881,13 @@
         <v>22</v>
       </c>
       <c r="O899" s="3" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="P899" s="3" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="Q899" s="3" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="R899" s="3" t="s">
         <v>38</v>
@@ -41937,10 +41904,10 @@
         <v>0</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D900" s="2" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="E900" s="3" t="s">
         <v>22</v>
@@ -41961,10 +41928,10 @@
         <v>552</v>
       </c>
       <c r="K900" s="3" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="L900" s="3" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="M900" s="3" t="s">
         <v>22</v>
@@ -41973,13 +41940,13 @@
         <v>38</v>
       </c>
       <c r="O900" s="3" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="P900" s="3" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="Q900" s="3" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="R900" s="3" t="s">
         <v>38</v>
@@ -41990,16 +41957,16 @@
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="B901" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D901" s="2" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="E901" s="3" t="s">
         <v>22</v>
@@ -42020,10 +41987,10 @@
         <v>552</v>
       </c>
       <c r="K901" s="3" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="L901" s="3" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="M901" s="3" t="s">
         <v>22</v>
@@ -42032,13 +41999,13 @@
         <v>22</v>
       </c>
       <c r="O901" s="3" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="P901" s="3" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="Q901" s="3" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="R901" s="3" t="s">
         <v>38</v>
@@ -42049,16 +42016,16 @@
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="B902" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D902" s="2" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="E902" s="3" t="s">
         <v>22</v>
@@ -42079,10 +42046,10 @@
         <v>552</v>
       </c>
       <c r="K902" s="3" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="L902" s="3" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="M902" s="3" t="s">
         <v>22</v>
@@ -42091,13 +42058,13 @@
         <v>22</v>
       </c>
       <c r="O902" s="3" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="P902" s="3" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="Q902" s="3" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="R902" s="3" t="s">
         <v>38</v>
@@ -42108,40 +42075,40 @@
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="B903" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="D903" s="2" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="E903" s="3" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="F903" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G903" s="3" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="H903" s="3" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="I903" s="3" t="n">
         <v>2018</v>
       </c>
       <c r="J903" s="3" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="K903" s="3" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="L903" s="3" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="M903" s="3" t="s">
         <v>23</v>
@@ -42150,13 +42117,13 @@
         <v>22</v>
       </c>
       <c r="O903" s="3" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="P903" s="3" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="Q903" s="3" t="s">
-        <v>1000</v>
+        <v>793</v>
       </c>
       <c r="R903" s="3" t="s">
         <v>38</v>
@@ -42167,7 +42134,7 @@
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="0" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="B904" s="1" t="n">
         <v>0</v>
@@ -42176,7 +42143,7 @@
         <v>527</v>
       </c>
       <c r="D904" s="2" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="E904" s="3" t="s">
         <v>22</v>
@@ -42212,7 +42179,7 @@
         <v>23</v>
       </c>
       <c r="P904" s="3" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="Q904" s="3" t="s">
         <v>23</v>
@@ -42235,7 +42202,7 @@
         <v>172</v>
       </c>
       <c r="D905" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E905" s="3" t="s">
         <v>22</v>
@@ -42256,10 +42223,10 @@
         <v>552</v>
       </c>
       <c r="K905" s="3" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="L905" s="3" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="M905" s="3" t="s">
         <v>23</v>
@@ -42274,7 +42241,7 @@
         <v>23</v>
       </c>
       <c r="Q905" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R905" s="3" t="s">
         <v>22</v>
@@ -42294,7 +42261,7 @@
         <v>262</v>
       </c>
       <c r="D906" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E906" s="3" t="s">
         <v>22</v>
@@ -42318,7 +42285,7 @@
         <v>262</v>
       </c>
       <c r="L906" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M906" s="3" t="s">
         <v>38</v>
@@ -42333,7 +42300,7 @@
         <v>23</v>
       </c>
       <c r="Q906" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R906" s="3" t="s">
         <v>22</v>
@@ -42344,7 +42311,7 @@
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="B907" s="1" t="n">
         <v>0</v>
@@ -42353,7 +42320,7 @@
         <v>172</v>
       </c>
       <c r="D907" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E907" s="3" t="s">
         <v>22</v>
@@ -42374,10 +42341,10 @@
         <v>552</v>
       </c>
       <c r="K907" s="3" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="L907" s="3" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="M907" s="3" t="s">
         <v>23</v>
@@ -42392,7 +42359,7 @@
         <v>23</v>
       </c>
       <c r="Q907" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R907" s="3" t="s">
         <v>22</v>
@@ -42403,7 +42370,7 @@
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="B908" s="1" t="n">
         <v>0</v>
@@ -42412,7 +42379,7 @@
         <v>177</v>
       </c>
       <c r="D908" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E908" s="3" t="s">
         <v>22</v>
@@ -42436,7 +42403,7 @@
         <v>177</v>
       </c>
       <c r="L908" s="3" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="M908" s="3" t="s">
         <v>23</v>
@@ -42451,7 +42418,7 @@
         <v>23</v>
       </c>
       <c r="Q908" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R908" s="3" t="s">
         <v>22</v>
@@ -42462,7 +42429,7 @@
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="B909" s="1" t="n">
         <v>0</v>
@@ -42471,7 +42438,7 @@
         <v>527</v>
       </c>
       <c r="D909" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E909" s="3" t="s">
         <v>22</v>
@@ -42495,7 +42462,7 @@
         <v>527</v>
       </c>
       <c r="L909" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M909" s="3" t="s">
         <v>38</v>
@@ -42510,7 +42477,7 @@
         <v>23</v>
       </c>
       <c r="Q909" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R909" s="3" t="s">
         <v>22</v>
@@ -42521,7 +42488,7 @@
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="B910" s="1" t="n">
         <v>0</v>
@@ -42530,7 +42497,7 @@
         <v>628</v>
       </c>
       <c r="D910" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E910" s="3" t="s">
         <v>22</v>
@@ -42554,7 +42521,7 @@
         <v>628</v>
       </c>
       <c r="L910" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M910" s="3" t="s">
         <v>38</v>
@@ -42569,7 +42536,7 @@
         <v>23</v>
       </c>
       <c r="Q910" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R910" s="3" t="s">
         <v>22</v>
@@ -42580,7 +42547,7 @@
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="0" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="B911" s="1" t="n">
         <v>0</v>
@@ -42589,10 +42556,10 @@
         <v>172</v>
       </c>
       <c r="D911" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E911" s="3" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="F911" s="3" t="s">
         <v>22</v>
@@ -42610,10 +42577,10 @@
         <v>552</v>
       </c>
       <c r="K911" s="3" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="L911" s="3" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="M911" s="3" t="s">
         <v>23</v>
@@ -42628,7 +42595,7 @@
         <v>23</v>
       </c>
       <c r="Q911" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R911" s="3" t="s">
         <v>22</v>
@@ -42639,7 +42606,7 @@
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="B912" s="1" t="n">
         <v>0</v>
@@ -42648,7 +42615,7 @@
         <v>177</v>
       </c>
       <c r="D912" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E912" s="3" t="s">
         <v>22</v>
@@ -42672,7 +42639,7 @@
         <v>177</v>
       </c>
       <c r="L912" s="3" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="M912" s="3" t="s">
         <v>23</v>
@@ -42687,7 +42654,7 @@
         <v>23</v>
       </c>
       <c r="Q912" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R912" s="3" t="s">
         <v>22</v>
@@ -42698,7 +42665,7 @@
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="B913" s="1" t="n">
         <v>0</v>
@@ -42707,7 +42674,7 @@
         <v>527</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E913" s="3" t="s">
         <v>22</v>
@@ -42731,7 +42698,7 @@
         <v>527</v>
       </c>
       <c r="L913" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M913" s="3" t="s">
         <v>38</v>
@@ -42746,7 +42713,7 @@
         <v>23</v>
       </c>
       <c r="Q913" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R913" s="3" t="s">
         <v>22</v>
@@ -42757,7 +42724,7 @@
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="B914" s="1" t="n">
         <v>0</v>
@@ -42766,7 +42733,7 @@
         <v>628</v>
       </c>
       <c r="D914" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E914" s="3" t="s">
         <v>22</v>
@@ -42790,7 +42757,7 @@
         <v>628</v>
       </c>
       <c r="L914" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M914" s="3" t="s">
         <v>38</v>
@@ -42805,7 +42772,7 @@
         <v>23</v>
       </c>
       <c r="Q914" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R914" s="3" t="s">
         <v>22</v>
@@ -42816,7 +42783,7 @@
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="B915" s="1" t="n">
         <v>0</v>
@@ -42825,10 +42792,10 @@
         <v>262</v>
       </c>
       <c r="D915" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E915" s="3" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="F915" s="3" t="s">
         <v>22</v>
@@ -42849,7 +42816,7 @@
         <v>262</v>
       </c>
       <c r="L915" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M915" s="3" t="s">
         <v>38</v>
@@ -42864,7 +42831,7 @@
         <v>23</v>
       </c>
       <c r="Q915" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R915" s="3" t="s">
         <v>22</v>
@@ -42884,7 +42851,7 @@
         <v>172</v>
       </c>
       <c r="D916" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E916" s="3" t="s">
         <v>22</v>
@@ -42905,10 +42872,10 @@
         <v>552</v>
       </c>
       <c r="K916" s="3" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="L916" s="3" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="M916" s="3" t="s">
         <v>23</v>
@@ -42923,7 +42890,7 @@
         <v>23</v>
       </c>
       <c r="Q916" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R916" s="3" t="s">
         <v>22</v>
@@ -42934,7 +42901,7 @@
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="B917" s="1" t="n">
         <v>0</v>
@@ -42943,7 +42910,7 @@
         <v>172</v>
       </c>
       <c r="D917" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E917" s="3" t="s">
         <v>22</v>
@@ -42964,10 +42931,10 @@
         <v>552</v>
       </c>
       <c r="K917" s="3" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="L917" s="3" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="M917" s="3" t="s">
         <v>23</v>
@@ -42982,7 +42949,7 @@
         <v>23</v>
       </c>
       <c r="Q917" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R917" s="3" t="s">
         <v>22</v>
@@ -42993,7 +42960,7 @@
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="B918" s="1" t="n">
         <v>0</v>
@@ -43002,7 +42969,7 @@
         <v>177</v>
       </c>
       <c r="D918" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E918" s="3" t="s">
         <v>22</v>
@@ -43026,7 +42993,7 @@
         <v>177</v>
       </c>
       <c r="L918" s="3" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="M918" s="3" t="s">
         <v>23</v>
@@ -43041,7 +43008,7 @@
         <v>23</v>
       </c>
       <c r="Q918" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R918" s="3" t="s">
         <v>22</v>
@@ -43052,7 +43019,7 @@
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="B919" s="1" t="n">
         <v>0</v>
@@ -43061,7 +43028,7 @@
         <v>527</v>
       </c>
       <c r="D919" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E919" s="3" t="s">
         <v>22</v>
@@ -43085,7 +43052,7 @@
         <v>527</v>
       </c>
       <c r="L919" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M919" s="3" t="s">
         <v>38</v>
@@ -43100,7 +43067,7 @@
         <v>23</v>
       </c>
       <c r="Q919" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R919" s="3" t="s">
         <v>22</v>
@@ -43111,7 +43078,7 @@
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="B920" s="1" t="n">
         <v>0</v>
@@ -43120,7 +43087,7 @@
         <v>628</v>
       </c>
       <c r="D920" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E920" s="3" t="s">
         <v>22</v>
@@ -43144,7 +43111,7 @@
         <v>628</v>
       </c>
       <c r="L920" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M920" s="3" t="s">
         <v>38</v>
@@ -43159,7 +43126,7 @@
         <v>23</v>
       </c>
       <c r="Q920" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R920" s="3" t="s">
         <v>22</v>
@@ -43170,7 +43137,7 @@
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="B921" s="1" t="n">
         <v>0</v>
@@ -43179,7 +43146,7 @@
         <v>262</v>
       </c>
       <c r="D921" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E921" s="3" t="s">
         <v>22</v>
@@ -43203,7 +43170,7 @@
         <v>262</v>
       </c>
       <c r="L921" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M921" s="3" t="s">
         <v>38</v>
@@ -43218,7 +43185,7 @@
         <v>23</v>
       </c>
       <c r="Q921" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R921" s="3" t="s">
         <v>22</v>
@@ -43229,7 +43196,7 @@
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="B922" s="1" t="n">
         <v>0</v>
@@ -43238,7 +43205,7 @@
         <v>172</v>
       </c>
       <c r="D922" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E922" s="3" t="s">
         <v>22</v>
@@ -43259,10 +43226,10 @@
         <v>552</v>
       </c>
       <c r="K922" s="3" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="L922" s="3" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="M922" s="3" t="s">
         <v>23</v>
@@ -43277,7 +43244,7 @@
         <v>23</v>
       </c>
       <c r="Q922" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R922" s="3" t="s">
         <v>22</v>
@@ -43288,7 +43255,7 @@
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="B923" s="1" t="n">
         <v>0</v>
@@ -43297,7 +43264,7 @@
         <v>527</v>
       </c>
       <c r="D923" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E923" s="3" t="s">
         <v>22</v>
@@ -43321,7 +43288,7 @@
         <v>527</v>
       </c>
       <c r="L923" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M923" s="3" t="s">
         <v>38</v>
@@ -43336,7 +43303,7 @@
         <v>23</v>
       </c>
       <c r="Q923" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R923" s="3" t="s">
         <v>22</v>
@@ -43347,7 +43314,7 @@
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="B924" s="1" t="n">
         <v>0</v>
@@ -43356,7 +43323,7 @@
         <v>628</v>
       </c>
       <c r="D924" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E924" s="3" t="s">
         <v>22</v>
@@ -43380,7 +43347,7 @@
         <v>628</v>
       </c>
       <c r="L924" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M924" s="3" t="s">
         <v>38</v>
@@ -43395,7 +43362,7 @@
         <v>23</v>
       </c>
       <c r="Q924" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R924" s="3" t="s">
         <v>22</v>
@@ -43406,7 +43373,7 @@
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="B925" s="1" t="n">
         <v>0</v>
@@ -43415,7 +43382,7 @@
         <v>262</v>
       </c>
       <c r="D925" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E925" s="3" t="s">
         <v>22</v>
@@ -43439,7 +43406,7 @@
         <v>262</v>
       </c>
       <c r="L925" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M925" s="3" t="s">
         <v>38</v>
@@ -43454,7 +43421,7 @@
         <v>23</v>
       </c>
       <c r="Q925" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R925" s="3" t="s">
         <v>22</v>
@@ -43465,7 +43432,7 @@
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="0" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="B926" s="1" t="n">
         <v>0</v>
@@ -43474,7 +43441,7 @@
         <v>172</v>
       </c>
       <c r="D926" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E926" s="3" t="s">
         <v>22</v>
@@ -43495,10 +43462,10 @@
         <v>552</v>
       </c>
       <c r="K926" s="3" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="L926" s="3" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="M926" s="3" t="s">
         <v>23</v>
@@ -43513,7 +43480,7 @@
         <v>23</v>
       </c>
       <c r="Q926" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R926" s="3" t="s">
         <v>22</v>
@@ -43524,7 +43491,7 @@
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="0" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="B927" s="1" t="n">
         <v>0</v>
@@ -43533,7 +43500,7 @@
         <v>177</v>
       </c>
       <c r="D927" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E927" s="3" t="s">
         <v>22</v>
@@ -43557,7 +43524,7 @@
         <v>177</v>
       </c>
       <c r="L927" s="3" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="M927" s="3" t="s">
         <v>23</v>
@@ -43572,7 +43539,7 @@
         <v>23</v>
       </c>
       <c r="Q927" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R927" s="3" t="s">
         <v>22</v>
@@ -43583,7 +43550,7 @@
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="0" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="B928" s="1" t="n">
         <v>0</v>
@@ -43592,7 +43559,7 @@
         <v>527</v>
       </c>
       <c r="D928" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E928" s="3" t="s">
         <v>22</v>
@@ -43616,7 +43583,7 @@
         <v>527</v>
       </c>
       <c r="L928" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M928" s="3" t="s">
         <v>38</v>
@@ -43631,7 +43598,7 @@
         <v>23</v>
       </c>
       <c r="Q928" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R928" s="3" t="s">
         <v>22</v>
@@ -43642,7 +43609,7 @@
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="B929" s="1" t="n">
         <v>0</v>
@@ -43651,7 +43618,7 @@
         <v>628</v>
       </c>
       <c r="D929" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E929" s="3" t="s">
         <v>22</v>
@@ -43675,7 +43642,7 @@
         <v>628</v>
       </c>
       <c r="L929" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M929" s="3" t="s">
         <v>38</v>
@@ -43690,7 +43657,7 @@
         <v>23</v>
       </c>
       <c r="Q929" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R929" s="3" t="s">
         <v>22</v>
@@ -43701,7 +43668,7 @@
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="B930" s="1" t="n">
         <v>0</v>
@@ -43710,7 +43677,7 @@
         <v>262</v>
       </c>
       <c r="D930" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E930" s="3" t="s">
         <v>22</v>
@@ -43734,7 +43701,7 @@
         <v>262</v>
       </c>
       <c r="L930" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M930" s="3" t="s">
         <v>38</v>
@@ -43749,7 +43716,7 @@
         <v>23</v>
       </c>
       <c r="Q930" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R930" s="3" t="s">
         <v>22</v>
@@ -43760,7 +43727,7 @@
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="B931" s="1" t="n">
         <v>0</v>
@@ -43769,7 +43736,7 @@
         <v>172</v>
       </c>
       <c r="D931" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E931" s="3" t="s">
         <v>22</v>
@@ -43790,10 +43757,10 @@
         <v>552</v>
       </c>
       <c r="K931" s="3" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="L931" s="3" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="M931" s="3" t="s">
         <v>23</v>
@@ -43808,7 +43775,7 @@
         <v>23</v>
       </c>
       <c r="Q931" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R931" s="3" t="s">
         <v>22</v>
@@ -43819,7 +43786,7 @@
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="B932" s="1" t="n">
         <v>0</v>
@@ -43828,7 +43795,7 @@
         <v>172</v>
       </c>
       <c r="D932" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E932" s="3" t="s">
         <v>22</v>
@@ -43849,10 +43816,10 @@
         <v>552</v>
       </c>
       <c r="K932" s="3" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="L932" s="3" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="M932" s="3" t="s">
         <v>23</v>
@@ -43867,7 +43834,7 @@
         <v>23</v>
       </c>
       <c r="Q932" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R932" s="3" t="s">
         <v>22</v>
@@ -43878,7 +43845,7 @@
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="B933" s="1" t="n">
         <v>0</v>
@@ -43887,7 +43854,7 @@
         <v>172</v>
       </c>
       <c r="D933" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E933" s="3" t="s">
         <v>22</v>
@@ -43908,10 +43875,10 @@
         <v>552</v>
       </c>
       <c r="K933" s="3" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="L933" s="3" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="M933" s="3" t="s">
         <v>23</v>
@@ -43926,7 +43893,7 @@
         <v>23</v>
       </c>
       <c r="Q933" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R933" s="3" t="s">
         <v>22</v>
@@ -43937,7 +43904,7 @@
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="B934" s="1" t="n">
         <v>0</v>
@@ -43946,7 +43913,7 @@
         <v>527</v>
       </c>
       <c r="D934" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E934" s="3" t="s">
         <v>22</v>
@@ -43970,7 +43937,7 @@
         <v>527</v>
       </c>
       <c r="L934" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M934" s="3" t="s">
         <v>38</v>
@@ -43985,7 +43952,7 @@
         <v>23</v>
       </c>
       <c r="Q934" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R934" s="3" t="s">
         <v>22</v>
@@ -43996,7 +43963,7 @@
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="B935" s="1" t="n">
         <v>0</v>
@@ -44005,7 +43972,7 @@
         <v>628</v>
       </c>
       <c r="D935" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E935" s="3" t="s">
         <v>22</v>
@@ -44029,7 +43996,7 @@
         <v>628</v>
       </c>
       <c r="L935" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M935" s="3" t="s">
         <v>38</v>
@@ -44044,7 +44011,7 @@
         <v>23</v>
       </c>
       <c r="Q935" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R935" s="3" t="s">
         <v>22</v>
@@ -44055,7 +44022,7 @@
     </row>
     <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="B936" s="1" t="n">
         <v>0</v>
@@ -44064,7 +44031,7 @@
         <v>262</v>
       </c>
       <c r="D936" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E936" s="3" t="s">
         <v>22</v>
@@ -44088,7 +44055,7 @@
         <v>262</v>
       </c>
       <c r="L936" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M936" s="3" t="s">
         <v>38</v>
@@ -44103,7 +44070,7 @@
         <v>23</v>
       </c>
       <c r="Q936" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R936" s="3" t="s">
         <v>22</v>
@@ -44123,7 +44090,7 @@
         <v>172</v>
       </c>
       <c r="D937" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="E937" s="3" t="s">
         <v>22</v>
@@ -44144,10 +44111,10 @@
         <v>552</v>
       </c>
       <c r="K937" s="3" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="L937" s="3" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="M937" s="3" t="s">
         <v>23</v>
@@ -44162,7 +44129,7 @@
         <v>23</v>
       </c>
       <c r="Q937" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R937" s="3" t="s">
         <v>22</v>
@@ -44173,7 +44140,7 @@
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="4" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="B938" s="1" t="n">
         <v>0</v>
@@ -44182,7 +44149,7 @@
         <v>183</v>
       </c>
       <c r="D938" s="4" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="E938" s="1" t="s">
         <v>237</v>
@@ -44191,22 +44158,22 @@
         <v>38</v>
       </c>
       <c r="G938" s="1" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="H938" s="1" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="I938" s="3" t="n">
         <v>2016</v>
       </c>
       <c r="J938" s="6" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="K938" s="6" t="s">
         <v>183</v>
       </c>
       <c r="L938" s="6" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="M938" s="3" t="s">
         <v>38</v>
@@ -44241,19 +44208,19 @@
         <v>527</v>
       </c>
       <c r="D939" s="2" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="E939" s="3" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="F939" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G939" s="3" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="H939" s="3" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="I939" s="3" t="n">
         <v>2014</v>
@@ -44297,10 +44264,10 @@
         <v>0</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="D940" s="2" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="E940" s="3" t="s">
         <v>22</v>
@@ -44318,13 +44285,13 @@
         <v>2015</v>
       </c>
       <c r="J940" s="6" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="K940" s="6" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="L940" s="6" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="M940" s="3" t="s">
         <v>23</v>
@@ -44350,7 +44317,7 @@
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="B941" s="1" t="n">
         <v>0</v>
@@ -44359,10 +44326,10 @@
         <v>262</v>
       </c>
       <c r="D941" s="2" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="E941" s="3" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="F941" s="3" t="s">
         <v>22</v>
@@ -44377,13 +44344,13 @@
         <v>2015</v>
       </c>
       <c r="J941" s="6" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="K941" s="6" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="L941" s="3" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
       <c r="M941" s="3" t="s">
         <v>38</v>
@@ -44398,7 +44365,7 @@
         <v>653</v>
       </c>
       <c r="Q941" s="3" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="R941" s="3" t="s">
         <v>38</v>
@@ -44415,10 +44382,10 @@
         <v>0</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="D942" s="2" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="E942" s="3" t="s">
         <v>22</v>
@@ -44436,10 +44403,10 @@
         <v>2018</v>
       </c>
       <c r="J942" s="6" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="K942" s="6" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="L942" s="3" t="s">
         <v>23</v>
@@ -44451,13 +44418,13 @@
         <v>22</v>
       </c>
       <c r="O942" s="3" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="P942" s="3" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="Q942" s="3" t="s">
-        <v>1000</v>
+        <v>793</v>
       </c>
       <c r="R942" s="3" t="s">
         <v>38</v>
@@ -44495,13 +44462,13 @@
         <v>2016</v>
       </c>
       <c r="J943" s="6" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="K943" s="6" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="L943" s="3" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="M943" s="3" t="s">
         <v>23</v>
@@ -44510,13 +44477,13 @@
         <v>22</v>
       </c>
       <c r="O943" s="3" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="P943" s="3" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="Q943" s="3" t="s">
-        <v>959</v>
+        <v>913</v>
       </c>
       <c r="R943" s="3" t="s">
         <v>38</v>
@@ -44554,13 +44521,13 @@
         <v>2016</v>
       </c>
       <c r="J944" s="6" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="K944" s="6" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="L944" s="3" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="M944" s="3" t="s">
         <v>23</v>
@@ -44569,13 +44536,13 @@
         <v>22</v>
       </c>
       <c r="O944" s="3" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="P944" s="3" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="Q944" s="3" t="s">
-        <v>959</v>
+        <v>913</v>
       </c>
       <c r="R944" s="3" t="s">
         <v>38</v>
@@ -44586,7 +44553,7 @@
     </row>
     <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="B945" s="1" t="n">
         <v>0</v>
@@ -44595,7 +44562,7 @@
         <v>183</v>
       </c>
       <c r="D945" s="2" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="E945" s="3" t="s">
         <v>192</v>
@@ -44604,22 +44571,22 @@
         <v>38</v>
       </c>
       <c r="G945" s="3" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="H945" s="0" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="I945" s="3" t="n">
         <v>2016</v>
       </c>
       <c r="J945" s="6" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="K945" s="6" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="L945" s="3" t="s">
-        <v>1085</v>
+        <v>1045</v>
       </c>
       <c r="M945" s="3" t="s">
         <v>38</v>
@@ -44651,10 +44618,10 @@
         <v>0</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="D946" s="2" t="s">
-        <v>1087</v>
+        <v>1076</v>
       </c>
       <c r="E946" s="3" t="s">
         <v>22</v>
@@ -44672,13 +44639,13 @@
         <v>2017</v>
       </c>
       <c r="J946" s="6" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="K946" s="6" t="s">
-        <v>1089</v>
+        <v>1078</v>
       </c>
       <c r="L946" s="3" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="M946" s="3" t="s">
         <v>38</v>
@@ -44704,16 +44671,16 @@
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="B947" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C947" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="D947" s="2" t="s">
-        <v>1092</v>
+        <v>1081</v>
       </c>
       <c r="E947" s="3" t="s">
         <v>22</v>
@@ -44731,13 +44698,13 @@
         <v>2013</v>
       </c>
       <c r="J947" s="6" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="K947" s="6" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="L947" s="3" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="M947" s="3" t="s">
         <v>38</v>
@@ -44763,16 +44730,16 @@
     </row>
     <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
       <c r="B948" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="D948" s="2" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="E948" s="3" t="s">
         <v>22</v>
@@ -44790,13 +44757,13 @@
         <v>2011</v>
       </c>
       <c r="J948" s="0" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
       <c r="K948" s="6" t="s">
-        <v>1099</v>
+        <v>1088</v>
       </c>
       <c r="L948" s="3" t="s">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="M948" s="3" t="s">
         <v>38</v>
@@ -44828,10 +44795,10 @@
         <v>0</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="D949" s="2" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="E949" s="3" t="s">
         <v>22</v>
@@ -44849,13 +44816,13 @@
         <v>2002</v>
       </c>
       <c r="J949" s="6" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="K949" s="6" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="L949" s="3" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
       <c r="M949" s="3" t="s">
         <v>22</v>

--- a/Degraders_list_v2.xlsx
+++ b/Degraders_list_v2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10694" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10694" uniqueCount="1125">
   <si>
     <t xml:space="preserve">Microorganism</t>
   </si>
@@ -2056,7 +2056,7 @@
     <t xml:space="preserve">Jarerat, A., Pranamuda, H., &amp; Tokiwa, Y. (2002). Poly (L‐lactide)‐degrading activity in various actinomycetes. Macromolecular Bioscience, 2(9), 420-428.</t>
   </si>
   <si>
-    <t xml:space="preserve"> LACTY 1012 (number-average molecular weight, Mn ¼ 3.4 _x005F_x005F_x005F_x005F_x005F_x0001_ 105 ; weight-average molecular weight, Mw¼ 6.5 _x005F_x005F_x005F_x005F_x005F_x0001_ 105 ; polydispersity, Mw/Mn ¼ 1.9)</t>
+    <t xml:space="preserve"> LACTY 1012 (number-average molecular weight, Mn ¼ 3.4 _x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0001_ 105 ; weight-average molecular weight, Mw¼ 6.5 _x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0001_ 105 ; polydispersity, Mw/Mn ¼ 1.9)</t>
   </si>
   <si>
     <t xml:space="preserve"> Shimadzu Co. Ltd</t>
@@ -2300,9 +2300,6 @@
   </si>
   <si>
     <t xml:space="preserve">YUHWA PP Soxhlet extracted with toluene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea</t>
   </si>
   <si>
     <t xml:space="preserve">Engyodontium album</t>
@@ -3525,8 +3522,8 @@
   </sheetPr>
   <dimension ref="A1:S965"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A944" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A962" activeCellId="0" sqref="A962"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M942" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q954" activeCellId="0" sqref="Q954"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34958,7 +34955,7 @@
         <v>445</v>
       </c>
       <c r="Q748" s="3" t="s">
-        <v>760</v>
+        <v>707</v>
       </c>
       <c r="R748" s="3" t="s">
         <v>22</v>
@@ -34969,7 +34966,7 @@
     </row>
     <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B749" s="1" t="n">
         <v>0</v>
@@ -34978,7 +34975,7 @@
         <v>747</v>
       </c>
       <c r="D749" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E749" s="3" t="s">
         <v>22</v>
@@ -34996,13 +34993,13 @@
         <v>2013</v>
       </c>
       <c r="J749" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="K749" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="K749" s="3" t="s">
+      <c r="L749" s="3" t="s">
         <v>764</v>
-      </c>
-      <c r="L749" s="3" t="s">
-        <v>765</v>
       </c>
       <c r="M749" s="3" t="s">
         <v>23</v>
@@ -35028,7 +35025,7 @@
         <v>747</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E750" s="3" t="s">
         <v>22</v>
@@ -35046,13 +35043,13 @@
         <v>2013</v>
       </c>
       <c r="J750" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="K750" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="K750" s="3" t="s">
+      <c r="L750" s="3" t="s">
         <v>764</v>
-      </c>
-      <c r="L750" s="3" t="s">
-        <v>765</v>
       </c>
       <c r="M750" s="3" t="s">
         <v>23</v>
@@ -35155,13 +35152,13 @@
         <v>2018</v>
       </c>
       <c r="J752" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="K752" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="K752" s="3" t="s">
+      <c r="L752" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="L752" s="3" t="s">
-        <v>768</v>
       </c>
       <c r="M752" s="3" t="s">
         <v>23</v>
@@ -35205,13 +35202,13 @@
         <v>2018</v>
       </c>
       <c r="J753" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="K753" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="K753" s="3" t="s">
+      <c r="L753" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="L753" s="3" t="s">
-        <v>768</v>
       </c>
       <c r="M753" s="3" t="s">
         <v>23</v>
@@ -35255,13 +35252,13 @@
         <v>2018</v>
       </c>
       <c r="J754" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="K754" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="K754" s="3" t="s">
+      <c r="L754" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="L754" s="3" t="s">
-        <v>768</v>
       </c>
       <c r="M754" s="3" t="s">
         <v>23</v>
@@ -35305,13 +35302,13 @@
         <v>2018</v>
       </c>
       <c r="J755" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="K755" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="K755" s="3" t="s">
+      <c r="L755" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="L755" s="3" t="s">
-        <v>768</v>
       </c>
       <c r="M755" s="3" t="s">
         <v>23</v>
@@ -35334,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="C756" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D756" s="2" t="s">
         <v>769</v>
-      </c>
-      <c r="D756" s="2" t="s">
-        <v>770</v>
       </c>
       <c r="E756" s="3" t="s">
         <v>22</v>
@@ -35355,13 +35352,13 @@
         <v>2010</v>
       </c>
       <c r="J756" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="K756" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="K756" s="3" t="s">
+      <c r="L756" s="3" t="s">
         <v>772</v>
-      </c>
-      <c r="L756" s="3" t="s">
-        <v>773</v>
       </c>
       <c r="M756" s="3" t="s">
         <v>23</v>
@@ -35378,16 +35375,16 @@
     </row>
     <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B757" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C757" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D757" s="2" t="s">
         <v>769</v>
-      </c>
-      <c r="D757" s="2" t="s">
-        <v>770</v>
       </c>
       <c r="E757" s="3" t="s">
         <v>22</v>
@@ -35405,13 +35402,13 @@
         <v>2010</v>
       </c>
       <c r="J757" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="K757" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="K757" s="3" t="s">
+      <c r="L757" s="3" t="s">
         <v>772</v>
-      </c>
-      <c r="L757" s="3" t="s">
-        <v>773</v>
       </c>
       <c r="M757" s="3" t="s">
         <v>23</v>
@@ -35434,10 +35431,10 @@
         <v>0</v>
       </c>
       <c r="C758" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D758" s="2" t="s">
         <v>769</v>
-      </c>
-      <c r="D758" s="2" t="s">
-        <v>770</v>
       </c>
       <c r="E758" s="3" t="s">
         <v>22</v>
@@ -35455,13 +35452,13 @@
         <v>2010</v>
       </c>
       <c r="J758" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="K758" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="K758" s="3" t="s">
+      <c r="L758" s="3" t="s">
         <v>772</v>
-      </c>
-      <c r="L758" s="3" t="s">
-        <v>773</v>
       </c>
       <c r="M758" s="3" t="s">
         <v>23</v>
@@ -35484,7 +35481,7 @@
         <v>0</v>
       </c>
       <c r="C759" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D759" s="2" t="s">
         <v>352</v>
@@ -35534,7 +35531,7 @@
         <v>0</v>
       </c>
       <c r="C760" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D760" s="2" t="s">
         <v>352</v>
@@ -35578,16 +35575,16 @@
     </row>
     <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B761" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C761" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D761" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="B761" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C761" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D761" s="2" t="s">
-        <v>776</v>
       </c>
       <c r="E761" s="3" t="s">
         <v>22</v>
@@ -35605,25 +35602,25 @@
         <v>2018</v>
       </c>
       <c r="J761" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="K761" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="K761" s="3" t="s">
+      <c r="L761" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="L761" s="3" t="s">
+      <c r="M761" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N761" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O761" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="M761" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N761" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O761" s="3" t="s">
+      <c r="P761" s="3" t="s">
         <v>780</v>
-      </c>
-      <c r="P761" s="3" t="s">
-        <v>781</v>
       </c>
       <c r="Q761" s="3" t="s">
         <v>446</v>
@@ -35637,16 +35634,16 @@
     </row>
     <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B762" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C762" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D762" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E762" s="3" t="s">
         <v>22</v>
@@ -35664,25 +35661,25 @@
         <v>2018</v>
       </c>
       <c r="J762" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="K762" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="K762" s="3" t="s">
+      <c r="L762" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="L762" s="3" t="s">
+      <c r="M762" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N762" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O762" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="M762" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N762" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O762" s="3" t="s">
+      <c r="P762" s="3" t="s">
         <v>780</v>
-      </c>
-      <c r="P762" s="3" t="s">
-        <v>781</v>
       </c>
       <c r="Q762" s="3" t="s">
         <v>446</v>
@@ -35696,16 +35693,16 @@
     </row>
     <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B763" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D763" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="B763" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C763" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D763" s="2" t="s">
-        <v>784</v>
       </c>
       <c r="E763" s="3" t="s">
         <v>22</v>
@@ -35723,13 +35720,13 @@
         <v>2017</v>
       </c>
       <c r="J763" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="K763" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="K763" s="3" t="s">
+      <c r="L763" s="3" t="s">
         <v>786</v>
-      </c>
-      <c r="L763" s="3" t="s">
-        <v>787</v>
       </c>
       <c r="M763" s="3" t="s">
         <v>23</v>
@@ -35755,16 +35752,16 @@
     </row>
     <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B764" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C764" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D764" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="B764" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C764" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D764" s="2" t="s">
-        <v>789</v>
       </c>
       <c r="E764" s="3" t="s">
         <v>22</v>
@@ -35782,28 +35779,28 @@
         <v>2015</v>
       </c>
       <c r="J764" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="K764" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="K764" s="3" t="s">
+      <c r="L764" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="L764" s="3" t="s">
+      <c r="M764" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N764" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O764" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="M764" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N764" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O764" s="3" t="s">
-        <v>793</v>
       </c>
       <c r="P764" s="3" t="s">
         <v>651</v>
       </c>
       <c r="Q764" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="R764" s="3" t="s">
         <v>22</v>
@@ -35820,10 +35817,10 @@
         <v>0</v>
       </c>
       <c r="C765" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D765" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="D765" s="2" t="s">
-        <v>796</v>
       </c>
       <c r="E765" s="3" t="s">
         <v>22</v>
@@ -35861,10 +35858,10 @@
         <v>0</v>
       </c>
       <c r="C766" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D766" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="D766" s="2" t="s">
-        <v>796</v>
       </c>
       <c r="E766" s="3" t="s">
         <v>22</v>
@@ -35896,16 +35893,16 @@
     </row>
     <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="B767" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C767" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="B767" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C767" s="1" t="s">
+      <c r="D767" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="D767" s="2" t="s">
-        <v>799</v>
       </c>
       <c r="E767" s="3" t="s">
         <v>22</v>
@@ -35937,16 +35934,16 @@
     </row>
     <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B768" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C768" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D768" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="D768" s="2" t="s">
-        <v>799</v>
       </c>
       <c r="E768" s="3" t="s">
         <v>22</v>
@@ -35984,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="C769" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D769" s="2" t="s">
         <v>302</v>
@@ -36025,7 +36022,7 @@
         <v>0</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D770" s="2" t="s">
         <v>332</v>
@@ -36060,13 +36057,13 @@
     </row>
     <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B771" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C771" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D771" s="2" t="s">
         <v>332</v>
@@ -36107,7 +36104,7 @@
         <v>0</v>
       </c>
       <c r="C772" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D772" s="2" t="s">
         <v>332</v>
@@ -36148,7 +36145,7 @@
         <v>0</v>
       </c>
       <c r="C773" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D773" s="2" t="s">
         <v>332</v>
@@ -36189,7 +36186,7 @@
         <v>0</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D774" s="2" t="s">
         <v>178</v>
@@ -36224,16 +36221,16 @@
     </row>
     <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="B775" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C775" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D775" s="2" t="s">
         <v>805</v>
-      </c>
-      <c r="B775" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C775" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D775" s="2" t="s">
-        <v>806</v>
       </c>
       <c r="E775" s="3" t="s">
         <v>22</v>
@@ -36265,16 +36262,16 @@
     </row>
     <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B776" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C776" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D776" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E776" s="3" t="s">
         <v>22</v>
@@ -36306,16 +36303,16 @@
     </row>
     <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B777" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C777" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E777" s="3" t="s">
         <v>22</v>
@@ -36347,16 +36344,16 @@
     </row>
     <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B778" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E778" s="3" t="s">
         <v>22</v>
@@ -36394,10 +36391,10 @@
         <v>0</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D779" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E779" s="3" t="s">
         <v>22</v>
@@ -36435,10 +36432,10 @@
         <v>0</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E780" s="3" t="s">
         <v>22</v>
@@ -36476,7 +36473,7 @@
         <v>0</v>
       </c>
       <c r="C781" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D781" s="2" t="s">
         <v>36</v>
@@ -36511,16 +36508,16 @@
     </row>
     <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="B782" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C782" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="D782" s="2" t="s">
         <v>810</v>
-      </c>
-      <c r="B782" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C782" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="D782" s="2" t="s">
-        <v>811</v>
       </c>
       <c r="E782" s="3" t="s">
         <v>22</v>
@@ -36552,16 +36549,16 @@
     </row>
     <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B783" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C783" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="D783" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="B783" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C783" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="D783" s="2" t="s">
-        <v>813</v>
       </c>
       <c r="E783" s="3" t="s">
         <v>22</v>
@@ -36599,7 +36596,7 @@
         <v>0</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D784" s="2" t="s">
         <v>531</v>
@@ -36634,16 +36631,16 @@
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B785" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D785" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="B785" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C785" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D785" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="E785" s="3" t="s">
         <v>22</v>
@@ -36681,10 +36678,10 @@
         <v>0</v>
       </c>
       <c r="C786" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E786" s="3" t="s">
         <v>22</v>
@@ -36716,16 +36713,16 @@
     </row>
     <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B787" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D787" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E787" s="3" t="s">
         <v>22</v>
@@ -36757,16 +36754,16 @@
     </row>
     <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B788" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C788" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D788" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E788" s="3" t="s">
         <v>22</v>
@@ -36798,16 +36795,16 @@
     </row>
     <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B789" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E789" s="3" t="s">
         <v>22</v>
@@ -36839,16 +36836,16 @@
     </row>
     <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B790" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C790" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E790" s="3" t="s">
         <v>22</v>
@@ -36880,16 +36877,16 @@
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="B791" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D791" s="2" t="s">
         <v>820</v>
-      </c>
-      <c r="B791" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C791" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D791" s="2" t="s">
-        <v>821</v>
       </c>
       <c r="E791" s="3" t="s">
         <v>22</v>
@@ -36921,16 +36918,16 @@
     </row>
     <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B792" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C792" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E792" s="3" t="s">
         <v>22</v>
@@ -36968,10 +36965,10 @@
         <v>0</v>
       </c>
       <c r="C793" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D793" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E793" s="3" t="s">
         <v>22</v>
@@ -37009,10 +37006,10 @@
         <v>0</v>
       </c>
       <c r="C794" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D794" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E794" s="3" t="s">
         <v>22</v>
@@ -37050,10 +37047,10 @@
         <v>0</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D795" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E795" s="3" t="s">
         <v>22</v>
@@ -37091,10 +37088,10 @@
         <v>0</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D796" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E796" s="3" t="s">
         <v>22</v>
@@ -37132,7 +37129,7 @@
         <v>0</v>
       </c>
       <c r="C797" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D797" s="2" t="s">
         <v>292</v>
@@ -37173,7 +37170,7 @@
         <v>0</v>
       </c>
       <c r="C798" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D798" s="2" t="s">
         <v>292</v>
@@ -37214,7 +37211,7 @@
         <v>0</v>
       </c>
       <c r="C799" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D799" s="2" t="s">
         <v>292</v>
@@ -37249,13 +37246,13 @@
     </row>
     <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B800" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C800" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D800" s="2" t="s">
         <v>292</v>
@@ -37296,7 +37293,7 @@
         <v>0</v>
       </c>
       <c r="C801" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D801" s="2" t="s">
         <v>292</v>
@@ -37337,7 +37334,7 @@
         <v>0</v>
       </c>
       <c r="C802" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D802" s="2" t="s">
         <v>292</v>
@@ -37378,7 +37375,7 @@
         <v>0</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D803" s="2" t="s">
         <v>292</v>
@@ -37413,16 +37410,16 @@
     </row>
     <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="B804" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C804" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D804" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="B804" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C804" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D804" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="E804" s="3" t="s">
         <v>22</v>
@@ -37454,16 +37451,16 @@
     </row>
     <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="B805" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C805" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="D805" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="B805" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C805" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="D805" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="E805" s="3" t="s">
         <v>237</v>
@@ -37495,16 +37492,16 @@
     </row>
     <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="B806" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C806" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D806" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="B806" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C806" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D806" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="E806" s="3" t="s">
         <v>37</v>
@@ -37542,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="C807" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D807" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E807" s="3" t="s">
         <v>831</v>
-      </c>
-      <c r="E807" s="3" t="s">
-        <v>832</v>
       </c>
       <c r="F807" s="3" t="s">
         <v>22</v>
@@ -37583,7 +37580,7 @@
         <v>0</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D808" s="2" t="s">
         <v>471</v>
@@ -37624,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D809" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E809" s="3" t="s">
         <v>237</v>
@@ -37639,7 +37636,7 @@
         <v>23</v>
       </c>
       <c r="H809" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I809" s="3" t="n">
         <v>2016</v>
@@ -37659,16 +37656,16 @@
     </row>
     <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="B810" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D810" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="B810" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C810" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D810" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="E810" s="3" t="s">
         <v>22</v>
@@ -37700,16 +37697,16 @@
     </row>
     <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B811" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D811" s="2" t="s">
         <v>837</v>
-      </c>
-      <c r="B811" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C811" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D811" s="2" t="s">
-        <v>838</v>
       </c>
       <c r="E811" s="3" t="s">
         <v>22</v>
@@ -37727,28 +37724,28 @@
         <v>2011</v>
       </c>
       <c r="J811" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="K811" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="K811" s="3" t="s">
+      <c r="L811" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="L811" s="3" t="s">
+      <c r="M811" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N811" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O811" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P811" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q811" s="3" t="s">
         <v>841</v>
-      </c>
-      <c r="M811" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N811" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O811" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P811" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q811" s="3" t="s">
-        <v>842</v>
       </c>
       <c r="R811" s="3" t="s">
         <v>22</v>
@@ -37765,10 +37762,10 @@
         <v>0</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D812" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E812" s="3" t="s">
         <v>22</v>
@@ -37786,28 +37783,28 @@
         <v>2011</v>
       </c>
       <c r="J812" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="K812" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="K812" s="3" t="s">
+      <c r="L812" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="L812" s="3" t="s">
+      <c r="M812" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N812" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O812" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P812" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q812" s="3" t="s">
         <v>841</v>
-      </c>
-      <c r="M812" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N812" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O812" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P812" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q812" s="3" t="s">
-        <v>842</v>
       </c>
       <c r="R812" s="3" t="s">
         <v>22</v>
@@ -37824,10 +37821,10 @@
         <v>0</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D813" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E813" s="3" t="s">
         <v>22</v>
@@ -37845,28 +37842,28 @@
         <v>2011</v>
       </c>
       <c r="J813" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="K813" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="K813" s="3" t="s">
+      <c r="L813" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="L813" s="3" t="s">
+      <c r="M813" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N813" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O813" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P813" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q813" s="3" t="s">
         <v>841</v>
-      </c>
-      <c r="M813" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N813" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O813" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P813" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q813" s="3" t="s">
-        <v>842</v>
       </c>
       <c r="R813" s="3" t="s">
         <v>22</v>
@@ -37883,10 +37880,10 @@
         <v>0</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D814" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E814" s="3" t="s">
         <v>22</v>
@@ -37918,16 +37915,16 @@
     </row>
     <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="B815" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C815" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D815" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="B815" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C815" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D815" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="E815" s="3" t="s">
         <v>192</v>
@@ -37959,16 +37956,16 @@
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B816" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D816" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E816" s="3" t="s">
         <v>22</v>
@@ -38000,16 +37997,16 @@
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B817" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D817" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E817" s="3" t="s">
         <v>22</v>
@@ -38041,16 +38038,16 @@
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B818" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D818" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E818" s="3" t="s">
         <v>22</v>
@@ -38088,10 +38085,10 @@
         <v>0</v>
       </c>
       <c r="C819" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D819" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E819" s="3" t="s">
         <v>22</v>
@@ -38123,16 +38120,16 @@
     </row>
     <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="B820" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D820" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="B820" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C820" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D820" s="2" t="s">
-        <v>851</v>
       </c>
       <c r="E820" s="3" t="s">
         <v>22</v>
@@ -38170,10 +38167,10 @@
         <v>0</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D821" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E821" s="3" t="s">
         <v>22</v>
@@ -38205,16 +38202,16 @@
     </row>
     <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B822" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C822" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D822" s="2" t="s">
         <v>853</v>
-      </c>
-      <c r="B822" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C822" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D822" s="2" t="s">
-        <v>854</v>
       </c>
       <c r="E822" s="3" t="s">
         <v>22</v>
@@ -38252,10 +38249,10 @@
         <v>0</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D823" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E823" s="3" t="s">
         <v>237</v>
@@ -38287,16 +38284,16 @@
     </row>
     <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="B824" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D824" s="2" t="s">
         <v>856</v>
-      </c>
-      <c r="B824" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C824" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D824" s="2" t="s">
-        <v>857</v>
       </c>
       <c r="E824" s="3" t="s">
         <v>22</v>
@@ -38334,10 +38331,10 @@
         <v>0</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D825" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E825" s="3" t="s">
         <v>22</v>
@@ -38369,16 +38366,16 @@
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="B826" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C826" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D826" s="2" t="s">
         <v>859</v>
-      </c>
-      <c r="B826" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C826" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D826" s="2" t="s">
-        <v>860</v>
       </c>
       <c r="E826" s="3" t="s">
         <v>22</v>
@@ -38416,10 +38413,10 @@
         <v>0</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D827" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E827" s="3" t="s">
         <v>22</v>
@@ -38451,16 +38448,16 @@
     </row>
     <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="B828" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D828" s="2" t="s">
         <v>862</v>
-      </c>
-      <c r="B828" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C828" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D828" s="2" t="s">
-        <v>863</v>
       </c>
       <c r="E828" s="3" t="s">
         <v>22</v>
@@ -38492,16 +38489,16 @@
     </row>
     <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B829" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D829" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E829" s="3" t="s">
         <v>22</v>
@@ -38539,10 +38536,10 @@
         <v>0</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D830" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E830" s="3" t="s">
         <v>22</v>
@@ -38580,13 +38577,13 @@
         <v>0</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D831" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E831" s="3" t="s">
         <v>865</v>
-      </c>
-      <c r="E831" s="3" t="s">
-        <v>866</v>
       </c>
       <c r="F831" s="3" t="s">
         <v>22</v>
@@ -38615,19 +38612,19 @@
     </row>
     <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="B832" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C832" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="D832" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="B832" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C832" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="D832" s="2" t="s">
+      <c r="E832" s="3" t="s">
         <v>868</v>
-      </c>
-      <c r="E832" s="3" t="s">
-        <v>869</v>
       </c>
       <c r="F832" s="3" t="s">
         <v>22</v>
@@ -38662,10 +38659,10 @@
         <v>0</v>
       </c>
       <c r="C833" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D833" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E833" s="3" t="s">
         <v>22</v>
@@ -38697,16 +38694,16 @@
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="B834" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C834" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="D834" s="2" t="s">
         <v>871</v>
-      </c>
-      <c r="B834" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C834" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="D834" s="2" t="s">
-        <v>872</v>
       </c>
       <c r="E834" s="3" t="s">
         <v>22</v>
@@ -38738,16 +38735,16 @@
     </row>
     <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B835" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C835" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D835" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E835" s="3" t="s">
         <v>22</v>
@@ -38785,10 +38782,10 @@
         <v>0</v>
       </c>
       <c r="C836" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D836" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E836" s="3" t="s">
         <v>22</v>
@@ -38826,10 +38823,10 @@
         <v>0</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D837" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E837" s="3" t="s">
         <v>22</v>
@@ -38867,7 +38864,7 @@
         <v>0</v>
       </c>
       <c r="C838" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D838" s="2" t="s">
         <v>452</v>
@@ -38882,7 +38879,7 @@
         <v>23</v>
       </c>
       <c r="H838" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I838" s="3" t="n">
         <v>2000</v>
@@ -38908,7 +38905,7 @@
         <v>0</v>
       </c>
       <c r="C839" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D839" s="2" t="s">
         <v>497</v>
@@ -38949,13 +38946,13 @@
         <v>0</v>
       </c>
       <c r="C840" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D840" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="D840" s="2" t="s">
+      <c r="E840" s="3" t="s">
         <v>876</v>
-      </c>
-      <c r="E840" s="3" t="s">
-        <v>877</v>
       </c>
       <c r="F840" s="3" t="s">
         <v>22</v>
@@ -38984,16 +38981,16 @@
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="B841" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C841" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B841" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C841" s="1" t="s">
+      <c r="D841" s="2" t="s">
         <v>879</v>
-      </c>
-      <c r="D841" s="2" t="s">
-        <v>880</v>
       </c>
       <c r="E841" s="3" t="s">
         <v>22</v>
@@ -39025,16 +39022,16 @@
     </row>
     <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B842" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C842" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D842" s="2" t="s">
         <v>879</v>
-      </c>
-      <c r="D842" s="2" t="s">
-        <v>880</v>
       </c>
       <c r="E842" s="3" t="s">
         <v>22</v>
@@ -39072,10 +39069,10 @@
         <v>0</v>
       </c>
       <c r="C843" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D843" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="D843" s="2" t="s">
-        <v>883</v>
       </c>
       <c r="E843" s="3" t="s">
         <v>22</v>
@@ -39113,10 +39110,10 @@
         <v>0</v>
       </c>
       <c r="C844" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D844" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="D844" s="2" t="s">
-        <v>883</v>
       </c>
       <c r="E844" s="3" t="s">
         <v>22</v>
@@ -39148,16 +39145,16 @@
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B845" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C845" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D845" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="D845" s="2" t="s">
-        <v>883</v>
       </c>
       <c r="E845" s="3" t="s">
         <v>22</v>
@@ -39195,10 +39192,10 @@
         <v>0</v>
       </c>
       <c r="C846" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D846" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="D846" s="2" t="s">
-        <v>883</v>
       </c>
       <c r="E846" s="3" t="s">
         <v>22</v>
@@ -39230,16 +39227,16 @@
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B847" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C847" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="D847" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="B847" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C847" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="D847" s="2" t="s">
-        <v>813</v>
       </c>
       <c r="E847" s="3" t="s">
         <v>22</v>
@@ -39277,10 +39274,10 @@
         <v>0</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D848" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E848" s="3" t="s">
         <v>22</v>
@@ -39318,10 +39315,10 @@
         <v>0</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D849" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E849" s="3" t="s">
         <v>22</v>
@@ -39353,16 +39350,16 @@
     </row>
     <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="B850" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D850" s="2" t="s">
         <v>886</v>
-      </c>
-      <c r="B850" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C850" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D850" s="2" t="s">
-        <v>887</v>
       </c>
       <c r="E850" s="3" t="s">
         <v>22</v>
@@ -39400,7 +39397,7 @@
         <v>0</v>
       </c>
       <c r="C851" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D851" s="2" t="s">
         <v>143</v>
@@ -39441,7 +39438,7 @@
         <v>0</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D852" s="2" t="s">
         <v>57</v>
@@ -39476,16 +39473,16 @@
     </row>
     <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="B853" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C853" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="D853" s="2" t="s">
         <v>888</v>
-      </c>
-      <c r="B853" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C853" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="D853" s="2" t="s">
-        <v>889</v>
       </c>
       <c r="E853" s="3" t="s">
         <v>22</v>
@@ -39523,10 +39520,10 @@
         <v>0</v>
       </c>
       <c r="C854" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D854" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E854" s="3" t="s">
         <v>22</v>
@@ -39564,10 +39561,10 @@
         <v>0</v>
       </c>
       <c r="C855" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D855" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E855" s="3" t="s">
         <v>22</v>
@@ -39599,16 +39596,16 @@
     </row>
     <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="B856" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C856" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D856" s="2" t="s">
         <v>891</v>
-      </c>
-      <c r="B856" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C856" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D856" s="2" t="s">
-        <v>892</v>
       </c>
       <c r="E856" s="3" t="s">
         <v>22</v>
@@ -39646,7 +39643,7 @@
         <v>0</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D857" s="2" t="s">
         <v>344</v>
@@ -39687,10 +39684,10 @@
         <v>0</v>
       </c>
       <c r="C858" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D858" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="D858" s="2" t="s">
-        <v>894</v>
       </c>
       <c r="E858" s="3" t="s">
         <v>22</v>
@@ -39728,10 +39725,10 @@
         <v>0</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D859" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E859" s="3" t="s">
         <v>22</v>
@@ -39769,10 +39766,10 @@
         <v>0</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D860" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E860" s="3" t="s">
         <v>192</v>
@@ -39810,7 +39807,7 @@
         <v>0</v>
       </c>
       <c r="C861" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D861" s="2" t="s">
         <v>139</v>
@@ -39851,7 +39848,7 @@
         <v>0</v>
       </c>
       <c r="C862" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D862" s="2" t="s">
         <v>139</v>
@@ -39892,7 +39889,7 @@
         <v>0</v>
       </c>
       <c r="C863" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D863" s="2" t="s">
         <v>139</v>
@@ -39933,7 +39930,7 @@
         <v>0</v>
       </c>
       <c r="C864" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D864" s="2" t="s">
         <v>139</v>
@@ -39968,13 +39965,13 @@
     </row>
     <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B865" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C865" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D865" s="2" t="s">
         <v>139</v>
@@ -40015,7 +40012,7 @@
         <v>0</v>
       </c>
       <c r="C866" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D866" s="2" t="s">
         <v>139</v>
@@ -40050,19 +40047,19 @@
     </row>
     <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B867" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C867" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="B867" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C867" s="1" t="s">
+      <c r="D867" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="D867" s="2" t="s">
+      <c r="E867" s="3" t="s">
         <v>901</v>
-      </c>
-      <c r="E867" s="3" t="s">
-        <v>902</v>
       </c>
       <c r="F867" s="3" t="s">
         <v>38</v>
@@ -40071,16 +40068,16 @@
         <v>23</v>
       </c>
       <c r="H867" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I867" s="3" t="n">
         <v>2014</v>
       </c>
       <c r="J867" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="K867" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="K867" s="3" t="s">
-        <v>905</v>
       </c>
       <c r="L867" s="3" t="s">
         <v>721</v>
@@ -40109,19 +40106,19 @@
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B868" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C868" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D868" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="E868" s="3" t="s">
         <v>906</v>
-      </c>
-      <c r="D868" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="E868" s="3" t="s">
-        <v>907</v>
       </c>
       <c r="F868" s="3" t="s">
         <v>38</v>
@@ -40130,16 +40127,16 @@
         <v>23</v>
       </c>
       <c r="H868" s="0" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I868" s="3" t="n">
         <v>2014</v>
       </c>
       <c r="J868" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K868" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="L868" s="3" t="s">
         <v>721</v>
@@ -40174,10 +40171,10 @@
         <v>0</v>
       </c>
       <c r="C869" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D869" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="D869" s="2" t="s">
-        <v>911</v>
       </c>
       <c r="E869" s="3" t="s">
         <v>500</v>
@@ -40195,10 +40192,10 @@
         <v>2018</v>
       </c>
       <c r="J869" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="K869" s="3" t="s">
         <v>912</v>
-      </c>
-      <c r="K869" s="3" t="s">
-        <v>913</v>
       </c>
       <c r="L869" s="3" t="s">
         <v>23</v>
@@ -40216,7 +40213,7 @@
         <v>445</v>
       </c>
       <c r="Q869" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="R869" s="3" t="s">
         <v>38</v>
@@ -40227,7 +40224,7 @@
     </row>
     <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B870" s="1" t="n">
         <v>0</v>
@@ -40236,28 +40233,28 @@
         <v>472</v>
       </c>
       <c r="D870" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="E870" s="3" t="s">
         <v>916</v>
-      </c>
-      <c r="E870" s="3" t="s">
-        <v>917</v>
       </c>
       <c r="F870" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G870" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="H870" s="3" t="s">
         <v>918</v>
-      </c>
-      <c r="H870" s="3" t="s">
-        <v>919</v>
       </c>
       <c r="I870" s="3" t="n">
         <v>2005</v>
       </c>
       <c r="J870" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="K870" s="3" t="s">
         <v>920</v>
-      </c>
-      <c r="K870" s="3" t="s">
-        <v>921</v>
       </c>
       <c r="L870" s="3" t="s">
         <v>23</v>
@@ -40295,28 +40292,28 @@
         <v>472</v>
       </c>
       <c r="D871" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E871" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F871" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G871" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="H871" s="3" t="s">
         <v>923</v>
-      </c>
-      <c r="H871" s="3" t="s">
-        <v>924</v>
       </c>
       <c r="I871" s="3" t="n">
         <v>2005</v>
       </c>
       <c r="J871" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="K871" s="3" t="s">
         <v>920</v>
-      </c>
-      <c r="K871" s="3" t="s">
-        <v>921</v>
       </c>
       <c r="L871" s="3" t="s">
         <v>23</v>
@@ -40354,7 +40351,7 @@
         <v>527</v>
       </c>
       <c r="D872" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E872" s="3" t="s">
         <v>22</v>
@@ -40372,13 +40369,13 @@
         <v>2006</v>
       </c>
       <c r="J872" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="K872" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="K872" s="3" t="s">
+      <c r="L872" s="3" t="s">
         <v>927</v>
-      </c>
-      <c r="L872" s="3" t="s">
-        <v>928</v>
       </c>
       <c r="M872" s="3" t="s">
         <v>23</v>
@@ -40413,7 +40410,7 @@
         <v>470</v>
       </c>
       <c r="D873" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E873" s="3" t="s">
         <v>22</v>
@@ -40431,13 +40428,13 @@
         <v>2006</v>
       </c>
       <c r="J873" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K873" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="L873" s="3" t="s">
         <v>929</v>
-      </c>
-      <c r="L873" s="3" t="s">
-        <v>930</v>
       </c>
       <c r="M873" s="3" t="s">
         <v>23</v>
@@ -40472,7 +40469,7 @@
         <v>474</v>
       </c>
       <c r="D874" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E874" s="3" t="s">
         <v>22</v>
@@ -40490,13 +40487,13 @@
         <v>2006</v>
       </c>
       <c r="J874" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K874" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="L874" s="3" t="s">
         <v>931</v>
-      </c>
-      <c r="L874" s="3" t="s">
-        <v>932</v>
       </c>
       <c r="M874" s="3" t="s">
         <v>23</v>
@@ -40531,7 +40528,7 @@
         <v>628</v>
       </c>
       <c r="D875" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E875" s="3" t="s">
         <v>22</v>
@@ -40549,13 +40546,13 @@
         <v>2006</v>
       </c>
       <c r="J875" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K875" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="L875" s="3" t="s">
         <v>933</v>
-      </c>
-      <c r="L875" s="3" t="s">
-        <v>934</v>
       </c>
       <c r="M875" s="3" t="s">
         <v>23</v>
@@ -40587,10 +40584,10 @@
         <v>0</v>
       </c>
       <c r="C876" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D876" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E876" s="3" t="s">
         <v>22</v>
@@ -40608,10 +40605,10 @@
         <v>2006</v>
       </c>
       <c r="J876" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K876" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L876" s="3" t="s">
         <v>23</v>
@@ -40640,7 +40637,7 @@
     </row>
     <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B877" s="1" t="n">
         <v>0</v>
@@ -40649,10 +40646,10 @@
         <v>527</v>
       </c>
       <c r="D877" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="E877" s="3" t="s">
         <v>938</v>
-      </c>
-      <c r="E877" s="3" t="s">
-        <v>939</v>
       </c>
       <c r="F877" s="3" t="s">
         <v>22</v>
@@ -40667,7 +40664,7 @@
         <v>2014</v>
       </c>
       <c r="J877" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K877" s="3" t="s">
         <v>527</v>
@@ -40688,7 +40685,7 @@
         <v>651</v>
       </c>
       <c r="Q877" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R877" s="3" t="s">
         <v>38</v>
@@ -40699,7 +40696,7 @@
     </row>
     <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B878" s="1" t="n">
         <v>0</v>
@@ -40708,7 +40705,7 @@
         <v>644</v>
       </c>
       <c r="D878" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E878" s="3" t="s">
         <v>22</v>
@@ -40726,10 +40723,10 @@
         <v>2016</v>
       </c>
       <c r="J878" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="K878" s="3" t="s">
         <v>944</v>
-      </c>
-      <c r="K878" s="3" t="s">
-        <v>945</v>
       </c>
       <c r="L878" s="3" t="s">
         <v>721</v>
@@ -40767,7 +40764,7 @@
         <v>644</v>
       </c>
       <c r="D879" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E879" s="3" t="s">
         <v>22</v>
@@ -40785,10 +40782,10 @@
         <v>2016</v>
       </c>
       <c r="J879" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="K879" s="3" t="s">
         <v>944</v>
-      </c>
-      <c r="K879" s="3" t="s">
-        <v>945</v>
       </c>
       <c r="L879" s="3" t="s">
         <v>721</v>
@@ -40817,7 +40814,7 @@
     </row>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B880" s="1" t="n">
         <v>0</v>
@@ -40826,7 +40823,7 @@
         <v>644</v>
       </c>
       <c r="D880" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E880" s="3" t="s">
         <v>22</v>
@@ -40844,10 +40841,10 @@
         <v>2016</v>
       </c>
       <c r="J880" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="K880" s="3" t="s">
         <v>944</v>
-      </c>
-      <c r="K880" s="3" t="s">
-        <v>945</v>
       </c>
       <c r="L880" s="3" t="s">
         <v>721</v>
@@ -40885,7 +40882,7 @@
         <v>644</v>
       </c>
       <c r="D881" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E881" s="3" t="s">
         <v>22</v>
@@ -40903,10 +40900,10 @@
         <v>2016</v>
       </c>
       <c r="J881" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="K881" s="3" t="s">
         <v>944</v>
-      </c>
-      <c r="K881" s="3" t="s">
-        <v>945</v>
       </c>
       <c r="L881" s="3" t="s">
         <v>721</v>
@@ -40941,35 +40938,35 @@
         <v>0</v>
       </c>
       <c r="C882" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D882" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E882" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F882" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G882" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H882" s="3" t="s">
         <v>948</v>
-      </c>
-      <c r="H882" s="3" t="s">
-        <v>949</v>
       </c>
       <c r="I882" s="3" t="n">
         <v>1999</v>
       </c>
       <c r="J882" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="K882" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="K882" s="3" t="s">
+      <c r="L882" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="L882" s="3" t="s">
-        <v>952</v>
-      </c>
       <c r="M882" s="3" t="s">
         <v>23</v>
       </c>
@@ -40983,7 +40980,7 @@
         <v>23</v>
       </c>
       <c r="Q882" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="R882" s="3" t="s">
         <v>22</v>
@@ -41003,28 +41000,28 @@
         <v>527</v>
       </c>
       <c r="D883" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E883" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F883" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G883" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H883" s="3" t="s">
         <v>948</v>
-      </c>
-      <c r="H883" s="3" t="s">
-        <v>949</v>
       </c>
       <c r="I883" s="3" t="n">
         <v>1999</v>
       </c>
       <c r="J883" s="0" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K883" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="L883" s="3" t="s">
         <v>23</v>
@@ -41042,7 +41039,7 @@
         <v>23</v>
       </c>
       <c r="Q883" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="R883" s="3" t="s">
         <v>38</v>
@@ -41053,37 +41050,37 @@
     </row>
     <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="B884" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C884" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="B884" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C884" s="1" t="s">
+      <c r="D884" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="D884" s="2" t="s">
+      <c r="E884" s="3" t="s">
         <v>956</v>
-      </c>
-      <c r="E884" s="3" t="s">
-        <v>957</v>
       </c>
       <c r="F884" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G884" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="H884" s="3" t="s">
         <v>958</v>
-      </c>
-      <c r="H884" s="3" t="s">
-        <v>959</v>
       </c>
       <c r="I884" s="3" t="n">
         <v>2005</v>
       </c>
       <c r="K884" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="L884" s="3" t="s">
         <v>960</v>
-      </c>
-      <c r="L884" s="3" t="s">
-        <v>961</v>
       </c>
       <c r="M884" s="3" t="s">
         <v>23</v>
@@ -41109,16 +41106,16 @@
     </row>
     <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="0" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B885" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C885" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D885" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="D885" s="2" t="s">
-        <v>963</v>
       </c>
       <c r="E885" s="3" t="s">
         <v>22</v>
@@ -41136,28 +41133,28 @@
         <v>1995</v>
       </c>
       <c r="J885" s="0" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K885" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="L885" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="L885" s="3" t="s">
+      <c r="M885" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N885" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O885" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="M885" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N885" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O885" s="3" t="s">
+      <c r="P885" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="P885" s="3" t="s">
-        <v>967</v>
-      </c>
       <c r="Q885" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="R885" s="3" t="s">
         <v>22</v>
@@ -41168,7 +41165,7 @@
     </row>
     <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B886" s="1" t="n">
         <v>0</v>
@@ -41177,46 +41174,46 @@
         <v>527</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E886" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F886" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G886" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="H886" s="3" t="s">
         <v>969</v>
-      </c>
-      <c r="H886" s="3" t="s">
-        <v>970</v>
       </c>
       <c r="I886" s="3" t="n">
         <v>1997</v>
       </c>
       <c r="J886" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="K886" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="K886" s="3" t="s">
+      <c r="L886" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M886" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N886" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O886" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="L886" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M886" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N886" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O886" s="3" t="s">
+      <c r="P886" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="P886" s="3" t="s">
-        <v>974</v>
-      </c>
       <c r="Q886" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="R886" s="3" t="s">
         <v>38</v>
@@ -41227,7 +41224,7 @@
     </row>
     <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="0" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B887" s="1" t="n">
         <v>0</v>
@@ -41236,28 +41233,28 @@
         <v>527</v>
       </c>
       <c r="D887" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E887" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F887" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G887" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="H887" s="3" t="s">
         <v>977</v>
-      </c>
-      <c r="H887" s="3" t="s">
-        <v>978</v>
       </c>
       <c r="I887" s="3" t="n">
         <v>2011</v>
       </c>
       <c r="J887" s="0" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="K887" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="L887" s="3" t="s">
         <v>23</v>
@@ -41286,16 +41283,16 @@
     </row>
     <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="B888" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C888" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D888" s="2" t="s">
         <v>980</v>
-      </c>
-      <c r="B888" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C888" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="D888" s="2" t="s">
-        <v>981</v>
       </c>
       <c r="E888" s="3" t="s">
         <v>22</v>
@@ -41313,13 +41310,13 @@
         <v>2012</v>
       </c>
       <c r="J888" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="K888" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="K888" s="3" t="s">
+      <c r="L888" s="3" t="s">
         <v>983</v>
-      </c>
-      <c r="L888" s="3" t="s">
-        <v>984</v>
       </c>
       <c r="M888" s="3" t="s">
         <v>23</v>
@@ -41331,7 +41328,7 @@
         <v>653</v>
       </c>
       <c r="P888" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="Q888" s="3" t="s">
         <v>446</v>
@@ -41351,10 +41348,10 @@
         <v>0</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D889" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E889" s="3" t="s">
         <v>22</v>
@@ -41372,13 +41369,13 @@
         <v>2012</v>
       </c>
       <c r="J889" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="K889" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="K889" s="3" t="s">
+      <c r="L889" s="3" t="s">
         <v>983</v>
-      </c>
-      <c r="L889" s="3" t="s">
-        <v>984</v>
       </c>
       <c r="M889" s="3" t="s">
         <v>23</v>
@@ -41390,7 +41387,7 @@
         <v>653</v>
       </c>
       <c r="P889" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="Q889" s="3" t="s">
         <v>446</v>
@@ -41410,10 +41407,10 @@
         <v>0</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D890" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E890" s="3" t="s">
         <v>22</v>
@@ -41431,28 +41428,28 @@
         <v>2019</v>
       </c>
       <c r="J890" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="K890" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="K890" s="3" t="s">
+      <c r="L890" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="L890" s="3" t="s">
+      <c r="M890" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N890" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O890" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="M890" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N890" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O890" s="3" t="s">
+      <c r="P890" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="P890" s="3" t="s">
-        <v>991</v>
-      </c>
       <c r="Q890" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="R890" s="3" t="s">
         <v>38</v>
@@ -41469,10 +41466,10 @@
         <v>0</v>
       </c>
       <c r="C891" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D891" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E891" s="3" t="s">
         <v>22</v>
@@ -41490,28 +41487,28 @@
         <v>2019</v>
       </c>
       <c r="J891" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="K891" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="K891" s="3" t="s">
+      <c r="L891" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="L891" s="3" t="s">
+      <c r="M891" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N891" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O891" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="M891" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N891" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O891" s="3" t="s">
+      <c r="P891" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="P891" s="3" t="s">
-        <v>991</v>
-      </c>
       <c r="Q891" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="R891" s="3" t="s">
         <v>38</v>
@@ -41531,7 +41528,7 @@
         <v>346</v>
       </c>
       <c r="D892" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E892" s="3" t="s">
         <v>22</v>
@@ -41549,13 +41546,13 @@
         <v>2013</v>
       </c>
       <c r="J892" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="K892" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="K892" s="3" t="s">
+      <c r="L892" s="3" t="s">
         <v>994</v>
-      </c>
-      <c r="L892" s="3" t="s">
-        <v>995</v>
       </c>
       <c r="M892" s="3" t="s">
         <v>23</v>
@@ -41567,10 +41564,10 @@
         <v>653</v>
       </c>
       <c r="P892" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="Q892" s="3" t="s">
         <v>996</v>
-      </c>
-      <c r="Q892" s="3" t="s">
-        <v>997</v>
       </c>
       <c r="R892" s="3" t="s">
         <v>38</v>
@@ -41581,7 +41578,7 @@
     </row>
     <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B893" s="1" t="n">
         <v>0</v>
@@ -41590,7 +41587,7 @@
         <v>346</v>
       </c>
       <c r="D893" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E893" s="3" t="s">
         <v>22</v>
@@ -41608,13 +41605,13 @@
         <v>2013</v>
       </c>
       <c r="J893" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="K893" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="K893" s="3" t="s">
+      <c r="L893" s="3" t="s">
         <v>994</v>
-      </c>
-      <c r="L893" s="3" t="s">
-        <v>995</v>
       </c>
       <c r="M893" s="3" t="s">
         <v>23</v>
@@ -41626,10 +41623,10 @@
         <v>653</v>
       </c>
       <c r="P893" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="Q893" s="3" t="s">
         <v>996</v>
-      </c>
-      <c r="Q893" s="3" t="s">
-        <v>997</v>
       </c>
       <c r="R893" s="3" t="s">
         <v>38</v>
@@ -41640,7 +41637,7 @@
     </row>
     <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B894" s="1" t="n">
         <v>0</v>
@@ -41649,7 +41646,7 @@
         <v>262</v>
       </c>
       <c r="D894" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E894" s="3" t="s">
         <v>22</v>
@@ -41667,13 +41664,13 @@
         <v>2007</v>
       </c>
       <c r="J894" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K894" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="K894" s="3" t="s">
+      <c r="L894" s="3" t="s">
         <v>1002</v>
-      </c>
-      <c r="L894" s="3" t="s">
-        <v>1003</v>
       </c>
       <c r="M894" s="3" t="s">
         <v>23</v>
@@ -41688,7 +41685,7 @@
         <v>651</v>
       </c>
       <c r="Q894" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="R894" s="3" t="s">
         <v>38</v>
@@ -41699,16 +41696,16 @@
     </row>
     <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B895" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C895" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D895" s="2" t="s">
         <v>1004</v>
-      </c>
-      <c r="B895" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C895" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D895" s="2" t="s">
-        <v>1005</v>
       </c>
       <c r="E895" s="3" t="s">
         <v>22</v>
@@ -41729,10 +41726,10 @@
         <v>552</v>
       </c>
       <c r="K895" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L895" s="3" t="s">
         <v>1006</v>
-      </c>
-      <c r="L895" s="3" t="s">
-        <v>1007</v>
       </c>
       <c r="M895" s="3" t="s">
         <v>22</v>
@@ -41741,13 +41738,13 @@
         <v>38</v>
       </c>
       <c r="O895" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="P895" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q895" s="3" t="s">
         <v>1008</v>
-      </c>
-      <c r="P895" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="Q895" s="3" t="s">
-        <v>1009</v>
       </c>
       <c r="R895" s="3" t="s">
         <v>38</v>
@@ -41758,16 +41755,16 @@
     </row>
     <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B896" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D896" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E896" s="3" t="s">
         <v>22</v>
@@ -41788,10 +41785,10 @@
         <v>552</v>
       </c>
       <c r="K896" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L896" s="3" t="s">
         <v>1006</v>
-      </c>
-      <c r="L896" s="3" t="s">
-        <v>1007</v>
       </c>
       <c r="M896" s="3" t="s">
         <v>22</v>
@@ -41800,13 +41797,13 @@
         <v>38</v>
       </c>
       <c r="O896" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="P896" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q896" s="3" t="s">
         <v>1008</v>
-      </c>
-      <c r="P896" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="Q896" s="3" t="s">
-        <v>1009</v>
       </c>
       <c r="R896" s="3" t="s">
         <v>38</v>
@@ -41817,16 +41814,16 @@
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B897" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D897" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E897" s="3" t="s">
         <v>22</v>
@@ -41847,25 +41844,25 @@
         <v>552</v>
       </c>
       <c r="K897" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L897" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="L897" s="3" t="s">
+      <c r="M897" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N897" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O897" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="M897" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N897" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O897" s="3" t="s">
+      <c r="P897" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q897" s="3" t="s">
         <v>1008</v>
-      </c>
-      <c r="P897" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="Q897" s="3" t="s">
-        <v>1009</v>
       </c>
       <c r="R897" s="3" t="s">
         <v>38</v>
@@ -41882,10 +41879,10 @@
         <v>0</v>
       </c>
       <c r="C898" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D898" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E898" s="3" t="s">
         <v>22</v>
@@ -41906,25 +41903,25 @@
         <v>552</v>
       </c>
       <c r="K898" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L898" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="L898" s="3" t="s">
+      <c r="M898" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N898" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O898" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="M898" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N898" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O898" s="3" t="s">
+      <c r="P898" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q898" s="3" t="s">
         <v>1008</v>
-      </c>
-      <c r="P898" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="Q898" s="3" t="s">
-        <v>1009</v>
       </c>
       <c r="R898" s="3" t="s">
         <v>38</v>
@@ -41935,16 +41932,16 @@
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B899" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D899" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E899" s="3" t="s">
         <v>22</v>
@@ -41965,25 +41962,25 @@
         <v>552</v>
       </c>
       <c r="K899" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L899" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="L899" s="3" t="s">
+      <c r="M899" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N899" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O899" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="M899" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N899" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O899" s="3" t="s">
+      <c r="P899" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q899" s="3" t="s">
         <v>1008</v>
-      </c>
-      <c r="P899" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="Q899" s="3" t="s">
-        <v>1009</v>
       </c>
       <c r="R899" s="3" t="s">
         <v>38</v>
@@ -42000,10 +41997,10 @@
         <v>0</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D900" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E900" s="3" t="s">
         <v>22</v>
@@ -42024,10 +42021,10 @@
         <v>552</v>
       </c>
       <c r="K900" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L900" s="3" t="s">
         <v>1006</v>
-      </c>
-      <c r="L900" s="3" t="s">
-        <v>1007</v>
       </c>
       <c r="M900" s="3" t="s">
         <v>22</v>
@@ -42036,13 +42033,13 @@
         <v>38</v>
       </c>
       <c r="O900" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="P900" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q900" s="3" t="s">
         <v>1008</v>
-      </c>
-      <c r="P900" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="Q900" s="3" t="s">
-        <v>1009</v>
       </c>
       <c r="R900" s="3" t="s">
         <v>38</v>
@@ -42053,16 +42050,16 @@
     </row>
     <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B901" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D901" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E901" s="3" t="s">
         <v>22</v>
@@ -42083,25 +42080,25 @@
         <v>552</v>
       </c>
       <c r="K901" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L901" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="L901" s="3" t="s">
+      <c r="M901" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N901" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O901" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="M901" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N901" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O901" s="3" t="s">
+      <c r="P901" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q901" s="3" t="s">
         <v>1008</v>
-      </c>
-      <c r="P901" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="Q901" s="3" t="s">
-        <v>1009</v>
       </c>
       <c r="R901" s="3" t="s">
         <v>38</v>
@@ -42112,16 +42109,16 @@
     </row>
     <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B902" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D902" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E902" s="3" t="s">
         <v>22</v>
@@ -42142,25 +42139,25 @@
         <v>552</v>
       </c>
       <c r="K902" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L902" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="L902" s="3" t="s">
+      <c r="M902" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N902" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O902" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="M902" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N902" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O902" s="3" t="s">
+      <c r="P902" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q902" s="3" t="s">
         <v>1008</v>
-      </c>
-      <c r="P902" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="Q902" s="3" t="s">
-        <v>1009</v>
       </c>
       <c r="R902" s="3" t="s">
         <v>38</v>
@@ -42171,55 +42168,55 @@
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B903" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C903" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D903" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="B903" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C903" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D903" s="2" t="s">
+      <c r="E903" s="3" t="s">
         <v>1016</v>
-      </c>
-      <c r="E903" s="3" t="s">
-        <v>1017</v>
       </c>
       <c r="F903" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G903" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H903" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="H903" s="3" t="s">
-        <v>1019</v>
       </c>
       <c r="I903" s="3" t="n">
         <v>2018</v>
       </c>
       <c r="J903" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="K903" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L903" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="L903" s="3" t="s">
+      <c r="M903" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N903" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O903" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="M903" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N903" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O903" s="3" t="s">
+      <c r="P903" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="P903" s="3" t="s">
-        <v>1023</v>
-      </c>
       <c r="Q903" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="R903" s="3" t="s">
         <v>38</v>
@@ -42230,7 +42227,7 @@
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="0" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B904" s="1" t="n">
         <v>0</v>
@@ -42239,7 +42236,7 @@
         <v>527</v>
       </c>
       <c r="D904" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E904" s="3" t="s">
         <v>22</v>
@@ -42275,7 +42272,7 @@
         <v>23</v>
       </c>
       <c r="P904" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="Q904" s="3" t="s">
         <v>23</v>
@@ -42298,7 +42295,7 @@
         <v>172</v>
       </c>
       <c r="D905" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E905" s="3" t="s">
         <v>22</v>
@@ -42319,25 +42316,25 @@
         <v>552</v>
       </c>
       <c r="K905" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L905" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="L905" s="3" t="s">
+      <c r="M905" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N905" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O905" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P905" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q905" s="3" t="s">
         <v>1029</v>
-      </c>
-      <c r="M905" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N905" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O905" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P905" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q905" s="3" t="s">
-        <v>1030</v>
       </c>
       <c r="R905" s="3" t="s">
         <v>22</v>
@@ -42357,7 +42354,7 @@
         <v>262</v>
       </c>
       <c r="D906" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E906" s="3" t="s">
         <v>22</v>
@@ -42396,7 +42393,7 @@
         <v>23</v>
       </c>
       <c r="Q906" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R906" s="3" t="s">
         <v>22</v>
@@ -42407,7 +42404,7 @@
     </row>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B907" s="1" t="n">
         <v>0</v>
@@ -42416,7 +42413,7 @@
         <v>172</v>
       </c>
       <c r="D907" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E907" s="3" t="s">
         <v>22</v>
@@ -42437,25 +42434,25 @@
         <v>552</v>
       </c>
       <c r="K907" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L907" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="L907" s="3" t="s">
+      <c r="M907" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N907" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O907" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P907" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q907" s="3" t="s">
         <v>1029</v>
-      </c>
-      <c r="M907" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N907" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O907" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P907" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q907" s="3" t="s">
-        <v>1030</v>
       </c>
       <c r="R907" s="3" t="s">
         <v>22</v>
@@ -42466,7 +42463,7 @@
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B908" s="1" t="n">
         <v>0</v>
@@ -42475,7 +42472,7 @@
         <v>177</v>
       </c>
       <c r="D908" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E908" s="3" t="s">
         <v>22</v>
@@ -42499,7 +42496,7 @@
         <v>177</v>
       </c>
       <c r="L908" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="M908" s="3" t="s">
         <v>23</v>
@@ -42514,7 +42511,7 @@
         <v>23</v>
       </c>
       <c r="Q908" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R908" s="3" t="s">
         <v>22</v>
@@ -42525,7 +42522,7 @@
     </row>
     <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B909" s="1" t="n">
         <v>0</v>
@@ -42534,7 +42531,7 @@
         <v>527</v>
       </c>
       <c r="D909" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E909" s="3" t="s">
         <v>22</v>
@@ -42573,7 +42570,7 @@
         <v>23</v>
       </c>
       <c r="Q909" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R909" s="3" t="s">
         <v>22</v>
@@ -42584,7 +42581,7 @@
     </row>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B910" s="1" t="n">
         <v>0</v>
@@ -42593,7 +42590,7 @@
         <v>628</v>
       </c>
       <c r="D910" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E910" s="3" t="s">
         <v>22</v>
@@ -42632,7 +42629,7 @@
         <v>23</v>
       </c>
       <c r="Q910" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R910" s="3" t="s">
         <v>22</v>
@@ -42643,7 +42640,7 @@
     </row>
     <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="0" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B911" s="1" t="n">
         <v>0</v>
@@ -42652,10 +42649,10 @@
         <v>172</v>
       </c>
       <c r="D911" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E911" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F911" s="3" t="s">
         <v>22</v>
@@ -42673,25 +42670,25 @@
         <v>552</v>
       </c>
       <c r="K911" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L911" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="L911" s="3" t="s">
+      <c r="M911" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N911" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O911" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P911" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q911" s="3" t="s">
         <v>1029</v>
-      </c>
-      <c r="M911" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N911" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O911" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P911" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q911" s="3" t="s">
-        <v>1030</v>
       </c>
       <c r="R911" s="3" t="s">
         <v>22</v>
@@ -42702,7 +42699,7 @@
     </row>
     <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B912" s="1" t="n">
         <v>0</v>
@@ -42711,7 +42708,7 @@
         <v>177</v>
       </c>
       <c r="D912" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E912" s="3" t="s">
         <v>22</v>
@@ -42735,7 +42732,7 @@
         <v>177</v>
       </c>
       <c r="L912" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="M912" s="3" t="s">
         <v>23</v>
@@ -42750,7 +42747,7 @@
         <v>23</v>
       </c>
       <c r="Q912" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R912" s="3" t="s">
         <v>22</v>
@@ -42761,7 +42758,7 @@
     </row>
     <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B913" s="1" t="n">
         <v>0</v>
@@ -42770,7 +42767,7 @@
         <v>527</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E913" s="3" t="s">
         <v>22</v>
@@ -42809,7 +42806,7 @@
         <v>23</v>
       </c>
       <c r="Q913" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R913" s="3" t="s">
         <v>22</v>
@@ -42820,7 +42817,7 @@
     </row>
     <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B914" s="1" t="n">
         <v>0</v>
@@ -42829,7 +42826,7 @@
         <v>628</v>
       </c>
       <c r="D914" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E914" s="3" t="s">
         <v>22</v>
@@ -42868,7 +42865,7 @@
         <v>23</v>
       </c>
       <c r="Q914" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R914" s="3" t="s">
         <v>22</v>
@@ -42879,7 +42876,7 @@
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B915" s="1" t="n">
         <v>0</v>
@@ -42888,10 +42885,10 @@
         <v>262</v>
       </c>
       <c r="D915" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E915" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F915" s="3" t="s">
         <v>22</v>
@@ -42927,7 +42924,7 @@
         <v>23</v>
       </c>
       <c r="Q915" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R915" s="3" t="s">
         <v>22</v>
@@ -42947,7 +42944,7 @@
         <v>172</v>
       </c>
       <c r="D916" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E916" s="3" t="s">
         <v>22</v>
@@ -42968,25 +42965,25 @@
         <v>552</v>
       </c>
       <c r="K916" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L916" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="L916" s="3" t="s">
+      <c r="M916" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N916" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O916" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P916" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q916" s="3" t="s">
         <v>1029</v>
-      </c>
-      <c r="M916" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N916" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O916" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P916" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q916" s="3" t="s">
-        <v>1030</v>
       </c>
       <c r="R916" s="3" t="s">
         <v>22</v>
@@ -42997,7 +42994,7 @@
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B917" s="1" t="n">
         <v>0</v>
@@ -43006,7 +43003,7 @@
         <v>172</v>
       </c>
       <c r="D917" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E917" s="3" t="s">
         <v>22</v>
@@ -43027,25 +43024,25 @@
         <v>552</v>
       </c>
       <c r="K917" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L917" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="L917" s="3" t="s">
+      <c r="M917" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N917" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O917" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P917" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q917" s="3" t="s">
         <v>1029</v>
-      </c>
-      <c r="M917" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N917" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O917" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P917" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q917" s="3" t="s">
-        <v>1030</v>
       </c>
       <c r="R917" s="3" t="s">
         <v>22</v>
@@ -43056,7 +43053,7 @@
     </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B918" s="1" t="n">
         <v>0</v>
@@ -43065,7 +43062,7 @@
         <v>177</v>
       </c>
       <c r="D918" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E918" s="3" t="s">
         <v>22</v>
@@ -43089,7 +43086,7 @@
         <v>177</v>
       </c>
       <c r="L918" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="M918" s="3" t="s">
         <v>23</v>
@@ -43104,7 +43101,7 @@
         <v>23</v>
       </c>
       <c r="Q918" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R918" s="3" t="s">
         <v>22</v>
@@ -43115,7 +43112,7 @@
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B919" s="1" t="n">
         <v>0</v>
@@ -43124,7 +43121,7 @@
         <v>527</v>
       </c>
       <c r="D919" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E919" s="3" t="s">
         <v>22</v>
@@ -43163,7 +43160,7 @@
         <v>23</v>
       </c>
       <c r="Q919" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R919" s="3" t="s">
         <v>22</v>
@@ -43174,7 +43171,7 @@
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B920" s="1" t="n">
         <v>0</v>
@@ -43183,7 +43180,7 @@
         <v>628</v>
       </c>
       <c r="D920" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E920" s="3" t="s">
         <v>22</v>
@@ -43222,7 +43219,7 @@
         <v>23</v>
       </c>
       <c r="Q920" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R920" s="3" t="s">
         <v>22</v>
@@ -43233,7 +43230,7 @@
     </row>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B921" s="1" t="n">
         <v>0</v>
@@ -43242,7 +43239,7 @@
         <v>262</v>
       </c>
       <c r="D921" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E921" s="3" t="s">
         <v>22</v>
@@ -43281,7 +43278,7 @@
         <v>23</v>
       </c>
       <c r="Q921" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R921" s="3" t="s">
         <v>22</v>
@@ -43292,7 +43289,7 @@
     </row>
     <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B922" s="1" t="n">
         <v>0</v>
@@ -43301,7 +43298,7 @@
         <v>172</v>
       </c>
       <c r="D922" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E922" s="3" t="s">
         <v>22</v>
@@ -43322,25 +43319,25 @@
         <v>552</v>
       </c>
       <c r="K922" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L922" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="L922" s="3" t="s">
+      <c r="M922" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N922" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O922" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P922" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q922" s="3" t="s">
         <v>1029</v>
-      </c>
-      <c r="M922" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N922" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O922" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P922" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q922" s="3" t="s">
-        <v>1030</v>
       </c>
       <c r="R922" s="3" t="s">
         <v>22</v>
@@ -43351,7 +43348,7 @@
     </row>
     <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B923" s="1" t="n">
         <v>0</v>
@@ -43360,7 +43357,7 @@
         <v>527</v>
       </c>
       <c r="D923" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E923" s="3" t="s">
         <v>22</v>
@@ -43399,7 +43396,7 @@
         <v>23</v>
       </c>
       <c r="Q923" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R923" s="3" t="s">
         <v>22</v>
@@ -43410,7 +43407,7 @@
     </row>
     <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B924" s="1" t="n">
         <v>0</v>
@@ -43419,7 +43416,7 @@
         <v>628</v>
       </c>
       <c r="D924" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E924" s="3" t="s">
         <v>22</v>
@@ -43458,7 +43455,7 @@
         <v>23</v>
       </c>
       <c r="Q924" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R924" s="3" t="s">
         <v>22</v>
@@ -43469,7 +43466,7 @@
     </row>
     <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B925" s="1" t="n">
         <v>0</v>
@@ -43478,7 +43475,7 @@
         <v>262</v>
       </c>
       <c r="D925" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E925" s="3" t="s">
         <v>22</v>
@@ -43517,7 +43514,7 @@
         <v>23</v>
       </c>
       <c r="Q925" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R925" s="3" t="s">
         <v>22</v>
@@ -43528,7 +43525,7 @@
     </row>
     <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="0" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B926" s="1" t="n">
         <v>0</v>
@@ -43537,7 +43534,7 @@
         <v>172</v>
       </c>
       <c r="D926" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E926" s="3" t="s">
         <v>22</v>
@@ -43558,25 +43555,25 @@
         <v>552</v>
       </c>
       <c r="K926" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L926" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="L926" s="3" t="s">
+      <c r="M926" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N926" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O926" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P926" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q926" s="3" t="s">
         <v>1029</v>
-      </c>
-      <c r="M926" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N926" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O926" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P926" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q926" s="3" t="s">
-        <v>1030</v>
       </c>
       <c r="R926" s="3" t="s">
         <v>22</v>
@@ -43587,7 +43584,7 @@
     </row>
     <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="0" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B927" s="1" t="n">
         <v>0</v>
@@ -43596,7 +43593,7 @@
         <v>177</v>
       </c>
       <c r="D927" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E927" s="3" t="s">
         <v>22</v>
@@ -43620,7 +43617,7 @@
         <v>177</v>
       </c>
       <c r="L927" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="M927" s="3" t="s">
         <v>23</v>
@@ -43635,7 +43632,7 @@
         <v>23</v>
       </c>
       <c r="Q927" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R927" s="3" t="s">
         <v>22</v>
@@ -43646,7 +43643,7 @@
     </row>
     <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="0" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B928" s="1" t="n">
         <v>0</v>
@@ -43655,7 +43652,7 @@
         <v>527</v>
       </c>
       <c r="D928" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E928" s="3" t="s">
         <v>22</v>
@@ -43694,7 +43691,7 @@
         <v>23</v>
       </c>
       <c r="Q928" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R928" s="3" t="s">
         <v>22</v>
@@ -43705,7 +43702,7 @@
     </row>
     <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B929" s="1" t="n">
         <v>0</v>
@@ -43714,7 +43711,7 @@
         <v>628</v>
       </c>
       <c r="D929" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E929" s="3" t="s">
         <v>22</v>
@@ -43753,7 +43750,7 @@
         <v>23</v>
       </c>
       <c r="Q929" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R929" s="3" t="s">
         <v>22</v>
@@ -43764,7 +43761,7 @@
     </row>
     <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B930" s="1" t="n">
         <v>0</v>
@@ -43773,7 +43770,7 @@
         <v>262</v>
       </c>
       <c r="D930" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E930" s="3" t="s">
         <v>22</v>
@@ -43812,7 +43809,7 @@
         <v>23</v>
       </c>
       <c r="Q930" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R930" s="3" t="s">
         <v>22</v>
@@ -43823,7 +43820,7 @@
     </row>
     <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B931" s="1" t="n">
         <v>0</v>
@@ -43832,7 +43829,7 @@
         <v>172</v>
       </c>
       <c r="D931" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E931" s="3" t="s">
         <v>22</v>
@@ -43853,25 +43850,25 @@
         <v>552</v>
       </c>
       <c r="K931" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L931" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="L931" s="3" t="s">
+      <c r="M931" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N931" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O931" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P931" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q931" s="3" t="s">
         <v>1029</v>
-      </c>
-      <c r="M931" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N931" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O931" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P931" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q931" s="3" t="s">
-        <v>1030</v>
       </c>
       <c r="R931" s="3" t="s">
         <v>22</v>
@@ -43882,7 +43879,7 @@
     </row>
     <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B932" s="1" t="n">
         <v>0</v>
@@ -43891,7 +43888,7 @@
         <v>172</v>
       </c>
       <c r="D932" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E932" s="3" t="s">
         <v>22</v>
@@ -43912,25 +43909,25 @@
         <v>552</v>
       </c>
       <c r="K932" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L932" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="L932" s="3" t="s">
+      <c r="M932" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N932" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O932" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P932" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q932" s="3" t="s">
         <v>1029</v>
-      </c>
-      <c r="M932" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N932" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O932" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P932" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q932" s="3" t="s">
-        <v>1030</v>
       </c>
       <c r="R932" s="3" t="s">
         <v>22</v>
@@ -43941,7 +43938,7 @@
     </row>
     <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B933" s="1" t="n">
         <v>0</v>
@@ -43950,7 +43947,7 @@
         <v>172</v>
       </c>
       <c r="D933" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E933" s="3" t="s">
         <v>22</v>
@@ -43971,25 +43968,25 @@
         <v>552</v>
       </c>
       <c r="K933" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L933" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="L933" s="3" t="s">
+      <c r="M933" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N933" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O933" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P933" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q933" s="3" t="s">
         <v>1029</v>
-      </c>
-      <c r="M933" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N933" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O933" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P933" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q933" s="3" t="s">
-        <v>1030</v>
       </c>
       <c r="R933" s="3" t="s">
         <v>22</v>
@@ -44000,7 +43997,7 @@
     </row>
     <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B934" s="1" t="n">
         <v>0</v>
@@ -44009,7 +44006,7 @@
         <v>527</v>
       </c>
       <c r="D934" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E934" s="3" t="s">
         <v>22</v>
@@ -44048,7 +44045,7 @@
         <v>23</v>
       </c>
       <c r="Q934" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R934" s="3" t="s">
         <v>22</v>
@@ -44059,7 +44056,7 @@
     </row>
     <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B935" s="1" t="n">
         <v>0</v>
@@ -44068,7 +44065,7 @@
         <v>628</v>
       </c>
       <c r="D935" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E935" s="3" t="s">
         <v>22</v>
@@ -44107,7 +44104,7 @@
         <v>23</v>
       </c>
       <c r="Q935" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R935" s="3" t="s">
         <v>22</v>
@@ -44118,7 +44115,7 @@
     </row>
     <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B936" s="1" t="n">
         <v>0</v>
@@ -44127,7 +44124,7 @@
         <v>262</v>
       </c>
       <c r="D936" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E936" s="3" t="s">
         <v>22</v>
@@ -44166,7 +44163,7 @@
         <v>23</v>
       </c>
       <c r="Q936" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R936" s="3" t="s">
         <v>22</v>
@@ -44186,7 +44183,7 @@
         <v>172</v>
       </c>
       <c r="D937" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E937" s="3" t="s">
         <v>22</v>
@@ -44207,25 +44204,25 @@
         <v>552</v>
       </c>
       <c r="K937" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L937" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="L937" s="3" t="s">
+      <c r="M937" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N937" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O937" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P937" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q937" s="3" t="s">
         <v>1029</v>
-      </c>
-      <c r="M937" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N937" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O937" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P937" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q937" s="3" t="s">
-        <v>1030</v>
       </c>
       <c r="R937" s="3" t="s">
         <v>22</v>
@@ -44236,7 +44233,7 @@
     </row>
     <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B938" s="1" t="n">
         <v>0</v>
@@ -44245,7 +44242,7 @@
         <v>183</v>
       </c>
       <c r="D938" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E938" s="1" t="s">
         <v>237</v>
@@ -44254,22 +44251,22 @@
         <v>38</v>
       </c>
       <c r="G938" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H938" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="H938" s="1" t="s">
-        <v>1044</v>
       </c>
       <c r="I938" s="3" t="n">
         <v>2016</v>
       </c>
       <c r="J938" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K938" s="6" t="s">
         <v>183</v>
       </c>
       <c r="L938" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M938" s="3" t="s">
         <v>38</v>
@@ -44304,19 +44301,19 @@
         <v>527</v>
       </c>
       <c r="D939" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E939" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F939" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G939" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H939" s="3" t="s">
         <v>1048</v>
-      </c>
-      <c r="H939" s="3" t="s">
-        <v>1049</v>
       </c>
       <c r="I939" s="3" t="n">
         <v>2014</v>
@@ -44360,10 +44357,10 @@
         <v>0</v>
       </c>
       <c r="C940" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D940" s="2" t="s">
         <v>1050</v>
-      </c>
-      <c r="D940" s="2" t="s">
-        <v>1051</v>
       </c>
       <c r="E940" s="3" t="s">
         <v>22</v>
@@ -44381,13 +44378,13 @@
         <v>2015</v>
       </c>
       <c r="J940" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K940" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="K940" s="6" t="s">
+      <c r="L940" s="6" t="s">
         <v>1053</v>
-      </c>
-      <c r="L940" s="6" t="s">
-        <v>1054</v>
       </c>
       <c r="M940" s="3" t="s">
         <v>23</v>
@@ -44413,7 +44410,7 @@
     </row>
     <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B941" s="1" t="n">
         <v>0</v>
@@ -44422,10 +44419,10 @@
         <v>262</v>
       </c>
       <c r="D941" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E941" s="3" t="s">
         <v>1056</v>
-      </c>
-      <c r="E941" s="3" t="s">
-        <v>1057</v>
       </c>
       <c r="F941" s="3" t="s">
         <v>22</v>
@@ -44440,10 +44437,10 @@
         <v>2015</v>
       </c>
       <c r="J941" s="6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K941" s="6" t="s">
         <v>1058</v>
-      </c>
-      <c r="K941" s="6" t="s">
-        <v>1059</v>
       </c>
       <c r="L941" s="3" t="s">
         <v>721</v>
@@ -44461,7 +44458,7 @@
         <v>653</v>
       </c>
       <c r="Q941" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="R941" s="3" t="s">
         <v>38</v>
@@ -44478,10 +44475,10 @@
         <v>0</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D942" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E942" s="3" t="s">
         <v>22</v>
@@ -44499,28 +44496,28 @@
         <v>2018</v>
       </c>
       <c r="J942" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K942" s="6" t="s">
         <v>1062</v>
       </c>
-      <c r="K942" s="6" t="s">
+      <c r="L942" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M942" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N942" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O942" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="L942" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M942" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N942" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O942" s="3" t="s">
+      <c r="P942" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="P942" s="3" t="s">
-        <v>1065</v>
-      </c>
       <c r="Q942" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="R942" s="3" t="s">
         <v>38</v>
@@ -44558,28 +44555,28 @@
         <v>2016</v>
       </c>
       <c r="J943" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="K943" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L943" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="L943" s="3" t="s">
+      <c r="M943" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N943" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O943" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="M943" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N943" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O943" s="3" t="s">
-        <v>1068</v>
-      </c>
       <c r="P943" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="Q943" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="R943" s="3" t="s">
         <v>38</v>
@@ -44617,28 +44614,28 @@
         <v>2016</v>
       </c>
       <c r="J944" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="K944" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="L944" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M944" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N944" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O944" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="M944" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N944" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O944" s="3" t="s">
-        <v>1068</v>
-      </c>
       <c r="P944" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="Q944" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="R944" s="3" t="s">
         <v>38</v>
@@ -44649,7 +44646,7 @@
     </row>
     <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B945" s="1" t="n">
         <v>0</v>
@@ -44658,7 +44655,7 @@
         <v>183</v>
       </c>
       <c r="D945" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E945" s="3" t="s">
         <v>192</v>
@@ -44667,22 +44664,22 @@
         <v>38</v>
       </c>
       <c r="G945" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H945" s="0" t="s">
         <v>1072</v>
-      </c>
-      <c r="H945" s="0" t="s">
-        <v>1073</v>
       </c>
       <c r="I945" s="3" t="n">
         <v>2016</v>
       </c>
       <c r="J945" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K945" s="6" t="s">
         <v>1074</v>
       </c>
-      <c r="K945" s="6" t="s">
-        <v>1075</v>
-      </c>
       <c r="L945" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M945" s="3" t="s">
         <v>38</v>
@@ -44714,10 +44711,10 @@
         <v>0</v>
       </c>
       <c r="C946" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D946" s="2" t="s">
         <v>1076</v>
-      </c>
-      <c r="D946" s="2" t="s">
-        <v>1077</v>
       </c>
       <c r="E946" s="3" t="s">
         <v>22</v>
@@ -44735,13 +44732,13 @@
         <v>2017</v>
       </c>
       <c r="J946" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K946" s="6" t="s">
         <v>1078</v>
       </c>
-      <c r="K946" s="6" t="s">
+      <c r="L946" s="3" t="s">
         <v>1079</v>
-      </c>
-      <c r="L946" s="3" t="s">
-        <v>1080</v>
       </c>
       <c r="M946" s="3" t="s">
         <v>38</v>
@@ -44767,16 +44764,16 @@
     </row>
     <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B947" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C947" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D947" s="2" t="s">
         <v>1081</v>
-      </c>
-      <c r="B947" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C947" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D947" s="2" t="s">
-        <v>1082</v>
       </c>
       <c r="E947" s="3" t="s">
         <v>22</v>
@@ -44794,13 +44791,13 @@
         <v>2013</v>
       </c>
       <c r="J947" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K947" s="6" t="s">
         <v>1083</v>
       </c>
-      <c r="K947" s="6" t="s">
+      <c r="L947" s="3" t="s">
         <v>1084</v>
-      </c>
-      <c r="L947" s="3" t="s">
-        <v>1085</v>
       </c>
       <c r="M947" s="3" t="s">
         <v>38</v>
@@ -44826,16 +44823,16 @@
     </row>
     <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B948" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D948" s="2" t="s">
         <v>1086</v>
-      </c>
-      <c r="B948" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C948" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D948" s="2" t="s">
-        <v>1087</v>
       </c>
       <c r="E948" s="3" t="s">
         <v>22</v>
@@ -44853,13 +44850,13 @@
         <v>2011</v>
       </c>
       <c r="J948" s="0" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K948" s="6" t="s">
         <v>1088</v>
       </c>
-      <c r="K948" s="6" t="s">
+      <c r="L948" s="3" t="s">
         <v>1089</v>
-      </c>
-      <c r="L948" s="3" t="s">
-        <v>1090</v>
       </c>
       <c r="M948" s="3" t="s">
         <v>38</v>
@@ -44891,10 +44888,10 @@
         <v>0</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D949" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E949" s="3" t="s">
         <v>22</v>
@@ -44912,13 +44909,13 @@
         <v>2002</v>
       </c>
       <c r="J949" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K949" s="6" t="s">
         <v>1092</v>
       </c>
-      <c r="K949" s="6" t="s">
+      <c r="L949" s="3" t="s">
         <v>1093</v>
-      </c>
-      <c r="L949" s="3" t="s">
-        <v>1094</v>
       </c>
       <c r="M949" s="3" t="s">
         <v>22</v>
@@ -44944,19 +44941,19 @@
     </row>
     <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B950" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C950" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D950" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="B950" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C950" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D950" s="2" t="s">
+      <c r="E950" s="3" t="s">
         <v>1096</v>
-      </c>
-      <c r="E950" s="3" t="s">
-        <v>1097</v>
       </c>
       <c r="F950" s="3" t="s">
         <v>22</v>
@@ -44986,13 +44983,13 @@
         <v>22</v>
       </c>
       <c r="O950" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="P950" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Q950" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="R950" s="3" t="s">
         <v>38</v>
@@ -45009,10 +45006,10 @@
         <v>0</v>
       </c>
       <c r="C951" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D951" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E951" s="3" t="s">
         <v>22</v>
@@ -45030,10 +45027,10 @@
         <v>2017</v>
       </c>
       <c r="J951" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K951" s="6" t="s">
         <v>1100</v>
-      </c>
-      <c r="K951" s="6" t="s">
-        <v>1101</v>
       </c>
       <c r="L951" s="3" t="s">
         <v>23</v>
@@ -45062,16 +45059,16 @@
     </row>
     <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B952" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C952" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D952" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E952" s="3" t="s">
         <v>22</v>
@@ -45089,10 +45086,10 @@
         <v>2017</v>
       </c>
       <c r="J952" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K952" s="6" t="s">
         <v>1100</v>
-      </c>
-      <c r="K952" s="6" t="s">
-        <v>1101</v>
       </c>
       <c r="L952" s="3" t="s">
         <v>23</v>
@@ -45130,10 +45127,10 @@
         <v>527</v>
       </c>
       <c r="D953" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E953" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F953" s="3" t="s">
         <v>22</v>
@@ -45148,10 +45145,10 @@
         <v>2002</v>
       </c>
       <c r="J953" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="K953" s="6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="L953" s="3" t="s">
         <v>23</v>
@@ -45189,10 +45186,10 @@
         <v>527</v>
       </c>
       <c r="D954" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E954" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F954" s="3" t="s">
         <v>22</v>
@@ -45207,10 +45204,10 @@
         <v>2003</v>
       </c>
       <c r="J954" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K954" s="6" t="s">
         <v>1106</v>
-      </c>
-      <c r="K954" s="6" t="s">
-        <v>1107</v>
       </c>
       <c r="L954" s="3" t="s">
         <v>23</v>
@@ -45239,37 +45236,37 @@
     </row>
     <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B955" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C955" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D955" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E955" s="3" t="s">
         <v>1108</v>
-      </c>
-      <c r="E955" s="3" t="s">
-        <v>1109</v>
       </c>
       <c r="F955" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G955" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H955" s="3" t="s">
         <v>1110</v>
-      </c>
-      <c r="H955" s="3" t="s">
-        <v>1111</v>
       </c>
       <c r="I955" s="3" t="n">
         <v>1998</v>
       </c>
       <c r="J955" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K955" s="6" t="s">
         <v>1112</v>
-      </c>
-      <c r="K955" s="6" t="s">
-        <v>1113</v>
       </c>
       <c r="L955" s="3" t="s">
         <v>23</v>
@@ -45307,46 +45304,46 @@
         <v>186</v>
       </c>
       <c r="D956" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E956" s="3" t="s">
         <v>1114</v>
-      </c>
-      <c r="E956" s="3" t="s">
-        <v>1115</v>
       </c>
       <c r="F956" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G956" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H956" s="3" t="s">
         <v>1116</v>
-      </c>
-      <c r="H956" s="3" t="s">
-        <v>1117</v>
       </c>
       <c r="I956" s="3" t="n">
         <v>2019</v>
       </c>
       <c r="J956" s="0" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K956" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L956" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="L956" s="3" t="s">
+      <c r="M956" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N956" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O956" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="M956" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N956" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O956" s="3" t="s">
+      <c r="P956" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="P956" s="3" t="s">
-        <v>1121</v>
-      </c>
       <c r="Q956" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="R956" s="3" t="s">
         <v>38</v>
@@ -45366,46 +45363,46 @@
         <v>232</v>
       </c>
       <c r="D957" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E957" s="3" t="s">
         <v>1114</v>
-      </c>
-      <c r="E957" s="3" t="s">
-        <v>1115</v>
       </c>
       <c r="F957" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G957" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H957" s="3" t="s">
         <v>1116</v>
-      </c>
-      <c r="H957" s="3" t="s">
-        <v>1117</v>
       </c>
       <c r="I957" s="3" t="n">
         <v>2019</v>
       </c>
       <c r="J957" s="0" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K957" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L957" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="L957" s="3" t="s">
+      <c r="M957" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N957" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O957" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="M957" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N957" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O957" s="3" t="s">
+      <c r="P957" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="P957" s="3" t="s">
-        <v>1121</v>
-      </c>
       <c r="Q957" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="R957" s="3" t="s">
         <v>38</v>
@@ -45425,46 +45422,46 @@
         <v>262</v>
       </c>
       <c r="D958" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E958" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F958" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G958" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H958" s="3" t="s">
         <v>1116</v>
-      </c>
-      <c r="H958" s="3" t="s">
-        <v>1117</v>
       </c>
       <c r="I958" s="3" t="n">
         <v>2019</v>
       </c>
       <c r="J958" s="0" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K958" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L958" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="L958" s="3" t="s">
+      <c r="M958" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N958" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O958" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="M958" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N958" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O958" s="3" t="s">
+      <c r="P958" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="P958" s="3" t="s">
-        <v>1121</v>
-      </c>
       <c r="Q958" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="R958" s="3" t="s">
         <v>38</v>
@@ -45475,16 +45472,16 @@
     </row>
     <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B959" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C959" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D959" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E959" s="3" t="s">
         <v>22</v>
@@ -45502,10 +45499,10 @@
         <v>2017</v>
       </c>
       <c r="J959" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K959" s="6" t="s">
         <v>1124</v>
-      </c>
-      <c r="K959" s="6" t="s">
-        <v>1125</v>
       </c>
       <c r="L959" s="3" t="s">
         <v>721</v>
